--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="嘉年华" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -161,30 +161,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>------------------------------------</t>
-  </si>
-  <si>
-    <t>锋利的爪子{26} ID=0130 [1C20] 类型=1 数量=585W=-1 等级=0 精炼=0 追加=0 红=0 蓝=0 价格=7银 20铜 剩余时间地址=0</t>
-  </si>
-  <si>
-    <t>太阳神水{28} ID=0736 [0000] 类型=2 数量=1W=-1 等级=0 精炼=0 追加=0 红=703567 蓝=0 价格=10银 剩余时间地址=0</t>
-  </si>
-  <si>
-    <t>变异之叶{29} ID=0134 [26AC] 类型=1 数量=476W=-1 等级=0 精炼=0 追加=0 红=0 蓝=0 价格=9银 90铜 剩余时间地址=0</t>
-  </si>
-  <si>
-    <t>抗眩晕石{30} ID=015C [0052] 类型=8 数量=333W=-1 等级=0 精炼=0 追加=0 红=0 蓝=0 价格=1银 剩余时间地址=0</t>
-  </si>
-  <si>
-    <t>金袋子{31} ID=0135 [26AC] 类型=1 数量=473W=-1 等级=0 精炼=0 追加=0 红=0 蓝=0 价格=9银 90铜 剩余时间地址=0</t>
-  </si>
-  <si>
-    <t>精炼石{33} ID=001C [0004] 类型=7 数量=2992W=-1 等级=0 精炼=0 追加=0 红=0 蓝=0 价格=1银 剩余时间地址=0</t>
-  </si>
-  <si>
-    <t>断矛{34} ID=0133 [26AC] 类型=1 数量=465W=-1 等级=0 精炼=0 追加=0 红=0 蓝=0 价格=9银 90铜 剩余时间地址=0</t>
-  </si>
-  <si>
     <t>独孤静丽</t>
   </si>
   <si>
@@ -464,156 +440,6 @@
     <t>66  -105</t>
   </si>
   <si>
-    <t>逍遥教主</t>
-  </si>
-  <si>
-    <t>接任务NPC</t>
-  </si>
-  <si>
-    <t>龙飞宇</t>
-  </si>
-  <si>
-    <t>男女搭配</t>
-  </si>
-  <si>
-    <t>虹丝丝</t>
-  </si>
-  <si>
-    <t>飞天</t>
-  </si>
-  <si>
-    <t>人间大炮</t>
-  </si>
-  <si>
-    <t>狐狸</t>
-  </si>
-  <si>
-    <t>沙瑚荔</t>
-  </si>
-  <si>
-    <t>环境</t>
-  </si>
-  <si>
-    <t>交任务NPC</t>
-  </si>
-  <si>
-    <t>71，-19</t>
-  </si>
-  <si>
-    <t>坐标（）</t>
-  </si>
-  <si>
-    <t>64，-21</t>
-  </si>
-  <si>
-    <t>接任务标</t>
-  </si>
-  <si>
-    <t>72，-126</t>
-  </si>
-  <si>
-    <t>122，-98</t>
-  </si>
-  <si>
-    <t>如何交任务</t>
-  </si>
-  <si>
-    <t>任务编号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1EFB </t>
-  </si>
-  <si>
-    <t>1FC8</t>
-  </si>
-  <si>
-    <t>采星使徒</t>
-  </si>
-  <si>
-    <t>202B</t>
-  </si>
-  <si>
-    <t>采集点位</t>
-  </si>
-  <si>
-    <t>交任务坐标</t>
-  </si>
-  <si>
-    <t>1FBD</t>
-  </si>
-  <si>
-    <t>35，-30</t>
-  </si>
-  <si>
-    <t>任务过程时间</t>
-  </si>
-  <si>
-    <t>逍遥游</t>
-  </si>
-  <si>
-    <t>是非</t>
-  </si>
-  <si>
-    <t>卞是否</t>
-  </si>
-  <si>
-    <t>放飞鹰</t>
-  </si>
-  <si>
-    <t>宠物出租商贩</t>
-  </si>
-  <si>
-    <t>环保</t>
-  </si>
-  <si>
-    <t>63，-31</t>
-  </si>
-  <si>
-    <t>127,14</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>71，-30</t>
-  </si>
-  <si>
-    <t>1FBB</t>
-  </si>
-  <si>
-    <t>问题</t>
-  </si>
-  <si>
-    <t>1.等待队友问题</t>
-  </si>
-  <si>
-    <t>岳千山</t>
-  </si>
-  <si>
-    <t>2.女版男女搭配问题</t>
-  </si>
-  <si>
-    <t>82,,-55</t>
-  </si>
-  <si>
-    <t>3.逍遥流程</t>
-  </si>
-  <si>
-    <t>武林飞人  203B</t>
-  </si>
-  <si>
-    <t>冰凿</t>
-  </si>
-  <si>
-    <t>跳高</t>
-  </si>
-  <si>
-    <t>小红花</t>
-  </si>
-  <si>
-    <t>桃花日常</t>
-  </si>
-  <si>
     <t>女</t>
   </si>
   <si>
@@ -675,19 +501,35 @@
   </si>
   <si>
     <t xml:space="preserve">闭幕  210C   OVER=2 </t>
+  </si>
+  <si>
+    <t>五行融合  41FB</t>
+  </si>
+  <si>
+    <t>火精合成  41F9</t>
+  </si>
+  <si>
+    <t>金精合成  41F6</t>
+  </si>
+  <si>
+    <t>木精合成  41F7</t>
+  </si>
+  <si>
+    <t>水精合成  41F8</t>
+  </si>
+  <si>
+    <t>土精合成  41FA</t>
+  </si>
+  <si>
+    <t>传送石霍健庖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,7 +569,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -735,7 +577,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,135 +588,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,194 +640,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1148,255 +697,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,10 +764,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1487,70 +797,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1841,30 +1108,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="24.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="29.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="13.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="31.2727272727273" style="23" customWidth="1"/>
-    <col min="7" max="7" width="10.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="31.25" style="23" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" spans="1:6">
+    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1884,7 +1151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:6">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1899,7 +1166,7 @@
       </c>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="28" spans="1:6">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>13408411662</v>
       </c>
@@ -1914,7 +1181,7 @@
       </c>
       <c r="F3" s="27"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="38" customHeight="1" spans="1:6">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1931,7 +1198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="56" spans="1:6">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1945,7 +1212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1959,7 +1226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="42" spans="1:6">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1974,7 +1241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="56" spans="1:6">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1989,7 +1256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:7">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -2005,7 +1272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="28" spans="1:6">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>17740228031</v>
       </c>
@@ -2025,7 +1292,7 @@
         <v>17740228031</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -2033,7 +1300,7 @@
       <c r="E11" s="28"/>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -2050,7 +1317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="42" spans="1:6">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -2067,7 +1334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="28" spans="1:6">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -2082,7 +1349,7 @@
       </c>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15" spans="1:6">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2091,32 +1358,32 @@
       </c>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="6:6">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F16" s="26"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="6:6">
+    <row r="17" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F17" s="26"/>
     </row>
-    <row r="18" s="3" customFormat="1" spans="6:6">
+    <row r="18" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F18" s="26"/>
     </row>
-    <row r="19" s="11" customFormat="1" spans="2:6">
+    <row r="19" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="33"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="6">
         <v>25899588</v>
       </c>
     </row>
-    <row r="26" spans="7:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G26">
         <v>1</v>
       </c>
@@ -2136,7 +1403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="6:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F27" s="23" t="s">
         <v>36</v>
       </c>
@@ -2147,7 +1414,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="6:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F28" s="23" t="s">
         <v>37</v>
       </c>
@@ -2158,7 +1425,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="6:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F29" s="23" t="s">
         <v>38</v>
       </c>
@@ -2171,7 +1438,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="6:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F30" s="23" t="s">
         <v>39</v>
       </c>
@@ -2186,7 +1453,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="6:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F31" s="23" t="s">
         <v>40</v>
       </c>
@@ -2197,7 +1464,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="6:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F32" s="23" t="s">
         <v>41</v>
       </c>
@@ -2212,128 +1479,52 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="69" spans="4:4">
-      <c r="D69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4">
-      <c r="D73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4">
-      <c r="D75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4">
-      <c r="D79" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4">
-      <c r="D80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4">
-      <c r="D81" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4">
-      <c r="D83" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="haolie2006@163.com"/>
-    <hyperlink ref="F12" r:id="rId1" display="haolie2006@163.com"/>
-    <hyperlink ref="F13" r:id="rId2" display="hengxia2006@126.com" tooltip="mailto:hengxia2006@126.com"/>
+    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3" tooltip="mailto:hengxia2006@126.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E24"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="3" max="3" width="20.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="21.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>20</v>
@@ -2342,13 +1533,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>12</v>
@@ -2357,19 +1548,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
@@ -2381,31 +1572,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="21">
         <v>17740228031</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -2420,25 +1611,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>12</v>
@@ -2447,19 +1638,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>24</v>
       </c>
@@ -2471,13 +1662,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>20</v>
@@ -2486,55 +1677,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="21">
         <v>17740228031</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="l359838334@163.com"/>
-    <hyperlink ref="A6" r:id="rId2" display="hengxia2006@126.com" tooltip="mailto:hengxia2006@126.com"/>
-    <hyperlink ref="A7" r:id="rId3" display="359838334@qq.com" tooltip="mailto:359838334@qq.com"/>
-    <hyperlink ref="A13" r:id="rId4" display="haolie2006@163.com"/>
-    <hyperlink ref="A20" r:id="rId2" display="hengxia2006@126.com" tooltip="mailto:hengxia2006@126.com"/>
-    <hyperlink ref="A21" r:id="rId3" display="359838334@qq.com" tooltip="mailto:359838334@qq.com"/>
-    <hyperlink ref="A23" r:id="rId1" display="l359838334@163.com"/>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2" tooltip="mailto:hengxia2006@126.com"/>
+    <hyperlink ref="A7" r:id="rId3" tooltip="mailto:359838334@qq.com"/>
+    <hyperlink ref="A13" r:id="rId4"/>
+    <hyperlink ref="A20" r:id="rId5" tooltip="mailto:hengxia2006@126.com"/>
+    <hyperlink ref="A21" r:id="rId6" tooltip="mailto:359838334@qq.com"/>
+    <hyperlink ref="A23" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O62"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.81818181818182"/>
-    <col min="2" max="2" width="22.3636363636364" customWidth="1"/>
-    <col min="3" max="4" width="9.81818181818182"/>
-    <col min="5" max="6" width="9.81818181818182" style="11"/>
-    <col min="7" max="10" width="9.81818181818182"/>
-    <col min="11" max="11" width="26.4545454545455" customWidth="1"/>
-    <col min="12" max="16384" width="9.81818181818182"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="5" max="6" width="9.875" style="11"/>
+    <col min="11" max="11" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="2:6">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2545,7 +1731,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" ht="70" spans="2:14">
+    <row r="2" spans="2:15" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B2" s="9">
         <v>13408411662</v>
       </c>
@@ -2559,10 +1745,10 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" ht="56" spans="2:15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="54" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2573,16 +1759,16 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="M3" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" ht="84" customHeight="1" spans="2:13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2593,10 +1779,10 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="M4" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2607,44 +1793,44 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="M5" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" ht="56" spans="2:13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="M6" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="M7" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2655,16 +1841,16 @@
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
       <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
         <v>54</v>
       </c>
-      <c r="N8" t="s">
-        <v>62</v>
-      </c>
       <c r="O8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="42" spans="2:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>17740228031</v>
       </c>
@@ -2675,7 +1861,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" customFormat="1" spans="2:6">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2686,32 +1872,32 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" customFormat="1" ht="56" spans="2:6">
+    <row r="11" spans="2:15" ht="54" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" customFormat="1" ht="15" spans="2:10">
+    <row r="12" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="J12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="15" spans="2:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2720,540 +1906,502 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="15" customFormat="1" spans="5:6">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" customFormat="1" spans="3:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" customFormat="1" spans="3:12">
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
       <c r="L17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" spans="5:12">
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="L18" t="s">
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="2:12">
-      <c r="B19" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="H19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="11" t="s">
+      <c r="H21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" customFormat="1" spans="2:12">
-      <c r="B20" t="s">
+      <c r="J21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C22" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="H20" t="s">
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="G30" t="s">
         <v>68</v>
       </c>
-      <c r="J20" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="2:12">
-      <c r="B21" t="s">
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="H21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="11" t="s">
+      <c r="L30" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="2:12">
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="H22" s="11" t="s">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G33" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="2:12">
-      <c r="B23" t="s">
+      <c r="L33" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="H23" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" t="s">
-        <v>90</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="4:12">
-      <c r="D24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="H24" t="s">
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="G34" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="5:12">
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="H25" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="5:12">
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="H26" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="5:12">
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27" t="s">
-        <v>94</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="5:12">
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="5:12">
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29" t="s">
-        <v>81</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="5:12">
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" t="s">
-        <v>85</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="5:12">
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J31" t="s">
-        <v>98</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="5:12">
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" t="s">
-        <v>100</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="5:12">
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7">
-      <c r="G34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C35">
         <v>493</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
       <c r="K39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="H41" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" t="s">
+        <v>97</v>
+      </c>
+      <c r="K42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="11:11">
-      <c r="K40" t="s">
+      <c r="K44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="8:11">
-      <c r="H41" t="s">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" t="s">
         <v>103</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="3:11">
-      <c r="C42" t="s">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
         <v>103</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H46" t="s">
         <v>105</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K46" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="3:11">
-      <c r="C43" t="s">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
         <v>105</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H47" t="s">
         <v>107</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K47" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="3:11">
-      <c r="C44" t="s">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
         <v>107</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H48" t="s">
         <v>109</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K48" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="3:11">
-      <c r="C45" t="s">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
         <v>109</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H49" t="s">
         <v>111</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
-      <c r="C46" t="s">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
         <v>111</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H50" t="s">
         <v>113</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
-      <c r="C47" t="s">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
         <v>113</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H51" t="s">
         <v>115</v>
       </c>
-      <c r="K47" t="s">
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
-      <c r="C48" t="s">
-        <v>115</v>
-      </c>
-      <c r="H48" t="s">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" t="s">
         <v>117</v>
       </c>
-      <c r="K48" t="s">
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="3:11">
-      <c r="C49" t="s">
-        <v>117</v>
-      </c>
-      <c r="H49" t="s">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" t="s">
         <v>119</v>
       </c>
-      <c r="K49" t="s">
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="3:11">
-      <c r="C50" t="s">
-        <v>119</v>
-      </c>
-      <c r="H50" t="s">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="H57" t="s">
         <v>121</v>
       </c>
-      <c r="K50" t="s">
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="3:8">
-      <c r="C51" t="s">
-        <v>121</v>
-      </c>
-      <c r="H51" t="s">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="H59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="3:8">
-      <c r="C52" t="s">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
         <v>123</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="3:8">
-      <c r="C53" t="s">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
         <v>124</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H61" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="3:8">
-      <c r="C54" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" t="s">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="H62" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="3:8">
-      <c r="C55" t="s">
-        <v>126</v>
-      </c>
-      <c r="H55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8">
-      <c r="C56" t="s">
-        <v>127</v>
-      </c>
-      <c r="H56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8">
-      <c r="C57" t="s">
-        <v>128</v>
-      </c>
-      <c r="H57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8">
-      <c r="C58" t="s">
-        <v>129</v>
-      </c>
-      <c r="H58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="C59" t="s">
-        <v>130</v>
-      </c>
-      <c r="H59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8">
-      <c r="C60" t="s">
-        <v>131</v>
-      </c>
-      <c r="H60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8">
-      <c r="C61" t="s">
-        <v>132</v>
-      </c>
-      <c r="H61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="8:8">
-      <c r="H62" t="s">
-        <v>134</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="23.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="21.2727272727273" customWidth="1"/>
-    <col min="8" max="8" width="18.9090909090909" customWidth="1"/>
-    <col min="9" max="9" width="19.3636363636364" customWidth="1"/>
-    <col min="10" max="10" width="21.6363636363636" customWidth="1"/>
-    <col min="11" max="11" width="4.90909090909091" customWidth="1"/>
-    <col min="12" max="14" width="4.63636363636364" customWidth="1"/>
-    <col min="15" max="15" width="4.54545454545455" customWidth="1"/>
-    <col min="16" max="16" width="5.09090909090909" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="21.625" customWidth="1"/>
+    <col min="11" max="11" width="4.875" customWidth="1"/>
+    <col min="12" max="14" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="4.5" customWidth="1"/>
+    <col min="16" max="16" width="5.125" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
-    <col min="18" max="18" width="5.09090909090909" customWidth="1"/>
+    <col min="18" max="18" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3265,7 +2413,7 @@
         <v>17740228031</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -3274,7 +2422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="70" spans="1:10">
+    <row r="2" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>13408411662</v>
       </c>
@@ -3286,16 +2434,16 @@
         <v>10</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" ht="56" spans="1:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3307,16 +2455,16 @@
         <v>28</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" ht="98" spans="1:10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3328,16 +2476,16 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3349,22 +2497,22 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I5" s="9">
         <v>13408411662</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" ht="56" spans="1:10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -3376,19 +2524,19 @@
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -3397,7 +2545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -3406,374 +2554,172 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="56" spans="1:3">
+    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="15.9090909090909" customWidth="1"/>
-    <col min="5" max="5" width="9.54545454545454"/>
-    <col min="7" max="7" width="13.1818181818182" customWidth="1"/>
-    <col min="10" max="10" width="12.0909090909091" customWidth="1"/>
-    <col min="13" max="13" width="18.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="9.5"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16">
-      <c r="C1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="4:16">
-      <c r="D2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>155</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>156</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>157</v>
       </c>
-      <c r="M2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>158</v>
       </c>
-      <c r="P2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="4:16">
-      <c r="D3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>159</v>
       </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>160</v>
       </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>-107</v>
+      </c>
+      <c r="F9">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="M3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" t="s">
-        <v>162</v>
-      </c>
-      <c r="P3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="4:16">
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" t="s">
-        <v>164</v>
-      </c>
-      <c r="P4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5">
-      <c r="D5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="6">
-        <v>-121244</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8">
-      <c r="D6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" t="s">
-        <v>172</v>
-      </c>
-      <c r="K12" t="s">
-        <v>173</v>
-      </c>
-      <c r="L12" t="s">
-        <v>143</v>
-      </c>
-      <c r="M12" t="s">
-        <v>174</v>
-      </c>
-      <c r="P12" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q12">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="13" spans="7:13">
-      <c r="G13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" t="s">
-        <v>176</v>
-      </c>
-      <c r="L13" t="s">
-        <v>156</v>
-      </c>
-      <c r="M13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="7:13">
-      <c r="G14" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" t="s">
-        <v>191</v>
+      <c r="E10">
+        <v>-93</v>
+      </c>
+      <c r="F10">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
+    <sheetView topLeftCell="D22" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="20.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="9.54545454545454"/>
-    <col min="7" max="7" width="22.8181818181818" customWidth="1"/>
-    <col min="9" max="9" width="12.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="9.5"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" ht="15" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3781,211 +2727,211 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>17740228031</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
       </c>
     </row>
-    <row r="15" spans="5:6">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
       </c>
     </row>
-    <row r="16" spans="5:6">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F17" s="6">
         <v>-224359</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F18" s="6">
         <v>-246356</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F19" s="6">
         <v>-269330</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F20" s="6">
         <v>-283323</v>
       </c>
     </row>
-    <row r="21" spans="4:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
       </c>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F22" s="6">
         <v>-312274</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
       </c>
     </row>
-    <row r="24" spans="5:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F25" s="6">
         <v>-304180</v>
       </c>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F26" s="6">
         <v>-302171</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F27" s="6">
         <v>-275135</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F28" s="6">
         <v>-271127</v>
       </c>
     </row>
-    <row r="29" spans="6:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F29" s="6">
         <v>-231104</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="6:6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="6:14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F33" s="6">
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="6:14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F34" s="6">
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="6:14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F35" s="6">
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="7:14">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G36" s="6">
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="7:15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G37" s="6">
         <v>-50173</v>
       </c>
@@ -3996,7 +2942,7 @@
         <v>-289</v>
       </c>
     </row>
-    <row r="38" spans="7:15">
+    <row r="38" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G38" s="6">
         <v>-41183</v>
       </c>
@@ -4007,7 +2953,7 @@
         <v>-199</v>
       </c>
     </row>
-    <row r="39" spans="7:15">
+    <row r="39" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G39" s="6">
         <v>-38225</v>
       </c>
@@ -4018,48 +2964,48 @@
         <v>-177</v>
       </c>
     </row>
-    <row r="40" spans="7:14">
+    <row r="40" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G40" s="6">
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="7:14">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G41" s="6">
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="7:14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G42" s="6">
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="7:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G43" s="6">
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="N43" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="9:9">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="6:15" x14ac:dyDescent="0.15">
       <c r="I44" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="163">
   <si>
     <t>ID</t>
   </si>
@@ -523,6 +523,9 @@
   <si>
     <t>传送石霍健庖</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼图C3</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N80" sqref="N80"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1478,6 +1481,11 @@
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I39" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="7020"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -84,11 +84,6 @@
     <t>l359838334@163.com</t>
   </si>
   <si>
-    <t>万点红
-独孤白拓库(副本物品)
-独孤黎驹(图鉴)</t>
-  </si>
-  <si>
     <t>枪</t>
   </si>
   <si>
@@ -130,10 +125,6 @@
     <t>haolie2020</t>
   </si>
   <si>
-    <t xml:space="preserve">卫清黎
-</t>
-  </si>
-  <si>
     <t>zjinli2020</t>
   </si>
   <si>
@@ -526,6 +517,110 @@
   </si>
   <si>
     <t>拼图C3</t>
+  </si>
+  <si>
+    <t>优良的YY神石</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩的YY神石</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美的YY神石</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶莹的YY神石</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙尘的YY神石</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻的YY神石</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY神石</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光的YY神石</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>不错的YY神石</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>卫清黎
+(金之晶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">万点红
+独孤白拓库(副本物品)
+独孤黎驹(图鉴)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(土</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之晶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>多罗悟北
+（木之金）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(水之晶)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -709,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,6 +908,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,10 +1218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1229,15 +1331,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="29" t="s">
@@ -1246,25 +1348,25 @@
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -1272,7 +1374,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1280,13 +1382,13 @@
         <v>17740228031</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="28">
         <v>17740228031</v>
@@ -1298,17 +1400,17 @@
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
@@ -1317,15 +1419,15 @@
         <v>17740228031</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -1334,15 +1436,15 @@
         <v>17740228031</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>170</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -1354,7 +1456,10 @@
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="E15" s="2">
         <v>159</v>
@@ -1372,13 +1477,13 @@
     </row>
     <row r="19" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="33"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
@@ -1408,7 +1513,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F27" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1419,7 +1524,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F28" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1430,7 +1535,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F29" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1443,7 +1548,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F30" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -1458,7 +1563,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F31" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1469,7 +1574,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F32" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1484,7 +1589,7 @@
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1501,6 +1606,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:E24"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
@@ -1520,7 +1626,7 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>15</v>
@@ -1532,10 +1638,10 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1543,11 +1649,11 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>12</v>
@@ -1562,7 +1668,7 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>12</v>
@@ -1570,11 +1676,11 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>12</v>
@@ -1582,11 +1688,11 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>12</v>
@@ -1598,19 +1704,19 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>8</v>
@@ -1625,7 +1731,7 @@
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>15</v>
@@ -1633,11 +1739,11 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>12</v>
@@ -1652,7 +1758,7 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>12</v>
@@ -1660,11 +1766,11 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>12</v>
@@ -1676,10 +1782,10 @@
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1691,10 +1797,10 @@
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1715,6 +1821,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:O62"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -1753,7 +1860,7 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="54" x14ac:dyDescent="0.15">
@@ -1767,13 +1874,13 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="M3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -1787,7 +1894,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="M4" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.15">
@@ -1801,10 +1908,10 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="M5" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="54" x14ac:dyDescent="0.15">
@@ -1813,49 +1920,49 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="M6" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="M7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="40.5" x14ac:dyDescent="0.15">
@@ -1864,50 +1971,50 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="2:15" ht="54" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
     </row>
     <row r="12" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1916,252 +2023,252 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E15" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C16" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="L18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="C19" t="s">
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
+      <c r="H21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" t="s">
+      <c r="J21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="H21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C22" t="s">
+      <c r="J22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
         <v>78</v>
       </c>
-      <c r="C23" t="s">
+      <c r="H23" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D23" t="s">
+      <c r="J23" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" t="s">
-        <v>82</v>
-      </c>
       <c r="L23" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="L24" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H26" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" t="s">
         <v>84</v>
-      </c>
-      <c r="L33" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.15">
@@ -2171,212 +2278,212 @@
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.15">
       <c r="K39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.15">
       <c r="K40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.15">
       <c r="H41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" t="s">
         <v>95</v>
       </c>
-      <c r="H42" t="s">
-        <v>97</v>
-      </c>
       <c r="K42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" t="s">
         <v>97</v>
       </c>
-      <c r="H43" t="s">
-        <v>99</v>
-      </c>
       <c r="K43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" t="s">
         <v>99</v>
       </c>
-      <c r="H44" t="s">
-        <v>101</v>
-      </c>
       <c r="K44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" t="s">
         <v>101</v>
       </c>
-      <c r="H45" t="s">
-        <v>103</v>
-      </c>
       <c r="K45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" t="s">
         <v>103</v>
       </c>
-      <c r="H46" t="s">
-        <v>105</v>
-      </c>
       <c r="K46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47" t="s">
         <v>105</v>
       </c>
-      <c r="H47" t="s">
-        <v>107</v>
-      </c>
       <c r="K47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" t="s">
         <v>107</v>
       </c>
-      <c r="H48" t="s">
-        <v>109</v>
-      </c>
       <c r="K48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" t="s">
         <v>109</v>
       </c>
-      <c r="H49" t="s">
-        <v>111</v>
-      </c>
       <c r="K49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" t="s">
         <v>111</v>
       </c>
-      <c r="H50" t="s">
-        <v>113</v>
-      </c>
       <c r="K50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" t="s">
         <v>113</v>
-      </c>
-      <c r="H51" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H58" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.15">
       <c r="H62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2387,6 +2494,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2421,7 +2529,7 @@
         <v>17740228031</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -2442,13 +2550,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.15">
@@ -2460,16 +2568,16 @@
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
@@ -2481,16 +2589,16 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2502,16 +2610,16 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I5" s="9">
         <v>13408411662</v>
       </c>
       <c r="J5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="54" x14ac:dyDescent="0.15">
@@ -2520,7 +2628,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -2529,65 +2637,65 @@
         <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2598,6 +2706,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2616,33 +2725,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2655,7 +2764,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10">
         <v>-93</v>
@@ -2673,10 +2782,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O44"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2692,39 +2802,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -2735,7 +2845,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -2743,10 +2853,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -2754,10 +2864,10 @@
         <v>17740228031</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -2765,24 +2875,24 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
@@ -2790,13 +2900,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
@@ -2804,7 +2914,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
@@ -2812,7 +2922,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
@@ -2840,7 +2950,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
@@ -2853,7 +2963,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
@@ -2861,7 +2971,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
@@ -2894,17 +3004,17 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="6:15" x14ac:dyDescent="0.15">
@@ -2912,7 +3022,7 @@
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="6:15" x14ac:dyDescent="0.15">
@@ -2920,7 +3030,7 @@
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="6:15" x14ac:dyDescent="0.15">
@@ -2928,7 +3038,7 @@
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="6:15" x14ac:dyDescent="0.15">
@@ -2936,7 +3046,7 @@
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="6:15" x14ac:dyDescent="0.15">
@@ -2977,7 +3087,7 @@
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="6:15" x14ac:dyDescent="0.15">
@@ -2985,7 +3095,7 @@
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="6:15" x14ac:dyDescent="0.15">
@@ -2993,7 +3103,7 @@
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="6:15" x14ac:dyDescent="0.15">
@@ -3001,15 +3111,60 @@
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="6:15" x14ac:dyDescent="0.15">
       <c r="I44" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="G48" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G49" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G50" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G51" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G52" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G53" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G54" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G55" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G56" s="34" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="7020" activeTab="1"/>
+    <workbookView windowWidth="18600" windowHeight="7020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="8里夜活动" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="8里夜活动" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="嘉年华" sheetId="6" r:id="rId6"/>
@@ -19,37 +19,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="192">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Emp</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>EMail</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="194">
   <si>
     <t>l13408411662</t>
   </si>
   <si>
     <t>方中永秀</t>
-  </si>
-  <si>
-    <t>剑</t>
   </si>
   <si>
     <t>独孤图昂
 独孤涪陵（旅游卷//声望材料）</t>
+  </si>
+  <si>
+    <t>男法</t>
   </si>
   <si>
     <t>359838334@qq.com</t>
@@ -60,7 +42,10 @@
 </t>
   </si>
   <si>
-    <t>术</t>
+    <t>长空飞花</t>
+  </si>
+  <si>
+    <t>男火</t>
   </si>
   <si>
     <t>526505263@qq.com</t>
@@ -72,16 +57,334 @@
 独孤丽昂（首饰）</t>
   </si>
   <si>
+    <t>独孤静丽</t>
+  </si>
+  <si>
+    <t>moontearangle@163.com</t>
+  </si>
+  <si>
+    <t>梅</t>
+  </si>
+  <si>
+    <t>少阳一缺</t>
+  </si>
+  <si>
+    <t>神算</t>
+  </si>
+  <si>
+    <t>l359838334@163.com</t>
+  </si>
+  <si>
+    <t>万点红
+独孤白拓库(副本物品)</t>
+  </si>
+  <si>
+    <t>墨染秋水痕</t>
+  </si>
+  <si>
+    <t>haolie2006</t>
+  </si>
+  <si>
+    <t>修欲斜图</t>
+  </si>
+  <si>
+    <t>卫清黎</t>
+  </si>
+  <si>
+    <t>女剑</t>
+  </si>
+  <si>
+    <t>liuyouhao2020@126.com</t>
+  </si>
+  <si>
+    <t>独清月</t>
+  </si>
+  <si>
+    <t>花语（）</t>
+  </si>
+  <si>
+    <t>华君</t>
+  </si>
+  <si>
+    <t>少阳一缺
+彻天不杨（拼图）</t>
+  </si>
+  <si>
+    <t>haolie2006@163.com</t>
+  </si>
+  <si>
+    <t>多罗悟北</t>
+  </si>
+  <si>
+    <t>hengxia2006@126.com</t>
+  </si>
+  <si>
+    <t>墨染秋水痕
+烁勒提拉(材料)</t>
+  </si>
+  <si>
+    <t>haolie2020</t>
+  </si>
+  <si>
+    <t>七下仓库</t>
+  </si>
+  <si>
+    <t>zjinli2020</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>Haolie2006</t>
+  </si>
+  <si>
+    <t>0716ma</t>
+  </si>
+  <si>
+    <t>点亮星星</t>
+  </si>
+  <si>
+    <t>领镔铁凿</t>
+  </si>
+  <si>
+    <t>独孤涪陵</t>
+  </si>
+  <si>
+    <t>声望、旅游卷</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>奥运明星</t>
+  </si>
+  <si>
+    <t>若清蓝</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>奥运神射手</t>
+  </si>
+  <si>
+    <t>独孤白拓库</t>
+  </si>
+  <si>
+    <t>副本</t>
+  </si>
+  <si>
+    <t>花语</t>
+  </si>
+  <si>
+    <t>奥运跳高</t>
+  </si>
+  <si>
+    <t>顶蘑菇</t>
+  </si>
+  <si>
+    <t>独孤丽昂</t>
+  </si>
+  <si>
+    <t>首饰</t>
+  </si>
+  <si>
+    <t>赶猪</t>
+  </si>
+  <si>
+    <t>射鸡</t>
+  </si>
+  <si>
+    <t>独孤修斌</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>神火</t>
+  </si>
+  <si>
+    <t>游乐场闯关</t>
+  </si>
+  <si>
+    <t>狩猎</t>
+  </si>
+  <si>
+    <t>飞羽</t>
+  </si>
+  <si>
+    <t>送宝宝</t>
+  </si>
+  <si>
+    <t>套圈</t>
+  </si>
+  <si>
+    <t>躲猫猫</t>
+  </si>
+  <si>
+    <t>挖挖乐</t>
+  </si>
+  <si>
+    <t>每日签到</t>
+  </si>
+  <si>
+    <t>除虫</t>
+  </si>
+  <si>
+    <t>鬼屋历险记</t>
+  </si>
+  <si>
+    <t>送口信</t>
+  </si>
+  <si>
+    <t>桃花宝典</t>
+  </si>
+  <si>
+    <t>高级元神升级石礼包</t>
+  </si>
+  <si>
+    <t>初级元神升级石礼包</t>
+  </si>
+  <si>
+    <t>八卦宝箱·壹</t>
+  </si>
+  <si>
+    <t>灵符之魂</t>
+  </si>
+  <si>
+    <t>八卦宝箱·叁</t>
+  </si>
+  <si>
+    <t>盗宝贼的宝藏</t>
+  </si>
+  <si>
+    <t>八卦宝箱·贰</t>
+  </si>
+  <si>
+    <t>印绶神佑符</t>
+  </si>
+  <si>
+    <t>乾元丹</t>
+  </si>
+  <si>
+    <t>印绶地灵符</t>
+  </si>
+  <si>
+    <t>海之珍</t>
+  </si>
+  <si>
+    <t>免费鲜花</t>
+  </si>
+  <si>
+    <t>天天跟我做胜利礼包</t>
+  </si>
+  <si>
+    <t>巨侠通行币</t>
+  </si>
+  <si>
+    <t>衡山无双通关礼包</t>
+  </si>
+  <si>
+    <t>远古碎片</t>
+  </si>
+  <si>
+    <t>神秘碎片</t>
+  </si>
+  <si>
+    <t>刷新石(赠送)</t>
+  </si>
+  <si>
+    <t>唤灵牌</t>
+  </si>
+  <si>
+    <t>离火冰炎</t>
+  </si>
+  <si>
+    <t>点石成金</t>
+  </si>
+  <si>
+    <t>陨残石[二阶]</t>
+  </si>
+  <si>
+    <t>京城密道胜利道具</t>
+  </si>
+  <si>
+    <t>山寨剿灭勋章</t>
+  </si>
+  <si>
+    <t>幽冥古卷残章</t>
+  </si>
+  <si>
+    <t>初代YY教主内丹残片</t>
+  </si>
+  <si>
+    <t>银票</t>
+  </si>
+  <si>
+    <t>炼魂玉碎片</t>
+  </si>
+  <si>
+    <t>镔铁凿</t>
+  </si>
+  <si>
+    <t>鬼之魂印石</t>
+  </si>
+  <si>
+    <t>女娲石</t>
+  </si>
+  <si>
+    <t>魂印石</t>
+  </si>
+  <si>
+    <t>鬼之魂印羽化石碎片</t>
+  </si>
+  <si>
+    <t>学院小红花</t>
+  </si>
+  <si>
+    <t>扬文匕</t>
+  </si>
+  <si>
+    <t>叠山如来杖</t>
+  </si>
+  <si>
+    <t>魂魄珠(未激活){34} ID=9723 [0000] 类型=11 数量=1W=-1 等级=0 精炼=0 追加=0 红=0 蓝=0 价格=1铜 剩余时间地址=0</t>
+  </si>
+  <si>
+    <t>盗梦boss1</t>
+  </si>
+  <si>
+    <t>173,76</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Emp</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>EMail</t>
+  </si>
+  <si>
+    <t>剑</t>
+  </si>
+  <si>
+    <t>术</t>
+  </si>
+  <si>
     <t>医</t>
-  </si>
-  <si>
-    <t>moontearangle@163.com</t>
-  </si>
-  <si>
-    <t>梅</t>
-  </si>
-  <si>
-    <t>l359838334@163.com</t>
   </si>
   <si>
     <r>
@@ -132,31 +435,12 @@
     <t>枪</t>
   </si>
   <si>
-    <t>haolie2006</t>
-  </si>
-  <si>
     <t>修欲斜图
 波多几大（YY石头、暗夜明珠、奇迹石头、奖章）
 李固啦丝青玄(张半仙签)</t>
   </si>
   <si>
-    <t>haolie2006@163.com</t>
-  </si>
-  <si>
-    <t>liuyouhao2020@126.com</t>
-  </si>
-  <si>
-    <t>独清月</t>
-  </si>
-  <si>
     <t>轻木，铜，麻布</t>
-  </si>
-  <si>
-    <t>少阳一缺
-彻天不杨（拼图）</t>
-  </si>
-  <si>
-    <t>hengxia2006@126.com</t>
   </si>
   <si>
     <t>多罗悟北
@@ -166,9 +450,6 @@
     <t>墨染秋水痕
 烁勒提拉(材料)
 床库（yy石头、宠物）</t>
-  </si>
-  <si>
-    <t>haolie2020</t>
   </si>
   <si>
     <r>
@@ -194,18 +475,9 @@
     </r>
   </si>
   <si>
-    <t>zjinli2020</t>
-  </si>
-  <si>
     <t>(水之晶)</t>
   </si>
   <si>
-    <t>Haolie2006</t>
-  </si>
-  <si>
-    <t>0716ma</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -254,276 +526,10 @@
     <t>碧115</t>
   </si>
   <si>
-    <t>独孤静丽</t>
-  </si>
-  <si>
-    <t>修欲斜图</t>
-  </si>
-  <si>
     <t>丹115、碧115</t>
   </si>
   <si>
-    <t>墨染秋水痕</t>
-  </si>
-  <si>
-    <t>长空飞花</t>
-  </si>
-  <si>
-    <t>少阳一缺</t>
-  </si>
-  <si>
     <t>玄丹110</t>
-  </si>
-  <si>
-    <t>男法</t>
-  </si>
-  <si>
-    <t>男火</t>
-  </si>
-  <si>
-    <t>神算</t>
-  </si>
-  <si>
-    <t>万点红
-独孤白拓库(副本物品)</t>
-  </si>
-  <si>
-    <t>卫清黎</t>
-  </si>
-  <si>
-    <t>女剑</t>
-  </si>
-  <si>
-    <t>花语（）</t>
-  </si>
-  <si>
-    <t>华君</t>
-  </si>
-  <si>
-    <t>多罗悟北</t>
-  </si>
-  <si>
-    <t>墨染秋水痕
-烁勒提拉(材料)</t>
-  </si>
-  <si>
-    <t>七下仓库</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>点亮星星</t>
-  </si>
-  <si>
-    <t>领镔铁凿</t>
-  </si>
-  <si>
-    <t>独孤涪陵</t>
-  </si>
-  <si>
-    <t>声望、旅游卷</t>
-  </si>
-  <si>
-    <t>法师</t>
-  </si>
-  <si>
-    <t>奥运明星</t>
-  </si>
-  <si>
-    <t>若清蓝</t>
-  </si>
-  <si>
-    <t>装备</t>
-  </si>
-  <si>
-    <t>医生</t>
-  </si>
-  <si>
-    <t>奥运神射手</t>
-  </si>
-  <si>
-    <t>独孤白拓库</t>
-  </si>
-  <si>
-    <t>副本</t>
-  </si>
-  <si>
-    <t>花语</t>
-  </si>
-  <si>
-    <t>奥运跳高</t>
-  </si>
-  <si>
-    <t>顶蘑菇</t>
-  </si>
-  <si>
-    <t>独孤丽昂</t>
-  </si>
-  <si>
-    <t>首饰</t>
-  </si>
-  <si>
-    <t>赶猪</t>
-  </si>
-  <si>
-    <t>射鸡</t>
-  </si>
-  <si>
-    <t>独孤修斌</t>
-  </si>
-  <si>
-    <t>YY</t>
-  </si>
-  <si>
-    <t>神火</t>
-  </si>
-  <si>
-    <t>游乐场闯关</t>
-  </si>
-  <si>
-    <t>狩猎</t>
-  </si>
-  <si>
-    <t>飞羽</t>
-  </si>
-  <si>
-    <t>送宝宝</t>
-  </si>
-  <si>
-    <t>套圈</t>
-  </si>
-  <si>
-    <t>躲猫猫</t>
-  </si>
-  <si>
-    <t>挖挖乐</t>
-  </si>
-  <si>
-    <t>每日签到</t>
-  </si>
-  <si>
-    <t>除虫</t>
-  </si>
-  <si>
-    <t>鬼屋历险记</t>
-  </si>
-  <si>
-    <t>送口信</t>
-  </si>
-  <si>
-    <t>桃花宝典</t>
-  </si>
-  <si>
-    <t>高级元神升级石礼包</t>
-  </si>
-  <si>
-    <t>初级元神升级石礼包</t>
-  </si>
-  <si>
-    <t>八卦宝箱·壹</t>
-  </si>
-  <si>
-    <t>灵符之魂</t>
-  </si>
-  <si>
-    <t>八卦宝箱·叁</t>
-  </si>
-  <si>
-    <t>盗宝贼的宝藏</t>
-  </si>
-  <si>
-    <t>八卦宝箱·贰</t>
-  </si>
-  <si>
-    <t>印绶神佑符</t>
-  </si>
-  <si>
-    <t>乾元丹</t>
-  </si>
-  <si>
-    <t>印绶地灵符</t>
-  </si>
-  <si>
-    <t>海之珍</t>
-  </si>
-  <si>
-    <t>免费鲜花</t>
-  </si>
-  <si>
-    <t>天天跟我做胜利礼包</t>
-  </si>
-  <si>
-    <t>巨侠通行币</t>
-  </si>
-  <si>
-    <t>衡山无双通关礼包</t>
-  </si>
-  <si>
-    <t>远古碎片</t>
-  </si>
-  <si>
-    <t>神秘碎片</t>
-  </si>
-  <si>
-    <t>刷新石(赠送)</t>
-  </si>
-  <si>
-    <t>唤灵牌</t>
-  </si>
-  <si>
-    <t>离火冰炎</t>
-  </si>
-  <si>
-    <t>点石成金</t>
-  </si>
-  <si>
-    <t>陨残石[二阶]</t>
-  </si>
-  <si>
-    <t>京城密道胜利道具</t>
-  </si>
-  <si>
-    <t>山寨剿灭勋章</t>
-  </si>
-  <si>
-    <t>幽冥古卷残章</t>
-  </si>
-  <si>
-    <t>初代YY教主内丹残片</t>
-  </si>
-  <si>
-    <t>银票</t>
-  </si>
-  <si>
-    <t>炼魂玉碎片</t>
-  </si>
-  <si>
-    <t>镔铁凿</t>
-  </si>
-  <si>
-    <t>鬼之魂印石</t>
-  </si>
-  <si>
-    <t>女娲石</t>
-  </si>
-  <si>
-    <t>魂印石</t>
-  </si>
-  <si>
-    <t>鬼之魂印羽化石碎片</t>
-  </si>
-  <si>
-    <t>学院小红花</t>
-  </si>
-  <si>
-    <t>扬文匕</t>
-  </si>
-  <si>
-    <t>叠山如来杖</t>
-  </si>
-  <si>
-    <t>魂魄珠(未激活){34} ID=9723 [0000] 类型=11 数量=1W=-1 等级=0 精炼=0 追加=0 红=0 蓝=0 价格=1铜 剩余时间地址=0</t>
   </si>
   <si>
     <t xml:space="preserve">长空飞花
@@ -679,9 +685,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -701,20 +707,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -743,7 +735,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -752,7 +757,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,25 +794,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -802,23 +825,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,9 +840,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,33 +871,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -894,13 +900,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,49 +1014,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,79 +1062,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,25 +1086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,13 +1154,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,30 +1223,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1222,17 +1232,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,10 +1259,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,133 +1271,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1432,37 +1438,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1474,19 +1462,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1494,6 +1482,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1843,6 +1849,710 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B1:O75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.87272727272727" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="22.3727272727273" customWidth="1"/>
+    <col min="5" max="6" width="9.87272727272727" style="13"/>
+    <col min="11" max="11" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" ht="70" spans="2:14">
+      <c r="B2" s="10">
+        <v>13408411662</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="56" spans="2:15">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="84" customHeight="1" spans="2:13">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="M4" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="M5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="56" spans="2:13">
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="M6" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="42" spans="2:6">
+      <c r="B9" s="4">
+        <v>17740228031</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" ht="56" spans="2:6">
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" ht="15" spans="2:10">
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12">
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12">
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12">
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="8:12">
+      <c r="H26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="7:12">
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12">
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="7:12">
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="7:12">
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="7:12">
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="7:12">
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12">
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="39" spans="11:11">
+      <c r="K39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="11:11">
+      <c r="K40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11">
+      <c r="H41" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s">
+        <v>79</v>
+      </c>
+      <c r="K44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11">
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" t="s">
+        <v>85</v>
+      </c>
+      <c r="K47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11">
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11">
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s">
+        <v>89</v>
+      </c>
+      <c r="K49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11">
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+      <c r="H58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+      <c r="H60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+      <c r="H61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="H62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75">
+        <v>179</v>
+      </c>
+      <c r="E75" s="13">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1856,149 +2566,149 @@
     <col min="3" max="3" width="29.8727272727273" customWidth="1"/>
     <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="31.2545454545455" style="20" customWidth="1"/>
+    <col min="6" max="6" width="31.2545454545455" style="14" customWidth="1"/>
     <col min="7" max="7" width="10.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="1:6">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>5</v>
+    <row r="1" s="12" customFormat="1" spans="1:6">
+      <c r="A1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3">
         <v>13408411662</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="28" spans="1:6">
       <c r="A3" s="10">
         <v>13408411662</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2">
         <v>13408411662</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="38.1" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2">
         <v>13408411662</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>10</v>
+      <c r="F4" s="18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="56" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>13</v>
+        <v>118</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>16</v>
+        <v>116</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="56" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27" t="s">
-        <v>18</v>
+        <v>120</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="56" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="28" t="s">
-        <v>23</v>
+        <v>117</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:7">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+        <v>117</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="28" spans="1:6">
@@ -2006,104 +2716,104 @@
         <v>17740228031</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="26">
+        <v>120</v>
+      </c>
+      <c r="E10" s="20">
         <v>17740228031</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="21">
         <v>17740228031</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="29"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+        <v>29</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="28" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="26">
+        <v>116</v>
+      </c>
+      <c r="E12" s="20">
         <v>17740228031</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>23</v>
+      <c r="F12" s="22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="42" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2">
         <v>17740228031</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>28</v>
+      <c r="F13" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="28" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>32</v>
+      <c r="C14" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="E14" s="2">
         <v>17740228031</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>34</v>
+      <c r="C15" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="E15" s="2">
         <v>159</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="6:6">
-      <c r="F16" s="23"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="6:6">
-      <c r="F17" s="23"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" s="3" customFormat="1" spans="6:6">
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" s="12" customFormat="1" spans="2:6">
-      <c r="B19" s="12" t="s">
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" s="13" customFormat="1" spans="2:6">
+      <c r="B19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
@@ -2136,8 +2846,8 @@
       </c>
     </row>
     <row r="27" spans="6:12">
-      <c r="F27" s="20" t="s">
-        <v>37</v>
+      <c r="F27" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2147,8 +2857,8 @@
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="6:12">
-      <c r="F28" s="20" t="s">
-        <v>38</v>
+      <c r="F28" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2158,8 +2868,8 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="6:12">
-      <c r="F29" s="20" t="s">
-        <v>39</v>
+      <c r="F29" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2171,8 +2881,8 @@
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="6:12">
-      <c r="F30" s="20" t="s">
-        <v>40</v>
+      <c r="F30" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -2186,8 +2896,8 @@
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="6:12">
-      <c r="F31" s="20" t="s">
-        <v>41</v>
+      <c r="F31" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2197,8 +2907,8 @@
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="6:12">
-      <c r="F32" s="20" t="s">
-        <v>42</v>
+      <c r="F32" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2213,7 +2923,7 @@
     </row>
     <row r="39" spans="9:9">
       <c r="I39" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2228,12 +2938,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2247,39 +2957,39 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2299,9 +3009,8 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4"/>
+        <v>10</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -2329,15 +3038,14 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5"/>
       <c r="G5">
         <v>3</v>
       </c>
@@ -2347,10 +3055,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2358,7 +3066,6 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6"/>
       <c r="H6">
         <v>1</v>
       </c>
@@ -2371,10 +3078,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2391,10 +3098,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2415,694 +3122,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:O67"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.87272727272727" defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="22.3727272727273" customWidth="1"/>
-    <col min="5" max="6" width="9.87272727272727" style="12"/>
-    <col min="11" max="11" width="26.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" ht="70" spans="2:14">
-      <c r="B2" s="10">
-        <v>13408411662</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="M2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" ht="56" spans="2:15">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="M3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" ht="84" customHeight="1" spans="2:13">
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="M4" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="M5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" ht="56" spans="2:13">
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="M6" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="M7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="M8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" ht="42" spans="2:6">
-      <c r="B9" s="4">
-        <v>17740228031</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" ht="56" spans="2:6">
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" ht="15" spans="2:10">
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="J12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="2:6">
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="12:12">
-      <c r="L18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" t="s">
-        <v>85</v>
-      </c>
-      <c r="J21" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12">
-      <c r="D24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="8:12">
-      <c r="H25" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="8:12">
-      <c r="H26" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26" t="s">
-        <v>97</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="7:12">
-      <c r="G27" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="7:12">
-      <c r="G28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="7:12">
-      <c r="G29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" t="s">
-        <v>86</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="7:12">
-      <c r="G30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" t="s">
-        <v>90</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="7:12">
-      <c r="G31" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="7:12">
-      <c r="G32" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" t="s">
-        <v>105</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="7:12">
-      <c r="G33" t="s">
-        <v>97</v>
-      </c>
-      <c r="L33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7">
-      <c r="G34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="39" spans="11:11">
-      <c r="K39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="11:11">
-      <c r="K40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="8:11">
-      <c r="H41" t="s">
-        <v>108</v>
-      </c>
-      <c r="K41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11">
-      <c r="C42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42" t="s">
-        <v>110</v>
-      </c>
-      <c r="K42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11">
-      <c r="C43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" t="s">
-        <v>112</v>
-      </c>
-      <c r="K43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11">
-      <c r="C44" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" t="s">
-        <v>114</v>
-      </c>
-      <c r="K44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11">
-      <c r="C45" t="s">
-        <v>114</v>
-      </c>
-      <c r="H45" t="s">
-        <v>116</v>
-      </c>
-      <c r="K45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11">
-      <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" t="s">
-        <v>118</v>
-      </c>
-      <c r="K46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11">
-      <c r="C47" t="s">
-        <v>118</v>
-      </c>
-      <c r="H47" t="s">
-        <v>120</v>
-      </c>
-      <c r="K47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="3:11">
-      <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="H48" t="s">
-        <v>122</v>
-      </c>
-      <c r="K48" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11">
-      <c r="C49" t="s">
-        <v>122</v>
-      </c>
-      <c r="H49" t="s">
-        <v>124</v>
-      </c>
-      <c r="K49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11">
-      <c r="C50" t="s">
-        <v>124</v>
-      </c>
-      <c r="H50" t="s">
-        <v>126</v>
-      </c>
-      <c r="K50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8">
-      <c r="C51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8">
-      <c r="C52" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8">
-      <c r="C53" t="s">
-        <v>129</v>
-      </c>
-      <c r="H53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="C54" t="s">
-        <v>130</v>
-      </c>
-      <c r="H54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8">
-      <c r="C55" t="s">
-        <v>131</v>
-      </c>
-      <c r="H55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8">
-      <c r="C56" t="s">
-        <v>132</v>
-      </c>
-      <c r="H56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8">
-      <c r="C57" t="s">
-        <v>133</v>
-      </c>
-      <c r="H57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8">
-      <c r="C58" t="s">
-        <v>134</v>
-      </c>
-      <c r="H58" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="C59" t="s">
-        <v>135</v>
-      </c>
-      <c r="H59" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8">
-      <c r="C60" t="s">
-        <v>136</v>
-      </c>
-      <c r="H60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8">
-      <c r="C61" t="s">
-        <v>137</v>
-      </c>
-      <c r="H61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="8:8">
-      <c r="H62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3134,23 +3153,23 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F1" s="4">
         <v>17740228031</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="70" spans="1:10">
@@ -3159,139 +3178,139 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="98" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" ht="27.95" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I5" s="10">
         <v>13408411662</v>
       </c>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:10">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="11" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
@@ -3300,7 +3319,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:8">
@@ -3310,7 +3329,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3340,18 +3359,18 @@
   <sheetData>
     <row r="1" spans="7:10">
       <c r="G1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2">
         <v>186</v>
@@ -3368,10 +3387,10 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G3">
         <v>177</v>
@@ -3388,34 +3407,34 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -3453,58 +3472,58 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:11">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3512,35 +3531,35 @@
         <v>17740228031</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
         <v>165</v>
       </c>
-      <c r="C13" t="s">
-        <v>163</v>
-      </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
@@ -3548,13 +3567,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
@@ -3562,7 +3581,7 @@
     </row>
     <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
@@ -3570,7 +3589,7 @@
     </row>
     <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
@@ -3598,7 +3617,7 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
@@ -3611,7 +3630,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
@@ -3619,7 +3638,7 @@
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
@@ -3652,17 +3671,17 @@
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="6:14">
@@ -3670,7 +3689,7 @@
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="6:14">
@@ -3678,7 +3697,7 @@
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="6:14">
@@ -3686,7 +3705,7 @@
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3694,7 +3713,7 @@
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="7:15">
@@ -3735,7 +3754,7 @@
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3743,7 +3762,7 @@
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="7:14">
@@ -3751,7 +3770,7 @@
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="7:14">
@@ -3759,60 +3778,60 @@
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N43" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="7020"/>
+    <workbookView windowWidth="19200" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -687,8 +687,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -756,8 +756,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,29 +810,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -840,6 +833,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -854,9 +863,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,17 +879,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -912,13 +912,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,91 +1056,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,54 +1093,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,6 +1208,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1231,26 +1251,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1259,145 +1259,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1851,8 +1851,8 @@
   <sheetPr/>
   <dimension ref="B1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.87272727272727" defaultRowHeight="14"/>
@@ -2943,7 +2943,7 @@
   <sheetPr/>
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3131,8 +3131,8 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
@@ -3343,7 +3343,7 @@
   <sheetPr/>
   <dimension ref="B1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -3452,7 +3452,7 @@
   <sheetPr/>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D52" workbookViewId="0">
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="7020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="271">
   <si>
     <t>ID</t>
   </si>
@@ -673,18 +673,249 @@
   <si>
     <t>不错的YY神石</t>
   </si>
+  <si>
+    <t>狂·</t>
+  </si>
+  <si>
+    <t>天香</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>矿</t>
+  </si>
+  <si>
+    <t>之皮</t>
+  </si>
+  <si>
+    <t>绢</t>
+  </si>
+  <si>
+    <t>金丝</t>
+  </si>
+  <si>
+    <t>泪</t>
+  </si>
+  <si>
+    <t>龙皮</t>
+  </si>
+  <si>
+    <t>冰晶石</t>
+  </si>
+  <si>
+    <t>古兽利牙</t>
+  </si>
+  <si>
+    <t>黄玉</t>
+  </si>
+  <si>
+    <t>千年</t>
+  </si>
+  <si>
+    <t>巨神靴</t>
+  </si>
+  <si>
+    <t>毘卢帽</t>
+  </si>
+  <si>
+    <t>天王履</t>
+  </si>
+  <si>
+    <t>蚩尤盔</t>
+  </si>
+  <si>
+    <t>至善鞋</t>
+  </si>
+  <si>
+    <t>尼山巾</t>
+  </si>
+  <si>
+    <t>大罗冠</t>
+  </si>
+  <si>
+    <t>世尊鞋</t>
+  </si>
+  <si>
+    <t>蚩尤铠</t>
+  </si>
+  <si>
+    <t>刑天战甲</t>
+  </si>
+  <si>
+    <t>凤凰羽衣</t>
+  </si>
+  <si>
+    <t>龙纹战袍</t>
+  </si>
+  <si>
+    <t>陌露刀</t>
+  </si>
+  <si>
+    <t>屠神剑</t>
+  </si>
+  <si>
+    <t>凤凝刀</t>
+  </si>
+  <si>
+    <t>霸王戟</t>
+  </si>
+  <si>
+    <t>天龙护手</t>
+  </si>
+  <si>
+    <t>太昊之杖</t>
+  </si>
+  <si>
+    <t>飞龙杖</t>
+  </si>
+  <si>
+    <t>盘古幡</t>
+  </si>
+  <si>
+    <t>七星饮血珠</t>
+  </si>
+  <si>
+    <t>龙鳞匕</t>
+  </si>
+  <si>
+    <t>苍玄刀</t>
+  </si>
+  <si>
+    <t>噬血诸神幡</t>
+  </si>
+  <si>
+    <t>怒吼狂龙护手</t>
+  </si>
+  <si>
+    <t>湛卢</t>
+  </si>
+  <si>
+    <t>赤霄</t>
+  </si>
+  <si>
+    <t>五色乱魂珠</t>
+  </si>
+  <si>
+    <t>凤舞龙吟刀</t>
+  </si>
+  <si>
+    <t>破灭轮回</t>
+  </si>
+  <si>
+    <t>佛光之轮</t>
+  </si>
+  <si>
+    <t>纯均</t>
+  </si>
+  <si>
+    <t>吸血骷髅护手</t>
+  </si>
+  <si>
+    <t>皓月银光戟</t>
+  </si>
+  <si>
+    <t>醉魂爪</t>
+  </si>
+  <si>
+    <t>灭魂</t>
+  </si>
+  <si>
+    <t>飞龙旋天戟</t>
+  </si>
+  <si>
+    <t>魂幽鬼泣斧</t>
+  </si>
+  <si>
+    <t>奔厉索魄刃</t>
+  </si>
+  <si>
+    <t>烟络幽恨爪</t>
+  </si>
+  <si>
+    <t>悯农之镰</t>
+  </si>
+  <si>
+    <t>耀芒之杖</t>
+  </si>
+  <si>
+    <t>御天达摩杖</t>
+  </si>
+  <si>
+    <t>蔽日墨龙斧</t>
+  </si>
+  <si>
+    <t>冥灭之杖</t>
+  </si>
+  <si>
+    <t>凝魄血云幡</t>
+  </si>
+  <si>
+    <t>完美精炼石</t>
+  </si>
+  <si>
+    <t>神通符</t>
+  </si>
+  <si>
+    <t>无双符</t>
+  </si>
+  <si>
+    <t>至尊符</t>
+  </si>
+  <si>
+    <t>梦境乾坤符</t>
+  </si>
+  <si>
+    <t>梦境天运符</t>
+  </si>
+  <si>
+    <t>梦境地灵符</t>
+  </si>
+  <si>
+    <t>筑基石</t>
+  </si>
+  <si>
+    <t>心动石</t>
+  </si>
+  <si>
+    <t>破境石</t>
+  </si>
+  <si>
+    <t>空冥石</t>
+  </si>
+  <si>
+    <t>百劫石</t>
+  </si>
+  <si>
+    <t>洞明石</t>
+  </si>
+  <si>
+    <t>神回石</t>
+  </si>
+  <si>
+    <t>寂灭石</t>
+  </si>
+  <si>
+    <t>玄域石</t>
+  </si>
+  <si>
+    <t>混沌石</t>
+  </si>
+  <si>
+    <t>风鳞片</t>
+  </si>
+  <si>
+    <t>土鳞片</t>
+  </si>
+  <si>
+    <t>火鳞片</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,143 +974,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,194 +1005,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1147,251 +1062,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1480,13 +1156,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1496,57 +1172,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1837,30 +1467,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.7545454545455" customWidth="1"/>
-    <col min="2" max="2" width="24.7545454545455" customWidth="1"/>
-    <col min="3" max="3" width="29.8727272727273" customWidth="1"/>
-    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="31.2545454545455" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.7545454545455" customWidth="1"/>
+    <col min="6" max="6" width="31.25" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="1:6">
+    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +1510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:6">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1895,7 +1525,7 @@
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="28" spans="1:6">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>13408411662</v>
       </c>
@@ -1910,7 +1540,7 @@
       </c>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="38.1" customHeight="1" spans="1:6">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1927,7 +1557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="56" spans="1:6">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1941,7 +1571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1955,7 +1585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="56" spans="1:6">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1970,7 +1600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="56" spans="1:6">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1985,7 +1615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:7">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -2001,7 +1631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="28" spans="1:6">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>17740228031</v>
       </c>
@@ -2021,7 +1651,7 @@
         <v>17740228031</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -2029,7 +1659,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="28" spans="1:6">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -2046,7 +1676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="42" spans="1:6">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -2063,7 +1693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="28" spans="1:6">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -2078,7 +1708,7 @@
       </c>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15" spans="1:6">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2090,32 +1720,32 @@
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="6:6">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F16" s="23"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="6:6">
+    <row r="17" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F17" s="23"/>
     </row>
-    <row r="18" s="3" customFormat="1" spans="6:6">
+    <row r="18" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F18" s="23"/>
     </row>
-    <row r="19" s="12" customFormat="1" spans="2:6">
+    <row r="19" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="6">
         <v>25899588</v>
       </c>
     </row>
-    <row r="26" spans="7:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G26">
         <v>1</v>
       </c>
@@ -2135,7 +1765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="6:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F27" s="20" t="s">
         <v>37</v>
       </c>
@@ -2146,7 +1776,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="6:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F28" s="20" t="s">
         <v>38</v>
       </c>
@@ -2157,7 +1787,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="6:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F29" s="20" t="s">
         <v>39</v>
       </c>
@@ -2170,7 +1800,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="6:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F30" s="20" t="s">
         <v>40</v>
       </c>
@@ -2185,7 +1815,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="6:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F31" s="20" t="s">
         <v>41</v>
       </c>
@@ -2196,7 +1826,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="6:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="F32" s="20" t="s">
         <v>42</v>
       </c>
@@ -2211,41 +1841,40 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="39" spans="9:9">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I39" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="haolie2006@163.com"/>
-    <hyperlink ref="F12" r:id="rId1" display="haolie2006@163.com"/>
-    <hyperlink ref="F13" r:id="rId2" display="hengxia2006@126.com" tooltip="mailto:hengxia2006@126.com"/>
+    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3" tooltip="mailto:hengxia2006@126.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="13.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="7.36363636363636" customWidth="1"/>
-    <col min="5" max="5" width="7.45454545454545" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>44</v>
       </c>
@@ -2274,7 +1903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2297,11 +1926,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4"/>
       <c r="C4">
         <v>1</v>
       </c>
@@ -2327,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -2337,7 +1965,6 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5"/>
       <c r="G5">
         <v>3</v>
       </c>
@@ -2345,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -2358,7 +1985,6 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6"/>
       <c r="H6">
         <v>1</v>
       </c>
@@ -2369,7 +1995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2389,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2413,29 +2039,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O67"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.3727272727273" customWidth="1"/>
-    <col min="5" max="6" width="9.87272727272727" style="12"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="5" max="6" width="9.875" style="12"/>
     <col min="11" max="11" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2446,7 +2071,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" ht="70" spans="2:14">
+    <row r="2" spans="2:15" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B2" s="10">
         <v>13408411662</v>
       </c>
@@ -2463,7 +2088,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" ht="56" spans="2:15">
+    <row r="3" spans="2:15" ht="54" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2483,7 +2108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" ht="84" customHeight="1" spans="2:13">
+    <row r="4" spans="2:15" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2497,7 +2122,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2514,7 +2139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="56" spans="2:13">
+    <row r="6" spans="2:15" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
@@ -2528,7 +2153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2545,7 +2170,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2565,7 +2190,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" ht="42" spans="2:6">
+    <row r="9" spans="2:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>17740228031</v>
       </c>
@@ -2576,7 +2201,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2587,7 +2212,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" ht="56" spans="2:6">
+    <row r="11" spans="2:15" ht="54" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -2598,7 +2223,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" ht="15" spans="2:10">
+    <row r="12" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -2612,7 +2237,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="2:6">
+    <row r="13" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2621,17 +2246,17 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="15" spans="5:5">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E15" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C16" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>36</v>
       </c>
@@ -2639,12 +2264,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="12:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="L18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>74</v>
       </c>
@@ -2664,7 +2289,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -2684,7 +2309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>82</v>
       </c>
@@ -2704,7 +2329,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>87</v>
       </c>
@@ -2724,7 +2349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>91</v>
       </c>
@@ -2744,7 +2369,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="4:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>96</v>
       </c>
@@ -2758,7 +2383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="8:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H25" t="s">
         <v>99</v>
       </c>
@@ -2769,7 +2394,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="8:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H26" s="12" t="s">
         <v>100</v>
       </c>
@@ -2780,7 +2405,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="7:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G27" t="s">
         <v>101</v>
       </c>
@@ -2794,7 +2419,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="7:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G28" t="s">
         <v>72</v>
       </c>
@@ -2808,7 +2433,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="7:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G29" t="s">
         <v>73</v>
       </c>
@@ -2822,7 +2447,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="7:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G30" t="s">
         <v>81</v>
       </c>
@@ -2836,7 +2461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="7:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G31" t="s">
         <v>77</v>
       </c>
@@ -2847,7 +2472,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="7:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G32" t="s">
         <v>85</v>
       </c>
@@ -2858,7 +2483,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="7:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G33" t="s">
         <v>97</v>
       </c>
@@ -2866,27 +2491,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C35">
         <v>493</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
       <c r="K39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
       <c r="K40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="8:11">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
       <c r="H41" t="s">
         <v>108</v>
       </c>
@@ -2894,7 +2519,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="3:11">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>108</v>
       </c>
@@ -2905,7 +2530,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="3:11">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
         <v>110</v>
       </c>
@@ -2916,7 +2541,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="3:11">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>112</v>
       </c>
@@ -2927,7 +2552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="3:11">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
         <v>114</v>
       </c>
@@ -2938,7 +2563,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
         <v>116</v>
       </c>
@@ -2949,7 +2574,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
         <v>118</v>
       </c>
@@ -2960,7 +2585,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>120</v>
       </c>
@@ -2971,7 +2596,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
         <v>122</v>
       </c>
@@ -2982,7 +2607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
         <v>124</v>
       </c>
@@ -2993,7 +2618,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="3:8">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
         <v>126</v>
       </c>
@@ -3001,7 +2626,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="3:8">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
         <v>128</v>
       </c>
@@ -3009,7 +2634,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="3:8">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>129</v>
       </c>
@@ -3017,7 +2642,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="3:8">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
         <v>130</v>
       </c>
@@ -3025,7 +2650,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="3:8">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
         <v>131</v>
       </c>
@@ -3033,7 +2658,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="3:8">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
         <v>132</v>
       </c>
@@ -3041,7 +2666,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="3:8">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
         <v>133</v>
       </c>
@@ -3049,7 +2674,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="3:8">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
         <v>134</v>
       </c>
@@ -3057,7 +2682,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="3:8">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
         <v>135</v>
       </c>
@@ -3065,7 +2690,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="3:8">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
         <v>136</v>
       </c>
@@ -3073,7 +2698,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="3:8">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
         <v>137</v>
       </c>
@@ -3081,58 +2706,57 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="8:8">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.15">
       <c r="H62" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C65" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6272727272727" customWidth="1"/>
-    <col min="6" max="6" width="23.1272727272727" customWidth="1"/>
-    <col min="7" max="7" width="21.2545454545455" customWidth="1"/>
-    <col min="8" max="8" width="18.8727272727273" customWidth="1"/>
-    <col min="9" max="9" width="19.3727272727273" customWidth="1"/>
-    <col min="10" max="10" width="21.6272727272727" customWidth="1"/>
-    <col min="11" max="11" width="4.87272727272727" customWidth="1"/>
-    <col min="12" max="14" width="4.62727272727273" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="21.625" customWidth="1"/>
+    <col min="11" max="11" width="4.875" customWidth="1"/>
+    <col min="12" max="14" width="4.625" customWidth="1"/>
     <col min="15" max="15" width="4.5" customWidth="1"/>
-    <col min="16" max="16" width="5.12727272727273" customWidth="1"/>
+    <col min="16" max="16" width="5.125" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
-    <col min="18" max="18" width="5.12727272727273" customWidth="1"/>
+    <col min="18" max="18" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3153,7 +2777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="70" spans="1:10">
+    <row r="2" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>13408411662</v>
       </c>
@@ -3174,7 +2798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" ht="56" spans="1:10">
+    <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3195,7 +2819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="98" spans="1:10">
+    <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3216,7 +2840,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" ht="27.95" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3237,7 +2861,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" ht="56" spans="1:10">
+    <row r="6" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -3258,7 +2882,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3267,7 +2891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -3276,7 +2900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -3285,7 +2909,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" ht="56" spans="1:3">
+    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -3294,7 +2918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:3">
+    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -3303,7 +2927,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:8">
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -3314,31 +2938,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="15.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="9.5"/>
-    <col min="7" max="7" width="13.1272727272727" customWidth="1"/>
-    <col min="10" max="10" width="12.1272727272727" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:10">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G1" t="s">
         <v>37</v>
       </c>
@@ -3346,7 +2969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>150</v>
       </c>
@@ -3366,7 +2989,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>152</v>
       </c>
@@ -3386,7 +3009,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>154</v>
       </c>
@@ -3394,7 +3017,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>156</v>
       </c>
@@ -3403,52 +3026,456 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="8"/>
     </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G44" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G65" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G69" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G70" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G71" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G72" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G73" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G75" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G76" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G77" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G79" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G80" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G81" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G82" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G83" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G84" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G85" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G86" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G87" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G88" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G89" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G91" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G92" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G93" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G94" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G95" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G96" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G97" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G98" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G99" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="20.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="9.5"/>
-    <col min="7" max="7" width="22.8727272727273" customWidth="1"/>
-    <col min="9" max="9" width="12.1272727272727" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3468,7 +3495,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:11">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -3485,7 +3512,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3496,7 +3523,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3507,7 +3534,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>17740228031</v>
       </c>
@@ -3518,7 +3545,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -3529,7 +3556,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -3546,7 +3573,7 @@
         <v>-119355</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -3560,7 +3587,7 @@
         <v>-134370</v>
       </c>
     </row>
-    <row r="15" spans="5:6">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
         <v>166</v>
       </c>
@@ -3568,7 +3595,7 @@
         <v>-172368</v>
       </c>
     </row>
-    <row r="16" spans="5:6">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
         <v>166</v>
       </c>
@@ -3576,27 +3603,27 @@
         <v>-188371</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F17" s="6">
         <v>-224359</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F18" s="6">
         <v>-246356</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F19" s="6">
         <v>-269330</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F20" s="6">
         <v>-283323</v>
       </c>
     </row>
-    <row r="21" spans="4:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>167</v>
       </c>
@@ -3604,12 +3631,12 @@
         <v>-301285</v>
       </c>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F22" s="6">
         <v>-312274</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>168</v>
       </c>
@@ -3617,7 +3644,7 @@
         <v>-313236</v>
       </c>
     </row>
-    <row r="24" spans="5:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
         <v>169</v>
       </c>
@@ -3625,47 +3652,47 @@
         <v>-315226</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F25" s="6">
         <v>-304180</v>
       </c>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F26" s="6">
         <v>-302171</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F27" s="6">
         <v>-275135</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F28" s="6">
         <v>-271127</v>
       </c>
     </row>
-    <row r="29" spans="6:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F29" s="6">
         <v>-231104</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="6:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="6:14">
+    <row r="33" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F33" s="6">
         <v>-126101</v>
       </c>
@@ -3673,7 +3700,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="6:14">
+    <row r="34" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F34" s="6">
         <v>-115102</v>
       </c>
@@ -3681,7 +3708,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="6:14">
+    <row r="35" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F35" s="6">
         <v>-81130</v>
       </c>
@@ -3689,7 +3716,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="7:14">
+    <row r="36" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G36" s="6">
         <v>-69136</v>
       </c>
@@ -3697,7 +3724,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="7:15">
+    <row r="37" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G37" s="6">
         <v>-50173</v>
       </c>
@@ -3708,7 +3735,7 @@
         <v>-289</v>
       </c>
     </row>
-    <row r="38" spans="7:15">
+    <row r="38" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G38" s="6">
         <v>-41183</v>
       </c>
@@ -3719,7 +3746,7 @@
         <v>-199</v>
       </c>
     </row>
-    <row r="39" spans="7:15">
+    <row r="39" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G39" s="6">
         <v>-38225</v>
       </c>
@@ -3730,7 +3757,7 @@
         <v>-177</v>
       </c>
     </row>
-    <row r="40" spans="7:14">
+    <row r="40" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G40" s="6">
         <v>-33246</v>
       </c>
@@ -3738,7 +3765,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="7:14">
+    <row r="41" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G41" s="6">
         <v>-46278</v>
       </c>
@@ -3746,7 +3773,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="7:14">
+    <row r="42" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G42" s="6">
         <v>-49294</v>
       </c>
@@ -3754,7 +3781,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="7:14">
+    <row r="43" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G43" s="6">
         <v>-67331</v>
       </c>
@@ -3765,58 +3792,58 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="9:9">
+    <row r="44" spans="6:15" x14ac:dyDescent="0.15">
       <c r="I44" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="7:7">
+    <row r="48" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G48" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="7:7">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G49" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="7:7">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G50" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="7:7">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G51" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="7:7">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G52" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G53" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="7:7">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G54" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="7:7">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G55" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="7:7">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G56" s="8" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="7020" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="7020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="281">
   <si>
     <t>ID</t>
   </si>
@@ -909,6 +909,46 @@
   </si>
   <si>
     <t>火鳞片</t>
+  </si>
+  <si>
+    <t>七下指南</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>烙印指南</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy石头</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>古兽利压</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄玉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙皮</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>绢布</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>杉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南疆指南</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1475,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1863,7 +1903,7 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2049,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2483,7 +2523,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
       <c r="G33" t="s">
         <v>97</v>
       </c>
@@ -2491,35 +2531,53 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.15">
       <c r="G34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C35">
         <v>493</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.15">
       <c r="K39" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="N39" t="s">
+        <v>271</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.15">
       <c r="K40" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="N40" t="s">
+        <v>272</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.15">
       <c r="H41" t="s">
         <v>108</v>
       </c>
       <c r="K41" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="N41" t="s">
+        <v>280</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>108</v>
       </c>
@@ -2529,8 +2587,14 @@
       <c r="K42" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="N42" t="s">
+        <v>273</v>
+      </c>
+      <c r="O42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
         <v>110</v>
       </c>
@@ -2540,8 +2604,14 @@
       <c r="K43" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="N43" t="s">
+        <v>274</v>
+      </c>
+      <c r="O43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>112</v>
       </c>
@@ -2551,8 +2621,14 @@
       <c r="K44" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="N44" t="s">
+        <v>275</v>
+      </c>
+      <c r="O44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
         <v>114</v>
       </c>
@@ -2562,8 +2638,14 @@
       <c r="K45" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="N45" t="s">
+        <v>276</v>
+      </c>
+      <c r="O45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
         <v>116</v>
       </c>
@@ -2573,8 +2655,14 @@
       <c r="K46" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="N46" t="s">
+        <v>277</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
         <v>118</v>
       </c>
@@ -2584,8 +2672,14 @@
       <c r="K47" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="N47" t="s">
+        <v>278</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>120</v>
       </c>
@@ -2594,6 +2688,12 @@
       </c>
       <c r="K48" t="s">
         <v>123</v>
+      </c>
+      <c r="N48" t="s">
+        <v>279</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.15">
@@ -2947,7 +3047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19:G99"/>
     </sheetView>
   </sheetViews>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="7020" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="7170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -581,6 +581,243 @@
     <t xml:space="preserve">BUFFSun=1,  </t>
   </si>
   <si>
+    <t>狂·</t>
+  </si>
+  <si>
+    <t>天香</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>矿</t>
+  </si>
+  <si>
+    <t>之皮</t>
+  </si>
+  <si>
+    <t>绢</t>
+  </si>
+  <si>
+    <t>金丝</t>
+  </si>
+  <si>
+    <t>泪</t>
+  </si>
+  <si>
+    <t>龙皮</t>
+  </si>
+  <si>
+    <t>冰晶石</t>
+  </si>
+  <si>
+    <t>古兽利牙</t>
+  </si>
+  <si>
+    <t>黄玉</t>
+  </si>
+  <si>
+    <t>千年</t>
+  </si>
+  <si>
+    <t>巨神靴</t>
+  </si>
+  <si>
+    <t>毘卢帽</t>
+  </si>
+  <si>
+    <t>天王履</t>
+  </si>
+  <si>
+    <t>蚩尤盔</t>
+  </si>
+  <si>
+    <t>至善鞋</t>
+  </si>
+  <si>
+    <t>尼山巾</t>
+  </si>
+  <si>
+    <t>大罗冠</t>
+  </si>
+  <si>
+    <t>世尊鞋</t>
+  </si>
+  <si>
+    <t>蚩尤铠</t>
+  </si>
+  <si>
+    <t>刑天战甲</t>
+  </si>
+  <si>
+    <t>凤凰羽衣</t>
+  </si>
+  <si>
+    <t>龙纹战袍</t>
+  </si>
+  <si>
+    <t>陌露刀</t>
+  </si>
+  <si>
+    <t>屠神剑</t>
+  </si>
+  <si>
+    <t>凤凝刀</t>
+  </si>
+  <si>
+    <t>霸王戟</t>
+  </si>
+  <si>
+    <t>天龙护手</t>
+  </si>
+  <si>
+    <t>太昊之杖</t>
+  </si>
+  <si>
+    <t>飞龙杖</t>
+  </si>
+  <si>
+    <t>盘古幡</t>
+  </si>
+  <si>
+    <t>七星饮血珠</t>
+  </si>
+  <si>
+    <t>龙鳞匕</t>
+  </si>
+  <si>
+    <t>苍玄刀</t>
+  </si>
+  <si>
+    <t>噬血诸神幡</t>
+  </si>
+  <si>
+    <t>怒吼狂龙护手</t>
+  </si>
+  <si>
+    <t>湛卢</t>
+  </si>
+  <si>
+    <t>赤霄</t>
+  </si>
+  <si>
+    <t>五色乱魂珠</t>
+  </si>
+  <si>
+    <t>凤舞龙吟刀</t>
+  </si>
+  <si>
+    <t>破灭轮回</t>
+  </si>
+  <si>
+    <t>佛光之轮</t>
+  </si>
+  <si>
+    <t>纯均</t>
+  </si>
+  <si>
+    <t>吸血骷髅护手</t>
+  </si>
+  <si>
+    <t>皓月银光戟</t>
+  </si>
+  <si>
+    <t>醉魂爪</t>
+  </si>
+  <si>
+    <t>灭魂</t>
+  </si>
+  <si>
+    <t>飞龙旋天戟</t>
+  </si>
+  <si>
+    <t>魂幽鬼泣斧</t>
+  </si>
+  <si>
+    <t>奔厉索魄刃</t>
+  </si>
+  <si>
+    <t>烟络幽恨爪</t>
+  </si>
+  <si>
+    <t>悯农之镰</t>
+  </si>
+  <si>
+    <t>耀芒之杖</t>
+  </si>
+  <si>
+    <t>御天达摩杖</t>
+  </si>
+  <si>
+    <t>蔽日墨龙斧</t>
+  </si>
+  <si>
+    <t>冥灭之杖</t>
+  </si>
+  <si>
+    <t>凝魄血云幡</t>
+  </si>
+  <si>
+    <t>完美精炼石</t>
+  </si>
+  <si>
+    <t>神通符</t>
+  </si>
+  <si>
+    <t>无双符</t>
+  </si>
+  <si>
+    <t>至尊符</t>
+  </si>
+  <si>
+    <t>梦境乾坤符</t>
+  </si>
+  <si>
+    <t>梦境天运符</t>
+  </si>
+  <si>
+    <t>梦境地灵符</t>
+  </si>
+  <si>
+    <t>筑基石</t>
+  </si>
+  <si>
+    <t>心动石</t>
+  </si>
+  <si>
+    <t>破境石</t>
+  </si>
+  <si>
+    <t>空冥石</t>
+  </si>
+  <si>
+    <t>百劫石</t>
+  </si>
+  <si>
+    <t>洞明石</t>
+  </si>
+  <si>
+    <t>神回石</t>
+  </si>
+  <si>
+    <t>寂灭石</t>
+  </si>
+  <si>
+    <t>玄域石</t>
+  </si>
+  <si>
+    <t>混沌石</t>
+  </si>
+  <si>
+    <t>风鳞片</t>
+  </si>
+  <si>
+    <t>土鳞片</t>
+  </si>
+  <si>
+    <t>火鳞片</t>
+  </si>
+  <si>
     <t>女</t>
   </si>
   <si>
@@ -672,250 +909,19 @@
   </si>
   <si>
     <t>不错的YY神石</t>
-  </si>
-  <si>
-    <t>狂·</t>
-  </si>
-  <si>
-    <t>天香</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>矿</t>
-  </si>
-  <si>
-    <t>之皮</t>
-  </si>
-  <si>
-    <t>绢</t>
-  </si>
-  <si>
-    <t>金丝</t>
-  </si>
-  <si>
-    <t>泪</t>
-  </si>
-  <si>
-    <t>龙皮</t>
-  </si>
-  <si>
-    <t>冰晶石</t>
-  </si>
-  <si>
-    <t>古兽利牙</t>
-  </si>
-  <si>
-    <t>黄玉</t>
-  </si>
-  <si>
-    <t>千年</t>
-  </si>
-  <si>
-    <t>巨神靴</t>
-  </si>
-  <si>
-    <t>毘卢帽</t>
-  </si>
-  <si>
-    <t>天王履</t>
-  </si>
-  <si>
-    <t>蚩尤盔</t>
-  </si>
-  <si>
-    <t>至善鞋</t>
-  </si>
-  <si>
-    <t>尼山巾</t>
-  </si>
-  <si>
-    <t>大罗冠</t>
-  </si>
-  <si>
-    <t>世尊鞋</t>
-  </si>
-  <si>
-    <t>蚩尤铠</t>
-  </si>
-  <si>
-    <t>刑天战甲</t>
-  </si>
-  <si>
-    <t>凤凰羽衣</t>
-  </si>
-  <si>
-    <t>龙纹战袍</t>
-  </si>
-  <si>
-    <t>陌露刀</t>
-  </si>
-  <si>
-    <t>屠神剑</t>
-  </si>
-  <si>
-    <t>凤凝刀</t>
-  </si>
-  <si>
-    <t>霸王戟</t>
-  </si>
-  <si>
-    <t>天龙护手</t>
-  </si>
-  <si>
-    <t>太昊之杖</t>
-  </si>
-  <si>
-    <t>飞龙杖</t>
-  </si>
-  <si>
-    <t>盘古幡</t>
-  </si>
-  <si>
-    <t>七星饮血珠</t>
-  </si>
-  <si>
-    <t>龙鳞匕</t>
-  </si>
-  <si>
-    <t>苍玄刀</t>
-  </si>
-  <si>
-    <t>噬血诸神幡</t>
-  </si>
-  <si>
-    <t>怒吼狂龙护手</t>
-  </si>
-  <si>
-    <t>湛卢</t>
-  </si>
-  <si>
-    <t>赤霄</t>
-  </si>
-  <si>
-    <t>五色乱魂珠</t>
-  </si>
-  <si>
-    <t>凤舞龙吟刀</t>
-  </si>
-  <si>
-    <t>破灭轮回</t>
-  </si>
-  <si>
-    <t>佛光之轮</t>
-  </si>
-  <si>
-    <t>纯均</t>
-  </si>
-  <si>
-    <t>吸血骷髅护手</t>
-  </si>
-  <si>
-    <t>皓月银光戟</t>
-  </si>
-  <si>
-    <t>醉魂爪</t>
-  </si>
-  <si>
-    <t>灭魂</t>
-  </si>
-  <si>
-    <t>飞龙旋天戟</t>
-  </si>
-  <si>
-    <t>魂幽鬼泣斧</t>
-  </si>
-  <si>
-    <t>奔厉索魄刃</t>
-  </si>
-  <si>
-    <t>烟络幽恨爪</t>
-  </si>
-  <si>
-    <t>悯农之镰</t>
-  </si>
-  <si>
-    <t>耀芒之杖</t>
-  </si>
-  <si>
-    <t>御天达摩杖</t>
-  </si>
-  <si>
-    <t>蔽日墨龙斧</t>
-  </si>
-  <si>
-    <t>冥灭之杖</t>
-  </si>
-  <si>
-    <t>凝魄血云幡</t>
-  </si>
-  <si>
-    <t>完美精炼石</t>
-  </si>
-  <si>
-    <t>神通符</t>
-  </si>
-  <si>
-    <t>无双符</t>
-  </si>
-  <si>
-    <t>至尊符</t>
-  </si>
-  <si>
-    <t>梦境乾坤符</t>
-  </si>
-  <si>
-    <t>梦境天运符</t>
-  </si>
-  <si>
-    <t>梦境地灵符</t>
-  </si>
-  <si>
-    <t>筑基石</t>
-  </si>
-  <si>
-    <t>心动石</t>
-  </si>
-  <si>
-    <t>破境石</t>
-  </si>
-  <si>
-    <t>空冥石</t>
-  </si>
-  <si>
-    <t>百劫石</t>
-  </si>
-  <si>
-    <t>洞明石</t>
-  </si>
-  <si>
-    <t>神回石</t>
-  </si>
-  <si>
-    <t>寂灭石</t>
-  </si>
-  <si>
-    <t>玄域石</t>
-  </si>
-  <si>
-    <t>混沌石</t>
-  </si>
-  <si>
-    <t>风鳞片</t>
-  </si>
-  <si>
-    <t>土鳞片</t>
-  </si>
-  <si>
-    <t>火鳞片</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,13 +980,143 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1005,8 +1141,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1062,12 +1384,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,13 +1717,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1172,11 +1733,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1467,30 +2074,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="23.7545454545455" customWidth="1"/>
+    <col min="2" max="2" width="24.7545454545455" customWidth="1"/>
+    <col min="3" max="3" width="29.8727272727273" customWidth="1"/>
+    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="31.25" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="31.2545454545455" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="19" customFormat="1" spans="1:6">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="3" customFormat="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1525,7 +2132,7 @@
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" ht="28" spans="1:6">
       <c r="A3" s="10">
         <v>13408411662</v>
       </c>
@@ -1540,7 +2147,7 @@
       </c>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" ht="38.1" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1557,7 +2164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" ht="56" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1571,7 +2178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1585,7 +2192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="56" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1600,7 +2207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="56" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1615,7 +2222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1631,7 +2238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="28" spans="1:6">
       <c r="A10" s="4">
         <v>17740228031</v>
       </c>
@@ -1651,7 +2258,7 @@
         <v>17740228031</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="29"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -1659,7 +2266,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" ht="28" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1676,7 +2283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="42" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -1693,7 +2300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="28" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1708,7 +2315,7 @@
       </c>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1720,32 +2327,32 @@
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="3" customFormat="1" spans="6:6">
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="3" customFormat="1" spans="6:6">
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="3" customFormat="1" spans="6:6">
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="12" customFormat="1" spans="2:6">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" s="6">
         <v>25899588</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="7:12">
       <c r="G26">
         <v>1</v>
       </c>
@@ -1765,7 +2372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:12">
       <c r="F27" s="20" t="s">
         <v>37</v>
       </c>
@@ -1776,7 +2383,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:12">
       <c r="F28" s="20" t="s">
         <v>38</v>
       </c>
@@ -1787,7 +2394,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:12">
       <c r="F29" s="20" t="s">
         <v>39</v>
       </c>
@@ -1800,7 +2407,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:12">
       <c r="F30" s="20" t="s">
         <v>40</v>
       </c>
@@ -1815,7 +2422,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:12">
       <c r="F31" s="20" t="s">
         <v>41</v>
       </c>
@@ -1826,7 +2433,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:12">
       <c r="F32" s="20" t="s">
         <v>42</v>
       </c>
@@ -1841,40 +2448,41 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="9:9">
       <c r="I39" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="F12" r:id="rId2"/>
-    <hyperlink ref="F13" r:id="rId3" tooltip="mailto:hengxia2006@126.com"/>
+    <hyperlink ref="F8" r:id="rId1" display="haolie2006@163.com"/>
+    <hyperlink ref="F12" r:id="rId1" display="haolie2006@163.com"/>
+    <hyperlink ref="F13" r:id="rId2" display="hengxia2006@126.com" tooltip="mailto:hengxia2006@126.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="13.6272727272727" customWidth="1"/>
+    <col min="3" max="3" width="7.37272727272727" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>44</v>
       </c>
@@ -1903,7 +2511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1926,7 +2534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1955,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -1971,8 +2579,11 @@
       <c r="H5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1995,7 +2606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2015,7 +2626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2039,28 +2650,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:O67"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.87272727272727" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="5" max="6" width="9.875" style="12"/>
+    <col min="2" max="2" width="22.3727272727273" customWidth="1"/>
+    <col min="5" max="6" width="9.87272727272727" style="12"/>
     <col min="11" max="11" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:6">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2071,7 +2683,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="2:15" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" ht="70" spans="2:14">
       <c r="B2" s="10">
         <v>13408411662</v>
       </c>
@@ -2088,7 +2700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" ht="56" spans="2:15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2108,7 +2720,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="84" customHeight="1" spans="2:13">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2122,7 +2734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2139,7 +2751,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" ht="56" spans="2:13">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
@@ -2153,7 +2765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2170,7 +2782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15">
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2190,7 +2802,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="42" spans="2:6">
       <c r="B9" s="4">
         <v>17740228031</v>
       </c>
@@ -2201,7 +2813,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2212,7 +2824,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="2:15" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" ht="56" spans="2:6">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -2223,7 +2835,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="12" ht="15" spans="2:10">
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -2237,7 +2849,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="13" ht="15" spans="2:6">
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2246,17 +2858,17 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="5:5">
       <c r="E15" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:3">
       <c r="C16" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:12">
       <c r="C17" t="s">
         <v>36</v>
       </c>
@@ -2264,12 +2876,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="12:12">
       <c r="L18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>74</v>
       </c>
@@ -2289,7 +2901,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -2309,7 +2921,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>82</v>
       </c>
@@ -2329,7 +2941,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>87</v>
       </c>
@@ -2349,7 +2961,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>91</v>
       </c>
@@ -2369,7 +2981,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:12">
       <c r="D24" t="s">
         <v>96</v>
       </c>
@@ -2383,7 +2995,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="8:12">
       <c r="H25" t="s">
         <v>99</v>
       </c>
@@ -2394,7 +3006,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="8:12">
       <c r="H26" s="12" t="s">
         <v>100</v>
       </c>
@@ -2405,7 +3017,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="7:12">
       <c r="G27" t="s">
         <v>101</v>
       </c>
@@ -2419,7 +3031,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="7:12">
       <c r="G28" t="s">
         <v>72</v>
       </c>
@@ -2433,7 +3045,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="7:12">
       <c r="G29" t="s">
         <v>73</v>
       </c>
@@ -2447,7 +3059,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="7:12">
       <c r="G30" t="s">
         <v>81</v>
       </c>
@@ -2461,7 +3073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="7:12">
       <c r="G31" t="s">
         <v>77</v>
       </c>
@@ -2472,7 +3084,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="7:12">
       <c r="G32" t="s">
         <v>85</v>
       </c>
@@ -2483,7 +3095,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="7:12">
       <c r="G33" t="s">
         <v>97</v>
       </c>
@@ -2491,27 +3103,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="7:7">
       <c r="G34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:3">
       <c r="C35">
         <v>493</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="11:11">
       <c r="K39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="11:11">
       <c r="K40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="8:11">
       <c r="H41" t="s">
         <v>108</v>
       </c>
@@ -2519,7 +3131,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:11">
       <c r="C42" t="s">
         <v>108</v>
       </c>
@@ -2530,7 +3142,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:11">
       <c r="C43" t="s">
         <v>110</v>
       </c>
@@ -2541,7 +3153,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:11">
       <c r="C44" t="s">
         <v>112</v>
       </c>
@@ -2552,7 +3164,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:11">
       <c r="C45" t="s">
         <v>114</v>
       </c>
@@ -2563,7 +3175,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:11">
       <c r="C46" t="s">
         <v>116</v>
       </c>
@@ -2574,7 +3186,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:11">
       <c r="C47" t="s">
         <v>118</v>
       </c>
@@ -2585,7 +3197,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:11">
       <c r="C48" t="s">
         <v>120</v>
       </c>
@@ -2596,7 +3208,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:11">
       <c r="C49" t="s">
         <v>122</v>
       </c>
@@ -2607,7 +3219,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:11">
       <c r="C50" t="s">
         <v>124</v>
       </c>
@@ -2618,7 +3230,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:8">
       <c r="C51" t="s">
         <v>126</v>
       </c>
@@ -2626,7 +3238,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:8">
       <c r="C52" t="s">
         <v>128</v>
       </c>
@@ -2634,7 +3246,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:8">
       <c r="C53" t="s">
         <v>129</v>
       </c>
@@ -2642,7 +3254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:8">
       <c r="C54" t="s">
         <v>130</v>
       </c>
@@ -2650,7 +3262,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:8">
       <c r="C55" t="s">
         <v>131</v>
       </c>
@@ -2658,7 +3270,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:8">
       <c r="C56" t="s">
         <v>132</v>
       </c>
@@ -2666,7 +3278,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:8">
       <c r="C57" t="s">
         <v>133</v>
       </c>
@@ -2674,7 +3286,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:8">
       <c r="C58" t="s">
         <v>134</v>
       </c>
@@ -2682,7 +3294,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:8">
       <c r="C59" t="s">
         <v>135</v>
       </c>
@@ -2690,7 +3302,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:8">
       <c r="C60" t="s">
         <v>136</v>
       </c>
@@ -2698,7 +3310,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:8">
       <c r="C61" t="s">
         <v>137</v>
       </c>
@@ -2706,57 +3318,58 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="8:8">
       <c r="H62" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:3">
       <c r="C67" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="10" max="10" width="21.625" customWidth="1"/>
-    <col min="11" max="11" width="4.875" customWidth="1"/>
-    <col min="12" max="14" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="21.6272727272727" customWidth="1"/>
+    <col min="6" max="6" width="23.1272727272727" customWidth="1"/>
+    <col min="7" max="7" width="21.2545454545455" customWidth="1"/>
+    <col min="8" max="8" width="18.8727272727273" customWidth="1"/>
+    <col min="9" max="9" width="19.3727272727273" customWidth="1"/>
+    <col min="10" max="10" width="21.6272727272727" customWidth="1"/>
+    <col min="11" max="11" width="4.87272727272727" customWidth="1"/>
+    <col min="12" max="14" width="4.62727272727273" customWidth="1"/>
     <col min="15" max="15" width="4.5" customWidth="1"/>
-    <col min="16" max="16" width="5.125" customWidth="1"/>
+    <col min="16" max="16" width="5.12727272727273" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
-    <col min="18" max="18" width="5.125" customWidth="1"/>
+    <col min="18" max="18" width="5.12727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="36" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2777,7 +3390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" ht="70" spans="1:10">
       <c r="A2" s="10">
         <v>13408411662</v>
       </c>
@@ -2798,7 +3411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" ht="56" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2819,7 +3432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="98" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2840,7 +3453,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="27.95" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2861,7 +3474,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" ht="56" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -2882,7 +3495,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2891,7 +3504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2900,7 +3513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2909,7 +3522,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" ht="56" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -2918,7 +3531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="12" ht="15" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -2927,7 +3540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="13" ht="15" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2938,30 +3551,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19:G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="17.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="15.8727272727273" customWidth="1"/>
     <col min="5" max="5" width="9.5"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="13.1272727272727" customWidth="1"/>
+    <col min="10" max="10" width="12.1272727272727" customWidth="1"/>
     <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="7:10">
       <c r="G1" t="s">
         <v>37</v>
       </c>
@@ -2969,7 +3583,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11">
       <c r="B2" t="s">
         <v>150</v>
       </c>
@@ -2989,7 +3603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
         <v>152</v>
       </c>
@@ -3009,7 +3623,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>154</v>
       </c>
@@ -3017,7 +3631,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>156</v>
       </c>
@@ -3026,481 +3640,482 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2">
       <c r="B10" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="7:7">
       <c r="G19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7">
+      <c r="G32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G20" t="s">
+    <row r="51" spans="7:7">
+      <c r="G51" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G21" t="s">
+    <row r="52" spans="7:7">
+      <c r="G52" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G22" t="s">
+    <row r="53" spans="7:7">
+      <c r="G53" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G23" t="s">
+    <row r="54" spans="7:7">
+      <c r="G54" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G24" t="s">
+    <row r="55" spans="7:7">
+      <c r="G55" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G25" t="s">
+    <row r="56" spans="7:7">
+      <c r="G56" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G26" t="s">
+    <row r="57" spans="7:7">
+      <c r="G57" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G27" t="s">
+    <row r="58" spans="7:7">
+      <c r="G58" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G28" t="s">
+    <row r="59" spans="7:7">
+      <c r="G59" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G29" t="s">
+    <row r="60" spans="7:7">
+      <c r="G60" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G30" t="s">
+    <row r="61" spans="7:7">
+      <c r="G61" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G31" t="s">
+    <row r="62" spans="7:7">
+      <c r="G62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G37" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G39" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G40" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G42" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G43" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G44" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G47" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G48" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G50" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G51" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G52" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G53" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G54" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G57" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G58" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G59" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G60" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G61" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G62" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="7:7">
       <c r="G63" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7">
       <c r="G68" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="15.2545454545455" customWidth="1"/>
+    <col min="4" max="4" width="20.8727272727273" customWidth="1"/>
     <col min="6" max="6" width="9.5"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="22.8727272727273" customWidth="1"/>
+    <col min="9" max="9" width="12.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="15" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:11">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>31</v>
@@ -3509,10 +4124,10 @@
         <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3520,10 +4135,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3531,10 +4146,10 @@
         <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="4">
         <v>17740228031</v>
       </c>
@@ -3542,189 +4157,189 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:6">
       <c r="F17" s="6">
         <v>-224359</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:6">
       <c r="F18" s="6">
         <v>-246356</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:6">
       <c r="F19" s="6">
         <v>-269330</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:6">
       <c r="F20" s="6">
         <v>-283323</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:6">
       <c r="F22" s="6">
         <v>-312274</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:6">
       <c r="F25" s="6">
         <v>-304180</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:6">
       <c r="F26" s="6">
         <v>-302171</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:6">
       <c r="F27" s="6">
         <v>-275135</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:6">
       <c r="F28" s="6">
         <v>-271127</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:6">
       <c r="F29" s="6">
         <v>-231104</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14">
       <c r="F33" s="6">
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14">
       <c r="F34" s="6">
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="6:15" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14">
       <c r="F35" s="6">
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="6:15" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="7:14">
       <c r="G36" s="6">
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="6:15" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="7:15">
       <c r="G37" s="6">
         <v>-50173</v>
       </c>
@@ -3735,7 +4350,7 @@
         <v>-289</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="7:15">
       <c r="G38" s="6">
         <v>-41183</v>
       </c>
@@ -3746,7 +4361,7 @@
         <v>-199</v>
       </c>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="7:15">
       <c r="G39" s="6">
         <v>-38225</v>
       </c>
@@ -3757,93 +4372,93 @@
         <v>-177</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="7:14">
       <c r="G40" s="6">
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="7:14">
       <c r="G41" s="6">
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="6:15" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="7:14">
       <c r="G42" s="6">
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="6:15" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="7:14">
       <c r="G43" s="6">
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="N43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="6:15" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="48" spans="6:15" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7">
       <c r="G48" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
       <c r="G49" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
       <c r="G50" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7">
       <c r="G51" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7">
       <c r="G52" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7">
       <c r="G53" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7">
       <c r="G54" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7">
       <c r="G55" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7">
       <c r="G56" s="8" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7170" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="274">
   <si>
     <t>ID</t>
   </si>
@@ -200,6 +200,9 @@
     <t>(水之晶)</t>
   </si>
   <si>
+    <t>tuonimeite</t>
+  </si>
+  <si>
     <t>Haolie2006</t>
   </si>
   <si>
@@ -209,7 +212,13 @@
     <t>A</t>
   </si>
   <si>
+    <t>跨服打车点</t>
+  </si>
+  <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>引车点</t>
   </si>
   <si>
     <t>C</t>
@@ -1094,8 +1103,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,9 +1118,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,18 +1158,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1173,13 +1170,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,19 +1206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,13 +1266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,13 +1278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,7 +1302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,13 +1326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,10 +1499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1502,115 +1511,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1619,13 +1628,13 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2082,8 +2091,8 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2330,7 +2339,13 @@
     <row r="16" s="3" customFormat="1" spans="6:6">
       <c r="F16" s="23"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="6:6">
+    <row r="17" s="3" customFormat="1" ht="15" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3">
+        <v>159</v>
+      </c>
       <c r="F17" s="23"/>
     </row>
     <row r="18" s="3" customFormat="1" spans="6:6">
@@ -2338,13 +2353,13 @@
     </row>
     <row r="19" s="12" customFormat="1" spans="2:6">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="32"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -2352,6 +2367,14 @@
         <v>25899588</v>
       </c>
     </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>-357</v>
+      </c>
+      <c r="C24">
+        <v>-351</v>
+      </c>
+    </row>
     <row r="26" spans="7:12">
       <c r="G26">
         <v>1</v>
@@ -2374,7 +2397,7 @@
     </row>
     <row r="27" spans="6:12">
       <c r="F27" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2383,9 +2406,18 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="6:12">
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>300</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="F28" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2394,9 +2426,18 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="6:12">
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>320</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
       <c r="F29" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2409,7 +2450,7 @@
     </row>
     <row r="30" spans="6:12">
       <c r="F30" s="20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -2424,7 +2465,7 @@
     </row>
     <row r="31" spans="6:12">
       <c r="F31" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2435,7 +2476,7 @@
     </row>
     <row r="32" spans="6:12">
       <c r="F32" s="20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2450,7 +2491,7 @@
     </row>
     <row r="39" spans="9:9">
       <c r="I39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2470,8 +2511,8 @@
   <sheetPr/>
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -2484,31 +2525,31 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2516,11 +2557,14 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="G3">
         <v>4</v>
       </c>
@@ -2536,7 +2580,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2557,22 +2601,25 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="G5">
         <v>3</v>
       </c>
@@ -2580,15 +2627,18 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2596,22 +2646,28 @@
       <c r="D6">
         <v>2</v>
       </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2619,19 +2675,28 @@
       <c r="D7">
         <v>4</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2640,10 +2705,10 @@
         <v>3</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
         <v>2</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -2697,7 +2762,7 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="56" spans="2:15">
@@ -2711,13 +2776,13 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="M3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="2:13">
@@ -2731,7 +2796,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="M4" s="18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -2745,10 +2810,10 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="M5" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="56" spans="2:13">
@@ -2757,12 +2822,12 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="M6" s="18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -2771,15 +2836,15 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="M7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -2793,13 +2858,13 @@
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" ht="42" spans="2:6">
@@ -2819,7 +2884,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2830,7 +2895,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -2841,12 +2906,12 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:6">
@@ -2860,252 +2925,252 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="3:12">
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
         <v>75</v>
       </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s">
-        <v>72</v>
-      </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
         <v>87</v>
       </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
       <c r="H22" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="4:12">
       <c r="D24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="8:12">
       <c r="H25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="8:12">
       <c r="H26" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" t="s">
         <v>100</v>
       </c>
-      <c r="J26" t="s">
-        <v>97</v>
-      </c>
       <c r="L26" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="7:12">
       <c r="G27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="7:12">
       <c r="G28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="7:12">
       <c r="G29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="7:12">
       <c r="G30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="7:12">
       <c r="G31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="7:12">
       <c r="G32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="7:12">
       <c r="G33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="3:3">
@@ -3115,227 +3180,227 @@
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="8:11">
       <c r="H41" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K41" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H44" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H45" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H46" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K46" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H47" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K47" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H48" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K48" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H49" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K49" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="3:11">
       <c r="C50" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H50" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K50" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H51" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="3:8">
       <c r="C52" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H52" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H53" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="C54" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H54" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="C55" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H55" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="C56" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H56" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="3:8">
       <c r="C57" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H58" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H59" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H60" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="3:8">
       <c r="C61" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H61" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3349,7 +3414,7 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3381,7 +3446,7 @@
         <v>17740228031</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -3402,13 +3467,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:10">
@@ -3423,13 +3488,13 @@
         <v>28</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="98" spans="1:10">
@@ -3444,13 +3509,13 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" ht="27.95" customHeight="1" spans="1:10">
@@ -3465,13 +3530,13 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I5" s="10">
         <v>13408411662</v>
       </c>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:10">
@@ -3480,7 +3545,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -3492,7 +3557,7 @@
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3501,7 +3566,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3519,7 +3584,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:3">
@@ -3528,7 +3593,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
@@ -3537,7 +3602,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:8">
@@ -3547,7 +3612,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3577,18 +3642,18 @@
   <sheetData>
     <row r="1" spans="7:10">
       <c r="G1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G2">
         <v>186</v>
@@ -3605,10 +3670,10 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G3">
         <v>177</v>
@@ -3625,34 +3690,34 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -3660,407 +3725,407 @@
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="7:7">
       <c r="G30" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="7:7">
       <c r="G32" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="7:7">
       <c r="G59" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="7:7">
       <c r="G60" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="7:7">
       <c r="G63" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4076,7 +4141,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
@@ -4095,36 +4160,36 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:11">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4135,7 +4200,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4143,10 +4208,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4154,10 +4219,10 @@
         <v>17740228031</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4165,10 +4230,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" t="s">
         <v>243</v>
-      </c>
-      <c r="C10" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4176,13 +4241,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
@@ -4193,10 +4258,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
@@ -4204,7 +4269,7 @@
     </row>
     <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
@@ -4212,7 +4277,7 @@
     </row>
     <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
@@ -4240,7 +4305,7 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
@@ -4253,7 +4318,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
@@ -4261,7 +4326,7 @@
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
@@ -4294,17 +4359,17 @@
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="6:14">
@@ -4312,7 +4377,7 @@
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="6:14">
@@ -4320,7 +4385,7 @@
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="6:14">
@@ -4328,7 +4393,7 @@
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -4336,7 +4401,7 @@
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="7:15">
@@ -4377,7 +4442,7 @@
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -4385,7 +4450,7 @@
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="7:14">
@@ -4393,7 +4458,7 @@
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="7:14">
@@ -4401,60 +4466,60 @@
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N43" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7170"/>
+    <workbookView windowWidth="19420" windowHeight="7570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="280">
   <si>
     <t>ID</t>
   </si>
@@ -284,6 +284,33 @@
     <t>玄丹110</t>
   </si>
   <si>
+    <t>生产</t>
+  </si>
+  <si>
+    <t>方案1</t>
+  </si>
+  <si>
+    <t>绢</t>
+  </si>
+  <si>
+    <t>方案2</t>
+  </si>
+  <si>
+    <t>泪</t>
+  </si>
+  <si>
+    <t>蛇皮</t>
+  </si>
+  <si>
+    <t>毛毡</t>
+  </si>
+  <si>
+    <t>硬皮</t>
+  </si>
+  <si>
+    <t>金丝</t>
+  </si>
+  <si>
     <t>男法</t>
   </si>
   <si>
@@ -603,15 +630,6 @@
   </si>
   <si>
     <t>之皮</t>
-  </si>
-  <si>
-    <t>绢</t>
-  </si>
-  <si>
-    <t>金丝</t>
-  </si>
-  <si>
-    <t>泪</t>
   </si>
   <si>
     <t>龙皮</t>
@@ -2091,8 +2109,8 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2509,13 +2527,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J8"/>
+  <dimension ref="A2:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="13.6272727272727" customWidth="1"/>
@@ -2712,6 +2730,74 @@
       </c>
       <c r="J8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>7176</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="6:11">
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="6:11">
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="6:11">
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2762,7 +2848,7 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="56" spans="2:15">
@@ -2779,10 +2865,10 @@
         <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="2:13">
@@ -2813,7 +2899,7 @@
         <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="56" spans="2:13">
@@ -2822,7 +2908,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="11" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -2841,10 +2927,10 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="M7" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -2861,10 +2947,10 @@
         <v>57</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" ht="42" spans="2:6">
@@ -2884,7 +2970,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2895,7 +2981,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -2906,12 +2992,12 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="11" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:6">
@@ -2925,7 +3011,7 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" s="17" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="3:3">
@@ -2938,239 +3024,239 @@
         <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="J23" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="4:12">
       <c r="D24" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" spans="8:12">
       <c r="H25" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="8:12">
       <c r="H26" s="12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="7:12">
       <c r="G27" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J27" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="7:12">
       <c r="G28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="7:12">
       <c r="G29" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="7:12">
       <c r="G30" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J30" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="7:12">
       <c r="G31" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="32" spans="7:12">
       <c r="G32" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J32" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="7:12">
       <c r="G33" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="3:3">
@@ -3180,227 +3266,227 @@
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="8:11">
       <c r="H41" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H42" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K42" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H43" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K43" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H44" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K44" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H45" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K45" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H46" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K46" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H47" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K47" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K48" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H49" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K49" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="3:11">
       <c r="C50" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H50" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="K50" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H51" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="3:8">
       <c r="C52" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H53" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="C54" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H54" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="C55" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H55" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="C56" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H56" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="3:8">
       <c r="C57" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H57" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H58" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H59" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H60" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="3:8">
       <c r="C61" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H61" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3467,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
@@ -3509,13 +3595,13 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" ht="27.95" customHeight="1" spans="1:10">
@@ -3530,13 +3616,13 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I5" s="10">
         <v>13408411662</v>
       </c>
       <c r="J5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:10">
@@ -3545,7 +3631,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -3557,7 +3643,7 @@
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3584,7 +3670,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:3">
@@ -3593,7 +3679,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
@@ -3602,7 +3688,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:8">
@@ -3612,7 +3698,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3650,10 +3736,10 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G2">
         <v>186</v>
@@ -3670,10 +3756,10 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G3">
         <v>177</v>
@@ -3690,34 +3776,34 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -3725,407 +3811,407 @@
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="7:7">
       <c r="G30" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="7:7">
       <c r="G32" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="7:7">
       <c r="G59" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="7:7">
       <c r="G60" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="7:7">
       <c r="G63" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4140,7 +4226,7 @@
   <sheetPr/>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -4160,36 +4246,36 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:11">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4200,7 +4286,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4208,10 +4294,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4222,7 +4308,7 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4230,10 +4316,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4241,13 +4327,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
@@ -4258,10 +4344,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E14" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
@@ -4269,7 +4355,7 @@
     </row>
     <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
@@ -4277,7 +4363,7 @@
     </row>
     <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
@@ -4305,7 +4391,7 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
@@ -4318,7 +4404,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
@@ -4326,7 +4412,7 @@
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
@@ -4359,17 +4445,17 @@
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="6:14">
@@ -4377,7 +4463,7 @@
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="6:14">
@@ -4385,7 +4471,7 @@
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="6:14">
@@ -4393,7 +4479,7 @@
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -4401,7 +4487,7 @@
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="7:15">
@@ -4442,7 +4528,7 @@
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -4450,7 +4536,7 @@
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="7:14">
@@ -4458,7 +4544,7 @@
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="7:14">
@@ -4466,60 +4552,60 @@
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N43" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" s="8" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="8" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" s="8" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" s="8" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" s="8" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" s="8" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19420" windowHeight="7570" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="298">
   <si>
     <t>ID</t>
   </si>
@@ -233,6 +233,9 @@
     <t>F</t>
   </si>
   <si>
+    <t>1w收魔力  5000收马铁  有卖的MMM</t>
+  </si>
+  <si>
     <t>拼图C3</t>
   </si>
   <si>
@@ -309,6 +312,57 @@
   </si>
   <si>
     <t>金丝</t>
+  </si>
+  <si>
+    <t>西游目光</t>
+  </si>
+  <si>
+    <t>采集1</t>
+  </si>
+  <si>
+    <t>331 -104</t>
+  </si>
+  <si>
+    <t>采集2</t>
+  </si>
+  <si>
+    <t>181 -292</t>
+  </si>
+  <si>
+    <t>采集3</t>
+  </si>
+  <si>
+    <t>312  -215</t>
+  </si>
+  <si>
+    <t>344 -115</t>
+  </si>
+  <si>
+    <t>351 -150</t>
+  </si>
+  <si>
+    <t>292 -226</t>
+  </si>
+  <si>
+    <t>296 259</t>
+  </si>
+  <si>
+    <t>205 -264</t>
+  </si>
+  <si>
+    <t>215 -266</t>
+  </si>
+  <si>
+    <t>打怪1</t>
+  </si>
+  <si>
+    <t>253 -280</t>
+  </si>
+  <si>
+    <t>96 -365</t>
+  </si>
+  <si>
+    <t>102 -363</t>
   </si>
   <si>
     <t>男法</t>
@@ -943,10 +997,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1008,7 +1062,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,7 +1070,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,6 +1086,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,14 +1114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1069,15 +1122,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,29 +1175,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,21 +1183,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,7 +1224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,13 +1236,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,13 +1290,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,25 +1362,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,97 +1404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,60 +1466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1481,7 +1481,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1504,8 +1504,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1517,145 +1571,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2109,8 +2163,8 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2507,9 +2561,12 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="39" spans="9:9">
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2527,10 +2584,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K14"/>
+  <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2543,31 +2600,31 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2575,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2598,7 +2655,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2627,10 +2684,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2653,10 +2710,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2682,10 +2739,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2711,10 +2768,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2734,25 +2791,25 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>7176</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11">
         <v>17</v>
       </c>
       <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
         <v>66</v>
-      </c>
-      <c r="J11" t="s">
-        <v>65</v>
       </c>
       <c r="K11">
         <v>18</v>
@@ -2760,13 +2817,13 @@
     </row>
     <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12">
         <v>21</v>
@@ -2774,13 +2831,13 @@
     </row>
     <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13">
         <v>13</v>
@@ -2788,16 +2845,83 @@
     </row>
     <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14">
         <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13">
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13">
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10">
+      <c r="I25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2812,8 +2936,8 @@
   <sheetPr/>
   <dimension ref="B1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.87272727272727" defaultRowHeight="14"/>
@@ -2848,7 +2972,7 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="56" spans="2:15">
@@ -2862,13 +2986,13 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="M3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="2:13">
@@ -2882,7 +3006,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="M4" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -2896,10 +3020,10 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="M5" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="56" spans="2:13">
@@ -2908,12 +3032,12 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="11" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="M6" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -2922,15 +3046,15 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="M7" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -2944,13 +3068,13 @@
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="42" spans="2:6">
@@ -2970,7 +3094,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2981,7 +3105,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="11" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -2992,12 +3116,12 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="11" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:6">
@@ -3011,7 +3135,7 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" s="17" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="3:3">
@@ -3024,239 +3148,239 @@
         <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="J23" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="4:12">
       <c r="D24" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="8:12">
       <c r="H25" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="8:12">
       <c r="H26" s="12" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="7:12">
       <c r="G27" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="J27" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="7:12">
       <c r="G28" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="7:12">
       <c r="G29" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="7:12">
       <c r="G30" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="7:12">
       <c r="G31" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="J31" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="7:12">
       <c r="G32" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="7:12">
       <c r="G33" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="L33" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="3:3">
@@ -3266,227 +3390,227 @@
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="8:11">
       <c r="H41" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="K41" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="K42" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="H43" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="K43" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="H44" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="K44" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="H45" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="K45" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="H46" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="K46" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="H47" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="K47" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="H48" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="K48" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="H49" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="K49" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="3:11">
       <c r="C50" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="H50" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="K50" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="3:8">
       <c r="C52" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="H52" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="H53" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="C54" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="H54" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="C55" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="H55" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="C56" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="H56" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="3:8">
       <c r="C57" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H57" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H58" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="H59" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H60" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="3:8">
       <c r="C61" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="H61" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3501,7 +3625,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
@@ -3532,7 +3656,7 @@
         <v>17740228031</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -3553,13 +3677,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:10">
@@ -3574,13 +3698,13 @@
         <v>28</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="98" spans="1:10">
@@ -3595,13 +3719,13 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" ht="27.95" customHeight="1" spans="1:10">
@@ -3616,13 +3740,13 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I5" s="10">
         <v>13408411662</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:10">
@@ -3631,7 +3755,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -3643,7 +3767,7 @@
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3652,7 +3776,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3670,7 +3794,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:3">
@@ -3679,7 +3803,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="11" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
@@ -3688,7 +3812,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:8">
@@ -3698,7 +3822,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3713,7 +3837,7 @@
   <dimension ref="B1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G99"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
@@ -3736,10 +3860,10 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G2">
         <v>186</v>
@@ -3756,10 +3880,10 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G3">
         <v>177</v>
@@ -3776,34 +3900,34 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -3811,407 +3935,407 @@
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="7:7">
       <c r="G30" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="7:7">
       <c r="G32" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="7:7">
       <c r="G59" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="7:7">
       <c r="G60" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="7:7">
       <c r="G63" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4227,7 +4351,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
@@ -4246,36 +4370,36 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:11">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4286,7 +4410,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4294,10 +4418,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4305,10 +4429,10 @@
         <v>17740228031</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4316,10 +4440,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4327,13 +4451,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
@@ -4344,10 +4468,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="E14" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
@@ -4355,7 +4479,7 @@
     </row>
     <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
@@ -4363,7 +4487,7 @@
     </row>
     <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
@@ -4391,7 +4515,7 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
@@ -4404,7 +4528,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
@@ -4412,7 +4536,7 @@
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
@@ -4445,17 +4569,17 @@
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="6:14">
@@ -4463,7 +4587,7 @@
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="6:14">
@@ -4471,7 +4595,7 @@
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="6:14">
@@ -4479,7 +4603,7 @@
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -4487,7 +4611,7 @@
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="7:15">
@@ -4528,7 +4652,7 @@
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -4536,7 +4660,7 @@
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="7:14">
@@ -4544,7 +4668,7 @@
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="7:14">
@@ -4552,60 +4676,60 @@
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="N43" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" s="8" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="8" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="8" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" s="8" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" s="8" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" s="8" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="8" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" s="8" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="8" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7170" activeTab="1"/>
+    <workbookView windowWidth="19420" windowHeight="7570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,10 +997,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1062,7 +1062,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,7 +1070,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,13 +1086,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1114,6 +1107,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1122,44 +1123,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,7 +1147,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,15 +1177,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1224,19 +1224,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,43 +1320,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,19 +1362,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,85 +1398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,6 +1466,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1481,7 +1535,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1504,62 +1558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1571,10 +1571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1583,16 +1583,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1601,115 +1601,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2163,8 +2163,8 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2586,8 +2586,8 @@
   <sheetPr/>
   <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2855,6 +2855,30 @@
       </c>
       <c r="K14">
         <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>192</v>
+      </c>
+      <c r="C17">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>194</v>
+      </c>
+      <c r="C18">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>196</v>
+      </c>
+      <c r="C19">
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="5:13">

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19420" windowHeight="7570" activeTab="1"/>
+    <workbookView windowWidth="18600" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="299">
   <si>
     <t>ID</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>0716ma</t>
+  </si>
+  <si>
+    <t>375C 送江</t>
   </si>
   <si>
     <t>A</t>
@@ -1175,9 +1178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,8 +1192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1224,19 +1227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,19 +1245,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,13 +1311,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,25 +1335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,19 +1353,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,43 +1401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,10 +1574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1583,133 +1586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2163,7 +2166,7 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -2447,7 +2450,10 @@
         <v>-351</v>
       </c>
     </row>
-    <row r="26" spans="7:12">
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
       <c r="G26">
         <v>1</v>
       </c>
@@ -2469,7 +2475,7 @@
     </row>
     <row r="27" spans="6:12">
       <c r="F27" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2480,7 +2486,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>300</v>
@@ -2489,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2500,7 +2506,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>320</v>
@@ -2509,7 +2515,7 @@
         <v>18</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2522,7 +2528,7 @@
     </row>
     <row r="30" spans="6:12">
       <c r="F30" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -2537,7 +2543,7 @@
     </row>
     <row r="31" spans="6:12">
       <c r="F31" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2548,7 +2554,7 @@
     </row>
     <row r="32" spans="6:12">
       <c r="F32" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2563,10 +2569,10 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2586,7 +2592,7 @@
   <sheetPr/>
   <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2600,31 +2606,31 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2632,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2655,7 +2661,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2684,10 +2690,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2710,10 +2716,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2739,10 +2745,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2768,10 +2774,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2791,25 +2797,25 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>7176</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11">
         <v>17</v>
       </c>
       <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
         <v>67</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
       </c>
       <c r="K11">
         <v>18</v>
@@ -2817,13 +2823,13 @@
     </row>
     <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12">
         <v>21</v>
@@ -2831,13 +2837,13 @@
     </row>
     <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13">
         <v>13</v>
@@ -2845,13 +2851,13 @@
     </row>
     <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -2883,69 +2889,69 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="7:13">
       <c r="G21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="9:10">
       <c r="I25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2996,7 +3002,7 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="56" spans="2:15">
@@ -3010,13 +3016,13 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="M3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="2:13">
@@ -3030,7 +3036,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="M4" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -3044,10 +3050,10 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="M5" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" ht="56" spans="2:13">
@@ -3056,12 +3062,12 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="M6" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -3070,15 +3076,15 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="M7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -3092,13 +3098,13 @@
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="42" spans="2:6">
@@ -3118,7 +3124,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -3129,7 +3135,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -3140,12 +3146,12 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:6">
@@ -3159,7 +3165,7 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="3:3">
@@ -3172,239 +3178,239 @@
         <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="4:12">
       <c r="D24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="8:12">
       <c r="H25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="8:12">
       <c r="H26" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="7:12">
       <c r="G27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="7:12">
       <c r="G28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="7:12">
       <c r="G29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="7:12">
       <c r="G30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="7:12">
       <c r="G31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="7:12">
       <c r="G32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="7:12">
       <c r="G33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="3:3">
@@ -3414,227 +3420,227 @@
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="8:11">
       <c r="H41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="3:11">
       <c r="C50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="3:8">
       <c r="C52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="C54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="C55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="C56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="3:8">
       <c r="C57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="3:8">
       <c r="C61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3680,7 +3686,7 @@
         <v>17740228031</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -3701,13 +3707,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:10">
@@ -3722,13 +3728,13 @@
         <v>28</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="98" spans="1:10">
@@ -3743,13 +3749,13 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" ht="27.95" customHeight="1" spans="1:10">
@@ -3764,13 +3770,13 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I5" s="10">
         <v>13408411662</v>
       </c>
       <c r="J5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:10">
@@ -3779,7 +3785,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -3791,7 +3797,7 @@
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3800,7 +3806,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3818,7 +3824,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:3">
@@ -3827,7 +3833,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
@@ -3836,7 +3842,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:8">
@@ -3846,7 +3852,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="H13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3876,18 +3882,18 @@
   <sheetData>
     <row r="1" spans="7:10">
       <c r="G1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G2">
         <v>186</v>
@@ -3904,10 +3910,10 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G3">
         <v>177</v>
@@ -3924,34 +3930,34 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -3959,407 +3965,407 @@
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="7:7">
       <c r="G30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="7:7">
       <c r="G32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="7:7">
       <c r="G59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="7:7">
       <c r="G60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="7:7">
       <c r="G63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4394,36 +4400,36 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:11">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4434,7 +4440,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4442,10 +4448,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4453,10 +4459,10 @@
         <v>17740228031</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4464,10 +4470,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4475,13 +4481,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
@@ -4492,10 +4498,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
@@ -4503,7 +4509,7 @@
     </row>
     <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
@@ -4511,7 +4517,7 @@
     </row>
     <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
@@ -4539,7 +4545,7 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
@@ -4552,7 +4558,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
@@ -4560,7 +4566,7 @@
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
@@ -4593,17 +4599,17 @@
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="6:14">
@@ -4611,7 +4617,7 @@
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="6:14">
@@ -4619,7 +4625,7 @@
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="6:14">
@@ -4627,7 +4633,7 @@
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -4635,7 +4641,7 @@
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="7:15">
@@ -4676,7 +4682,7 @@
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -4684,7 +4690,7 @@
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="7:14">
@@ -4692,7 +4698,7 @@
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="7:14">
@@ -4700,60 +4706,60 @@
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="330">
   <si>
     <t>ID</t>
   </si>
@@ -89,6 +89,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -102,6 +103,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -112,6 +114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -122,6 +125,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -176,6 +180,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -187,6 +192,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -994,18 +1000,136 @@
   <si>
     <t>不错的YY神石</t>
   </si>
+  <si>
+    <t>美食配方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>红果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆罗根</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金雀花</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白叶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>细茎草</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫皮果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>靑叶椒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺玫</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小仙花</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂梨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜薯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜交藤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>山参</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三七</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修叶草</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸果树</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦藤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>翠韭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮窝窝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟柳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜桃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>百子果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>靑茄</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧玉菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤茎稻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆荚</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶龙象胆</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>果皮蔗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,12 +1141,14 @@
       <sz val="10.5"/>
       <color rgb="FFE12828"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1030,6 +1156,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1037,6 +1164,7 @@
       <sz val="11"/>
       <color rgb="FF92D050"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1044,6 +1172,7 @@
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1052,6 +1181,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1060,6 +1190,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1067,140 +1198,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1225,194 +1235,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1468,255 +1292,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1801,13 +1386,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1816,58 +1401,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2158,30 +1700,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.7545454545455" customWidth="1"/>
-    <col min="2" max="2" width="24.7545454545455" customWidth="1"/>
-    <col min="3" max="3" width="29.8727272727273" customWidth="1"/>
-    <col min="4" max="4" width="13.8727272727273" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="31.2545454545455" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.7545454545455" customWidth="1"/>
+    <col min="6" max="6" width="31.25" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="1:6">
+    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2201,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:6">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2216,7 +1758,7 @@
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="28" spans="1:6">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>13408411662</v>
       </c>
@@ -2231,7 +1773,7 @@
       </c>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="38.1" customHeight="1" spans="1:6">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2248,7 +1790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="56" spans="1:6">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2262,7 +1804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2276,7 +1818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="56" spans="1:6">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -2291,7 +1833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="56" spans="1:6">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2306,7 +1848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:7">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -2322,7 +1864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="28" spans="1:6">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>17740228031</v>
       </c>
@@ -2342,7 +1884,7 @@
         <v>17740228031</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -2350,7 +1892,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="28" spans="1:6">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -2367,7 +1909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="42" spans="1:6">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -2384,7 +1926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="28" spans="1:6">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -2399,7 +1941,7 @@
       </c>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15" spans="1:6">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2411,10 +1953,10 @@
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="6:6">
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F16" s="23"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="15" spans="1:6">
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2423,26 +1965,26 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" s="3" customFormat="1" spans="6:6">
+    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F18" s="23"/>
     </row>
-    <row r="19" s="12" customFormat="1" spans="2:6">
+    <row r="19" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B22" s="6">
         <v>25899588</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>-357</v>
       </c>
@@ -2450,7 +1992,7 @@
         <v>-351</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -2473,7 +2015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="6:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F27" s="20" t="s">
         <v>39</v>
       </c>
@@ -2484,7 +2026,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2504,7 +2046,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2526,7 +2068,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="6:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F30" s="20" t="s">
         <v>44</v>
       </c>
@@ -2541,7 +2083,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="6:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F31" s="20" t="s">
         <v>45</v>
       </c>
@@ -2552,7 +2094,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="6:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F32" s="20" t="s">
         <v>46</v>
       </c>
@@ -2567,7 +2109,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>47</v>
       </c>
@@ -2576,35 +2118,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="haolie2006@163.com"/>
-    <hyperlink ref="F12" r:id="rId1" display="haolie2006@163.com"/>
-    <hyperlink ref="F13" r:id="rId2" display="hengxia2006@126.com" tooltip="mailto:hengxia2006@126.com"/>
+    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3" tooltip="mailto:hengxia2006@126.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="13.6272727272727" customWidth="1"/>
-    <col min="3" max="3" width="7.37272727272727" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>49</v>
       </c>
@@ -2633,7 +2174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2659,7 +2200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2688,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -2714,7 +2255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2743,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -2772,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -2795,7 +2336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>65</v>
       </c>
@@ -2821,7 +2362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="6:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>69</v>
       </c>
@@ -2835,7 +2376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="6:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>71</v>
       </c>
@@ -2849,7 +2390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="6:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>73</v>
       </c>
@@ -2863,7 +2404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>192</v>
       </c>
@@ -2871,7 +2412,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>194</v>
       </c>
@@ -2879,7 +2420,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>196</v>
       </c>
@@ -2887,7 +2428,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="5:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
         <v>74</v>
       </c>
@@ -2910,7 +2451,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="7:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
         <v>81</v>
       </c>
@@ -2921,22 +2462,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="13:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="M22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="7:7">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="G23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="7:7">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="G24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="9:10">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
       <c r="I25" t="s">
         <v>87</v>
       </c>
@@ -2944,40 +2485,170 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="7:7">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="G26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="7:7">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="G27" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B41" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B42" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B43" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B44" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B46" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B47" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B48" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B50" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O67"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.87272727272727" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.3727272727273" customWidth="1"/>
-    <col min="5" max="6" width="9.87272727272727" style="12"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="5" max="6" width="9.875" style="12"/>
     <col min="11" max="11" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2988,7 +2659,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" ht="70" spans="2:14">
+    <row r="2" spans="2:15" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B2" s="10">
         <v>13408411662</v>
       </c>
@@ -3005,7 +2676,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" ht="56" spans="2:15">
+    <row r="3" spans="2:15" ht="54" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3025,7 +2696,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" ht="84" customHeight="1" spans="2:13">
+    <row r="4" spans="2:15" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3039,7 +2710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3056,7 +2727,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" ht="56" spans="2:13">
+    <row r="6" spans="2:15" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
@@ -3070,7 +2741,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3087,7 +2758,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
@@ -3107,7 +2778,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" ht="42" spans="2:6">
+    <row r="9" spans="2:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>17740228031</v>
       </c>
@@ -3118,7 +2789,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -3129,7 +2800,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" ht="56" spans="2:6">
+    <row r="11" spans="2:15" ht="54" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -3140,7 +2811,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" ht="15" spans="2:10">
+    <row r="12" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -3154,7 +2825,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="2:6">
+    <row r="13" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
@@ -3163,17 +2834,17 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="15" spans="5:5">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E15" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C16" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>37</v>
       </c>
@@ -3181,12 +2852,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="12:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="L18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>105</v>
       </c>
@@ -3206,7 +2877,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>109</v>
       </c>
@@ -3226,7 +2897,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>113</v>
       </c>
@@ -3246,7 +2917,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>118</v>
       </c>
@@ -3266,7 +2937,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>122</v>
       </c>
@@ -3286,7 +2957,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="4:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>127</v>
       </c>
@@ -3300,7 +2971,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="8:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H25" t="s">
         <v>130</v>
       </c>
@@ -3311,7 +2982,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="8:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H26" s="12" t="s">
         <v>131</v>
       </c>
@@ -3322,7 +2993,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="7:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G27" t="s">
         <v>132</v>
       </c>
@@ -3336,7 +3007,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="7:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G28" t="s">
         <v>103</v>
       </c>
@@ -3350,7 +3021,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="7:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G29" t="s">
         <v>104</v>
       </c>
@@ -3364,7 +3035,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="7:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G30" t="s">
         <v>112</v>
       </c>
@@ -3378,7 +3049,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="7:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G31" t="s">
         <v>108</v>
       </c>
@@ -3389,7 +3060,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="7:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G32" t="s">
         <v>116</v>
       </c>
@@ -3400,7 +3071,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="7:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G33" t="s">
         <v>128</v>
       </c>
@@ -3408,27 +3079,27 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G34" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C35">
         <v>493</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
       <c r="K39" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
       <c r="K40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="8:11">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
       <c r="H41" t="s">
         <v>139</v>
       </c>
@@ -3436,7 +3107,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="3:11">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>139</v>
       </c>
@@ -3447,7 +3118,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="3:11">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -3458,7 +3129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="3:11">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>143</v>
       </c>
@@ -3469,7 +3140,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="3:11">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
         <v>145</v>
       </c>
@@ -3480,7 +3151,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
         <v>147</v>
       </c>
@@ -3491,7 +3162,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
         <v>149</v>
       </c>
@@ -3502,7 +3173,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>151</v>
       </c>
@@ -3513,7 +3184,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
         <v>153</v>
       </c>
@@ -3524,7 +3195,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
         <v>155</v>
       </c>
@@ -3535,7 +3206,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="3:8">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -3543,7 +3214,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="3:8">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
         <v>159</v>
       </c>
@@ -3551,7 +3222,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="3:8">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>160</v>
       </c>
@@ -3559,7 +3230,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="3:8">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
         <v>161</v>
       </c>
@@ -3567,7 +3238,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="3:8">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
         <v>162</v>
       </c>
@@ -3575,7 +3246,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="3:8">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
         <v>163</v>
       </c>
@@ -3583,7 +3254,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="3:8">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
         <v>164</v>
       </c>
@@ -3591,7 +3262,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="3:8">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
         <v>165</v>
       </c>
@@ -3599,7 +3270,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="3:8">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
         <v>166</v>
       </c>
@@ -3607,7 +3278,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="3:8">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
         <v>167</v>
       </c>
@@ -3615,7 +3286,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="3:8">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
         <v>168</v>
       </c>
@@ -3623,58 +3294,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="8:8">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.15">
       <c r="H62" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C65" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6272727272727" customWidth="1"/>
-    <col min="6" max="6" width="23.1272727272727" customWidth="1"/>
-    <col min="7" max="7" width="21.2545454545455" customWidth="1"/>
-    <col min="8" max="8" width="18.8727272727273" customWidth="1"/>
-    <col min="9" max="9" width="19.3727272727273" customWidth="1"/>
-    <col min="10" max="10" width="21.6272727272727" customWidth="1"/>
-    <col min="11" max="11" width="4.87272727272727" customWidth="1"/>
-    <col min="12" max="14" width="4.62727272727273" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="21.625" customWidth="1"/>
+    <col min="11" max="11" width="4.875" customWidth="1"/>
+    <col min="12" max="14" width="4.625" customWidth="1"/>
     <col min="15" max="15" width="4.5" customWidth="1"/>
-    <col min="16" max="16" width="5.12727272727273" customWidth="1"/>
+    <col min="16" max="16" width="5.125" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
-    <col min="18" max="18" width="5.12727272727273" customWidth="1"/>
+    <col min="18" max="18" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3695,7 +3365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="70" spans="1:10">
+    <row r="2" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>13408411662</v>
       </c>
@@ -3716,7 +3386,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" ht="56" spans="1:10">
+    <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3737,7 +3407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" ht="98" spans="1:10">
+    <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3758,7 +3428,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" ht="27.95" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3779,7 +3449,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" ht="56" spans="1:10">
+    <row r="6" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -3800,7 +3470,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3809,7 +3479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -3818,7 +3488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -3827,7 +3497,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" ht="56" spans="1:3">
+    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -3836,7 +3506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:3">
+    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -3845,7 +3515,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:8">
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -3856,31 +3526,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="15.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="9.5"/>
-    <col min="7" max="7" width="13.1272727272727" customWidth="1"/>
-    <col min="10" max="10" width="12.1272727272727" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:10">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G1" t="s">
         <v>39</v>
       </c>
@@ -3888,7 +3557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>181</v>
       </c>
@@ -3908,7 +3577,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>183</v>
       </c>
@@ -3928,7 +3597,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>185</v>
       </c>
@@ -3936,7 +3605,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>187</v>
       </c>
@@ -3945,457 +3614,456 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="8"/>
     </row>
-    <row r="19" spans="7:7">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="7:7">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G20" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="7:7">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="7:7">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G22" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="7:7">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="7:7">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="7:7">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="7:7">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="7:7">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G27" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="7:7">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G28" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="7:7">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G29" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="7:7">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G30" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="7:7">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="7:7">
+    <row r="32" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G32" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="7:7">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G33" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G34" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="7:7">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G35" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="7:7">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G36" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G37" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="7:7">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G38" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="7:7">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G39" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="7:7">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G40" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="7:7">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G41" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="7:7">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G42" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="7:7">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G43" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="7:7">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G44" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="7:7">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G45" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="7:7">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G46" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="7:7">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G47" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="7:7">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G48" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="7:7">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G49" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="7:7">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G50" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="7:7">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G51" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="7:7">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G53" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="7:7">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G54" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="7:7">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G55" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="7:7">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G56" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="7:7">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="7:7">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G58" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="7:7">
+    <row r="59" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G59" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="7:7">
+    <row r="60" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G60" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="7:7">
+    <row r="61" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G61" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="7:7">
+    <row r="62" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G62" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="7:7">
+    <row r="63" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G63" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="7:7">
+    <row r="64" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G64" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="7:7">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G65" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="7:7">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G66" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="7:7">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G67" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="68" spans="7:7">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G68" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="7:7">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G69" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="7:7">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G70" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="7:7">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G71" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="72" spans="7:7">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G72" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="73" spans="7:7">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G73" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="7:7">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G74" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="7:7">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G75" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="7:7">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G76" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="7:7">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G77" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="78" spans="7:7">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G78" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="7:7">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G79" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="80" spans="7:7">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G80" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="7:7">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G81" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="7:7">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G82" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="7:7">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G83" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="7:7">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G84" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="7:7">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G85" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="7:7">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G86" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="7:7">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G87" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="7:7">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G88" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="89" spans="7:7">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G89" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="7:7">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G90" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="91" spans="7:7">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G91" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="7:7">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G92" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="93" spans="7:7">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G93" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="94" spans="7:7">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G94" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="95" spans="7:7">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G95" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="7:7">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G96" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="7:7">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G97" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="7:7">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G98" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="99" spans="7:7">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G99" t="s">
         <v>267</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.2545454545455" customWidth="1"/>
-    <col min="4" max="4" width="20.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="9.5"/>
-    <col min="7" max="7" width="22.8727272727273" customWidth="1"/>
-    <col min="9" max="9" width="12.1272727272727" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -4415,7 +4083,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:11">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -4432,7 +4100,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -4443,7 +4111,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4454,7 +4122,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>17740228031</v>
       </c>
@@ -4465,7 +4133,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -4476,7 +4144,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -4493,7 +4161,7 @@
         <v>-119355</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -4507,7 +4175,7 @@
         <v>-134370</v>
       </c>
     </row>
-    <row r="15" spans="5:6">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
         <v>273</v>
       </c>
@@ -4515,7 +4183,7 @@
         <v>-172368</v>
       </c>
     </row>
-    <row r="16" spans="5:6">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
         <v>273</v>
       </c>
@@ -4523,27 +4191,27 @@
         <v>-188371</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F17" s="6">
         <v>-224359</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F18" s="6">
         <v>-246356</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F19" s="6">
         <v>-269330</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F20" s="6">
         <v>-283323</v>
       </c>
     </row>
-    <row r="21" spans="4:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>274</v>
       </c>
@@ -4551,12 +4219,12 @@
         <v>-301285</v>
       </c>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F22" s="6">
         <v>-312274</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>275</v>
       </c>
@@ -4564,7 +4232,7 @@
         <v>-313236</v>
       </c>
     </row>
-    <row r="24" spans="5:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
         <v>276</v>
       </c>
@@ -4572,47 +4240,47 @@
         <v>-315226</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F25" s="6">
         <v>-304180</v>
       </c>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F26" s="6">
         <v>-302171</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F27" s="6">
         <v>-275135</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F28" s="6">
         <v>-271127</v>
       </c>
     </row>
-    <row r="29" spans="6:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F29" s="6">
         <v>-231104</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="6:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="6:14">
+    <row r="33" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F33" s="6">
         <v>-126101</v>
       </c>
@@ -4620,7 +4288,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="6:14">
+    <row r="34" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F34" s="6">
         <v>-115102</v>
       </c>
@@ -4628,7 +4296,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="6:14">
+    <row r="35" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F35" s="6">
         <v>-81130</v>
       </c>
@@ -4636,7 +4304,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="7:14">
+    <row r="36" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G36" s="6">
         <v>-69136</v>
       </c>
@@ -4644,7 +4312,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="7:15">
+    <row r="37" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G37" s="6">
         <v>-50173</v>
       </c>
@@ -4655,7 +4323,7 @@
         <v>-289</v>
       </c>
     </row>
-    <row r="38" spans="7:15">
+    <row r="38" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G38" s="6">
         <v>-41183</v>
       </c>
@@ -4666,7 +4334,7 @@
         <v>-199</v>
       </c>
     </row>
-    <row r="39" spans="7:15">
+    <row r="39" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G39" s="6">
         <v>-38225</v>
       </c>
@@ -4677,7 +4345,7 @@
         <v>-177</v>
       </c>
     </row>
-    <row r="40" spans="7:14">
+    <row r="40" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G40" s="6">
         <v>-33246</v>
       </c>
@@ -4685,7 +4353,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="7:14">
+    <row r="41" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G41" s="6">
         <v>-46278</v>
       </c>
@@ -4693,7 +4361,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="7:14">
+    <row r="42" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G42" s="6">
         <v>-49294</v>
       </c>
@@ -4701,7 +4369,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="7:14">
+    <row r="43" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G43" s="6">
         <v>-67331</v>
       </c>
@@ -4712,58 +4380,58 @@
         <v>288</v>
       </c>
     </row>
-    <row r="44" spans="9:9">
+    <row r="44" spans="6:15" x14ac:dyDescent="0.15">
       <c r="I44" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="7:7">
+    <row r="48" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G48" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="7:7">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G49" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="7:7">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G50" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="7:7">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G51" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="7:7">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G52" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G53" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="54" spans="7:7">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G54" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="7:7">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G55" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="56" spans="7:7">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G56" s="8" t="s">
         <v>298</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="7020" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="330">
   <si>
     <t>ID</t>
   </si>
@@ -89,7 +89,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -103,7 +102,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -114,7 +112,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -125,7 +122,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -180,7 +176,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -192,7 +187,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -221,18 +215,21 @@
     <t>A</t>
   </si>
   <si>
-    <t>跨服打车点</t>
+    <t>15x</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>引车点</t>
+    <t>5X</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>4X</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -372,6 +369,99 @@
   </si>
   <si>
     <t>102 -363</t>
+  </si>
+  <si>
+    <t>美食配方</t>
+  </si>
+  <si>
+    <t>红果</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>脆罗根</t>
+  </si>
+  <si>
+    <t>金雀花</t>
+  </si>
+  <si>
+    <t>白叶</t>
+  </si>
+  <si>
+    <t>细茎草</t>
+  </si>
+  <si>
+    <t>紫皮果</t>
+  </si>
+  <si>
+    <t>靑叶椒</t>
+  </si>
+  <si>
+    <t>刺玫</t>
+  </si>
+  <si>
+    <t>小仙花</t>
+  </si>
+  <si>
+    <t>砂梨</t>
+  </si>
+  <si>
+    <t>甜薯</t>
+  </si>
+  <si>
+    <t>夜交藤</t>
+  </si>
+  <si>
+    <t>山参</t>
+  </si>
+  <si>
+    <t>三七</t>
+  </si>
+  <si>
+    <t>修叶草</t>
+  </si>
+  <si>
+    <t>酸果树</t>
+  </si>
+  <si>
+    <t>苦藤</t>
+  </si>
+  <si>
+    <t>翠韭</t>
+  </si>
+  <si>
+    <t>矮窝窝</t>
+  </si>
+  <si>
+    <t>烟柳</t>
+  </si>
+  <si>
+    <t>蜜桃</t>
+  </si>
+  <si>
+    <t>百子果</t>
+  </si>
+  <si>
+    <t>靑茄</t>
+  </si>
+  <si>
+    <t>碧玉菜</t>
+  </si>
+  <si>
+    <t>赤茎稻</t>
+  </si>
+  <si>
+    <t>谷果</t>
+  </si>
+  <si>
+    <t>豆荚</t>
+  </si>
+  <si>
+    <t>水晶龙象胆</t>
+  </si>
+  <si>
+    <t>果皮蔗</t>
   </si>
   <si>
     <t>男法</t>
@@ -616,15 +706,6 @@
     <t>学院小红花</t>
   </si>
   <si>
-    <t>扬文匕</t>
-  </si>
-  <si>
-    <t>叠山如来杖</t>
-  </si>
-  <si>
-    <t>魂魄珠(未激活){34} ID=9723 [0000] 类型=11 数量=1W=-1 等级=0 精炼=0 追加=0 红=0 蓝=0 价格=1铜 剩余时间地址=0</t>
-  </si>
-  <si>
     <t xml:space="preserve">长空飞花
 </t>
   </si>
@@ -803,6 +884,9 @@
     <t>佛光之轮</t>
   </si>
   <si>
+    <t>扬文匕</t>
+  </si>
+  <si>
     <t>纯均</t>
   </si>
   <si>
@@ -815,6 +899,9 @@
     <t>醉魂爪</t>
   </si>
   <si>
+    <t>叠山如来杖</t>
+  </si>
+  <si>
     <t>灭魂</t>
   </si>
   <si>
@@ -999,137 +1086,19 @@
   </si>
   <si>
     <t>不错的YY神石</t>
-  </si>
-  <si>
-    <t>美食配方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>红果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>脆罗根</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>金雀花</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>白叶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>细茎草</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫皮果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>靑叶椒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺玫</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小仙花</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>砂梨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜薯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜交藤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>山参</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>三七</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>修叶草</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸果树</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦藤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>翠韭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>矮窝窝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟柳</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜜桃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>百子果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>靑茄</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>碧玉菜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤茎稻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆荚</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶龙象胆</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>果皮蔗</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,14 +1110,12 @@
       <sz val="10.5"/>
       <color rgb="FFE12828"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1156,7 +1123,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1164,7 +1130,6 @@
       <sz val="11"/>
       <color rgb="FF92D050"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1172,7 +1137,6 @@
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1181,7 +1145,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1190,7 +1153,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1198,19 +1160,140 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1235,8 +1318,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1292,12 +1561,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,13 +1894,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1401,15 +1909,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1700,30 +2254,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="23.7583333333333" customWidth="1"/>
+    <col min="2" max="2" width="24.7583333333333" customWidth="1"/>
     <col min="3" max="3" width="29.875" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="31.25" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="31.2583333333333" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="19" customFormat="1" spans="1:6">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +2297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="3" customFormat="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1758,7 +2312,7 @@
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A3" s="10">
         <v>13408411662</v>
       </c>
@@ -1773,7 +2327,7 @@
       </c>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" ht="38.1" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1790,7 +2344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" ht="54" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1804,7 +2358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1818,7 +2372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="54" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1833,7 +2387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="54" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1848,7 +2402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +2418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A10" s="4">
         <v>17740228031</v>
       </c>
@@ -1884,7 +2438,7 @@
         <v>17740228031</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="29"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -1892,7 +2446,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1909,7 +2463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="40.5" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -1926,7 +2480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1941,7 +2495,7 @@
       </c>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1953,10 +2507,10 @@
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="3" customFormat="1" spans="6:6">
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="17" s="3" customFormat="1" ht="17.25" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1965,26 +2519,26 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="3" customFormat="1" spans="6:6">
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="12" customFormat="1" spans="2:6">
       <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" s="6">
         <v>25899588</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3">
       <c r="B24">
         <v>-357</v>
       </c>
@@ -1992,7 +2546,7 @@
         <v>-351</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -2015,7 +2569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:12">
       <c r="F27" s="20" t="s">
         <v>39</v>
       </c>
@@ -2026,15 +2580,12 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28">
-        <v>300</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="B28" s="33">
+        <v>0.541666666666667</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>41</v>
@@ -2046,15 +2597,12 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>42</v>
       </c>
-      <c r="B29">
-        <v>320</v>
-      </c>
-      <c r="C29">
-        <v>18</v>
+      <c r="B29" s="33">
+        <v>0.770833333333333</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>43</v>
@@ -2068,9 +2616,15 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="33">
+        <v>0.916666666666667</v>
+      </c>
       <c r="F30" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -2083,9 +2637,9 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:12">
       <c r="F31" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2094,9 +2648,9 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:12">
       <c r="F32" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2109,35 +2663,36 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="F12" r:id="rId2"/>
-    <hyperlink ref="F13" r:id="rId3" tooltip="mailto:hengxia2006@126.com"/>
+    <hyperlink ref="F8" r:id="rId1" display="haolie2006@163.com"/>
+    <hyperlink ref="F12" r:id="rId1" display="haolie2006@163.com"/>
+    <hyperlink ref="F13" r:id="rId2" display="hengxia2006@126.com" tooltip="mailto:hengxia2006@126.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
@@ -2145,41 +2700,41 @@
     <col min="5" max="5" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2200,9 +2755,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2229,12 +2784,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2255,12 +2810,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2284,12 +2839,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2313,12 +2868,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2336,75 +2891,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>7176</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11">
         <v>17</v>
       </c>
       <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
         <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>67</v>
       </c>
       <c r="K11">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3">
       <c r="B17">
         <v>192</v>
       </c>
@@ -2412,7 +2967,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3">
       <c r="B18">
         <v>194</v>
       </c>
@@ -2420,7 +2975,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="B19">
         <v>196</v>
       </c>
@@ -2428,227 +2983,228 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13">
       <c r="G21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10">
       <c r="I25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B38" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B40" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B41" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B42" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B43" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B44" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B45" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B46" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B47" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B48" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B49" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B50" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>329</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:O62"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="5" max="6" width="9.875" style="12"/>
     <col min="11" max="11" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:6">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2659,7 +3215,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="2:15" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" ht="67.5" spans="2:14">
       <c r="B2" s="10">
         <v>13408411662</v>
       </c>
@@ -2673,10 +3229,10 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="54" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="2:15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2687,16 +3243,16 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="M3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="O3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" ht="84" customHeight="1" spans="2:13">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2707,10 +3263,10 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="M4" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2721,44 +3277,44 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="M5" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="54" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="2:13">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="11" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="M6" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="M7" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2769,16 +3325,16 @@
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="40.5" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="2:6">
       <c r="B9" s="4">
         <v>17740228031</v>
       </c>
@@ -2789,43 +3345,43 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="2:15" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" ht="54" spans="2:6">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="11" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="12" ht="17.25" spans="2:10">
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="11" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="J12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="2:6">
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,505 +3390,491 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="5:5">
       <c r="E15" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
       <c r="C16" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:12">
       <c r="C17" t="s">
         <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12">
       <c r="L18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="J21" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="J23" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12">
       <c r="D24" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12">
       <c r="H25" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="8:12">
       <c r="H26" s="12" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="7:12">
       <c r="G27" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12">
       <c r="G28" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="7:12">
       <c r="G29" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="7:12">
       <c r="G30" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="H30" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="J30" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="7:12">
       <c r="G31" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="J31" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="7:12">
       <c r="G32" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="J32" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12">
       <c r="G33" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
       <c r="C35">
         <v>493</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11">
       <c r="H41" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="K41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H42" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="K42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="K43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H44" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="K44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="K45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="H46" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="K46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="H47" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="K47" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="H48" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="K48" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="K49" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11">
       <c r="C50" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="H50" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="K50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
       <c r="C51" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="H51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
       <c r="C52" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="H52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
       <c r="C53" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="H53" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
       <c r="C54" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="H54" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
       <c r="C55" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="H55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
       <c r="C56" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="H56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8">
       <c r="C57" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="H57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8">
       <c r="C58" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="H58" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8">
       <c r="C59" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="H59" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
       <c r="C60" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="H60" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8">
       <c r="C61" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="H61" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C66" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C67" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75833333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="21.2583333333333" customWidth="1"/>
     <col min="8" max="8" width="18.875" customWidth="1"/>
     <col min="9" max="9" width="19.375" customWidth="1"/>
     <col min="10" max="10" width="21.625" customWidth="1"/>
@@ -3344,7 +3886,7 @@
     <col min="18" max="18" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="36" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3356,7 +3898,7 @@
         <v>17740228031</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -3365,7 +3907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" ht="67.5" spans="1:10">
       <c r="A2" s="10">
         <v>13408411662</v>
       </c>
@@ -3377,16 +3919,16 @@
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3398,16 +3940,16 @@
         <v>28</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" ht="94.5" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3419,16 +3961,16 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" ht="27.95" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3440,22 +3982,22 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="I5" s="10">
         <v>13408411662</v>
       </c>
       <c r="J5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:10">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -3467,19 +4009,19 @@
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -3488,60 +4030,61 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75833333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="17.2583333333333" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="9.5"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
@@ -3549,7 +4092,7 @@
     <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="7:10">
       <c r="G1" t="s">
         <v>39</v>
       </c>
@@ -3557,12 +4100,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="G2">
         <v>186</v>
@@ -3577,12 +4120,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="G3">
         <v>177</v>
@@ -3597,510 +4140,511 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" s="8"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7">
       <c r="G30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7">
       <c r="G32" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7">
       <c r="G58" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="7:7">
       <c r="G59" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7">
       <c r="G60" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7">
       <c r="G61" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7">
       <c r="G62" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7">
       <c r="G63" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75833333333333" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="15.2583333333333" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="9.5"/>
     <col min="7" max="7" width="22.875" customWidth="1"/>
     <col min="9" max="9" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="17.25" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:11">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="K2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -4108,211 +4652,211 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="4">
         <v>17740228031</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="E13" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="E14" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:6">
       <c r="F17" s="6">
         <v>-224359</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:6">
       <c r="F18" s="6">
         <v>-246356</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:6">
       <c r="F19" s="6">
         <v>-269330</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:6">
       <c r="F20" s="6">
         <v>-283323</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:6">
       <c r="F22" s="6">
         <v>-312274</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:6">
       <c r="F25" s="6">
         <v>-304180</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:6">
       <c r="F26" s="6">
         <v>-302171</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:6">
       <c r="F27" s="6">
         <v>-275135</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:6">
       <c r="F28" s="6">
         <v>-271127</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:6">
       <c r="F29" s="6">
         <v>-231104</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14">
       <c r="F33" s="6">
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14">
       <c r="F34" s="6">
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="35" spans="6:15" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14">
       <c r="F35" s="6">
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="36" spans="6:15" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="7:14">
       <c r="G36" s="6">
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="37" spans="6:15" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="7:15">
       <c r="G37" s="6">
         <v>-50173</v>
       </c>
@@ -4323,7 +4867,7 @@
         <v>-289</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="7:15">
       <c r="G38" s="6">
         <v>-41183</v>
       </c>
@@ -4334,7 +4878,7 @@
         <v>-199</v>
       </c>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="7:15">
       <c r="G39" s="6">
         <v>-38225</v>
       </c>
@@ -4345,93 +4889,93 @@
         <v>-177</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="7:14">
       <c r="G40" s="6">
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="7:14">
       <c r="G41" s="6">
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="6:15" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="7:14">
       <c r="G42" s="6">
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="6:15" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="7:14">
       <c r="G43" s="6">
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="N43" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="6:15" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="6:15" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7">
       <c r="G48" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
       <c r="G49" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
       <c r="G50" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7">
       <c r="G51" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7">
       <c r="G52" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7">
       <c r="G53" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.15">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7">
       <c r="G54" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7">
       <c r="G55" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.15">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7">
       <c r="G56" s="8" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="335">
   <si>
     <t>ID</t>
   </si>
@@ -236,13 +236,28 @@
     <t>E</t>
   </si>
   <si>
+    <t>菜地9x</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
+    <t>6x</t>
+  </si>
+  <si>
+    <t>9x</t>
+  </si>
+  <si>
     <t>1w收魔力  5000收马铁  有卖的MMM</t>
   </si>
   <si>
     <t>拼图C3</t>
+  </si>
+  <si>
+    <t>4x:20.00</t>
+  </si>
+  <si>
+    <t>9x菜地</t>
   </si>
   <si>
     <t>已有武器</t>
@@ -2260,10 +2275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2587,6 +2602,9 @@
       <c r="B28" s="33">
         <v>0.541666666666667</v>
       </c>
+      <c r="C28">
+        <v>-306</v>
+      </c>
       <c r="F28" s="20" t="s">
         <v>41</v>
       </c>
@@ -2604,6 +2622,9 @@
       <c r="B29" s="33">
         <v>0.770833333333333</v>
       </c>
+      <c r="C29" s="6">
+        <v>-312</v>
+      </c>
       <c r="F29" s="20" t="s">
         <v>43</v>
       </c>
@@ -2648,9 +2669,18 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="6:12">
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>-267</v>
+      </c>
+      <c r="C32">
+        <v>-327</v>
+      </c>
       <c r="F32" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2663,12 +2693,87 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>-352</v>
+      </c>
+      <c r="C33">
+        <v>-317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>-310</v>
+      </c>
+      <c r="C34">
+        <v>-325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>-340</v>
+      </c>
+      <c r="C49">
+        <v>-305</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>-340</v>
+      </c>
+      <c r="C50">
+        <v>-315</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>-330</v>
+      </c>
+      <c r="C51">
+        <v>-325</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>-370</v>
+      </c>
+      <c r="C52">
+        <v>-325</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53">
+        <v>-365</v>
+      </c>
+      <c r="C53">
+        <v>-330</v>
       </c>
     </row>
   </sheetData>
@@ -2702,31 +2807,31 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2734,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2757,7 +2862,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2786,10 +2891,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2812,10 +2917,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2841,10 +2946,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2870,10 +2975,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2893,25 +2998,25 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>7176</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G11">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K11">
         <v>18</v>
@@ -2919,13 +3024,13 @@
     </row>
     <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K12">
         <v>21</v>
@@ -2933,13 +3038,13 @@
     </row>
     <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G13">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K13">
         <v>13</v>
@@ -2947,13 +3052,13 @@
     </row>
     <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -2985,200 +3090,200 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="7:13">
       <c r="G21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="9:10">
       <c r="I25" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3334,7 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" ht="54" spans="2:15">
@@ -3243,13 +3348,13 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="M3" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="2:13">
@@ -3263,7 +3368,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="M4" s="18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -3277,10 +3382,10 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="M5" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" ht="54" spans="2:13">
@@ -3289,12 +3394,12 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="M6" s="18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -3303,15 +3408,15 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="M7" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -3325,13 +3430,13 @@
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="2:6">
@@ -3351,7 +3456,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -3362,7 +3467,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -3373,12 +3478,12 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="2:6">
@@ -3392,7 +3497,7 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" s="17" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="3:3">
@@ -3405,239 +3510,239 @@
         <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" t="s">
         <v>141</v>
       </c>
-      <c r="C20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" t="s">
-        <v>136</v>
-      </c>
       <c r="J20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="4:12">
       <c r="D24" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="8:12">
       <c r="H25" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>157</v>
-      </c>
       <c r="L25" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="8:12">
       <c r="H26" s="12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J26" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="7:12">
       <c r="G27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="7:12">
       <c r="G28" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="7:12">
       <c r="G29" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="7:12">
       <c r="G30" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H30" t="s">
+        <v>173</v>
+      </c>
+      <c r="J30" t="s">
+        <v>158</v>
+      </c>
+      <c r="L30" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="J30" t="s">
-        <v>153</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="31" spans="7:12">
       <c r="G31" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="7:12">
       <c r="G32" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J32" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="7:12">
       <c r="G33" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L33" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="3:3">
@@ -3647,212 +3752,212 @@
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="8:11">
       <c r="H41" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K41" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H42" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K42" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H43" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K43" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H44" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H45" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K45" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H46" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K46" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H47" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K47" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H48" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K48" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H49" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K49" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="3:11">
       <c r="C50" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H50" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K50" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H51" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="3:8">
       <c r="C52" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H52" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H53" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="C54" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H54" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="C55" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H55" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="C56" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H56" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="3:8">
       <c r="C57" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H57" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H58" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H59" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H60" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="3:8">
       <c r="C61" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H61" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3898,7 +4003,7 @@
         <v>17740228031</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -3919,13 +4024,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:10">
@@ -3940,13 +4045,13 @@
         <v>28</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="94.5" spans="1:10">
@@ -3961,13 +4066,13 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" ht="27.95" customHeight="1" spans="1:10">
@@ -3982,13 +4087,13 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I5" s="10">
         <v>13408411662</v>
       </c>
       <c r="J5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:10">
@@ -3997,7 +4102,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -4009,7 +4114,7 @@
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4018,7 +4123,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4036,7 +4141,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:3">
@@ -4045,7 +4150,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:3">
@@ -4054,7 +4159,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:8">
@@ -4064,7 +4169,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="H13" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4102,10 +4207,10 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G2">
         <v>186</v>
@@ -4122,10 +4227,10 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G3">
         <v>177</v>
@@ -4142,34 +4247,34 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4177,407 +4282,407 @@
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="7:7">
       <c r="G30" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="7:7">
       <c r="G32" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="7:7">
       <c r="G59" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="7:7">
       <c r="G60" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="7:7">
       <c r="G63" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4612,36 +4717,36 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4652,7 +4757,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4660,10 +4765,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4671,10 +4776,10 @@
         <v>17740228031</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4682,10 +4787,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4693,13 +4798,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E13" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
@@ -4710,10 +4815,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E14" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
@@ -4721,7 +4826,7 @@
     </row>
     <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
@@ -4729,7 +4834,7 @@
     </row>
     <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
@@ -4757,7 +4862,7 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
@@ -4770,7 +4875,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
@@ -4778,7 +4883,7 @@
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
@@ -4811,17 +4916,17 @@
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="6:14">
@@ -4829,7 +4934,7 @@
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="6:14">
@@ -4837,7 +4942,7 @@
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="6:14">
@@ -4845,7 +4950,7 @@
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -4853,7 +4958,7 @@
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="7:15">
@@ -4894,7 +4999,7 @@
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -4902,7 +5007,7 @@
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="7:14">
@@ -4910,7 +5015,7 @@
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="7:14">
@@ -4918,60 +5023,60 @@
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N43" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" s="8" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="8" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="8" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" s="8" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" s="8" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" s="8" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="8" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" s="8" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="8" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="340">
   <si>
     <t>ID</t>
   </si>
@@ -159,6 +159,9 @@
     <t>hengxia2006@126.com</t>
   </si>
   <si>
+    <t>、</t>
+  </si>
+  <si>
     <t>多罗悟北
 （木之金）</t>
   </si>
@@ -258,6 +261,18 @@
   </si>
   <si>
     <t>9x菜地</t>
+  </si>
+  <si>
+    <t>独孤静莉</t>
+  </si>
+  <si>
+    <t>少阳</t>
+  </si>
+  <si>
+    <t>地藏</t>
+  </si>
+  <si>
+    <t>长空5</t>
   </si>
   <si>
     <t>已有武器</t>
@@ -2275,10 +2290,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2463,10 +2478,10 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
@@ -2483,7 +2498,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -2497,10 +2512,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -2512,10 +2527,10 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2">
         <v>159</v>
@@ -2527,7 +2542,7 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="17.25" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="3">
         <v>159</v>
@@ -2539,13 +2554,13 @@
     </row>
     <row r="19" s="12" customFormat="1" spans="2:6">
       <c r="B19" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="32"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -2563,7 +2578,7 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2586,7 +2601,7 @@
     </row>
     <row r="27" spans="6:12">
       <c r="F27" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2597,7 +2612,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="33">
         <v>0.541666666666667</v>
@@ -2606,7 +2621,7 @@
         <v>-306</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2617,7 +2632,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="33">
         <v>0.770833333333333</v>
@@ -2626,7 +2641,7 @@
         <v>-312</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2639,13 +2654,13 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="33">
         <v>0.916666666666667</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -2660,7 +2675,7 @@
     </row>
     <row r="31" spans="6:12">
       <c r="F31" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2671,7 +2686,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>-267</v>
@@ -2680,7 +2695,7 @@
         <v>-327</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2695,7 +2710,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>-352</v>
@@ -2706,7 +2721,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>-310</v>
@@ -2717,25 +2732,25 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>-340</v>
@@ -2774,6 +2789,41 @@
       </c>
       <c r="C53">
         <v>-330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>8.23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>8.24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2844,7 @@
   <dimension ref="A2:M50"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2807,31 +2857,31 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2839,7 +2889,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2862,7 +2912,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2891,10 +2941,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2917,10 +2967,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2946,10 +2996,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2975,10 +3025,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2998,25 +3048,25 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>7176</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G11">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K11">
         <v>18</v>
@@ -3024,13 +3074,13 @@
     </row>
     <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K12">
         <v>21</v>
@@ -3038,13 +3088,13 @@
     </row>
     <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G13">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K13">
         <v>13</v>
@@ -3052,13 +3102,13 @@
     </row>
     <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -3090,200 +3140,200 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="7:13">
       <c r="G21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M21" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="9:10">
       <c r="I25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3299,7 +3349,7 @@
   <dimension ref="B1:O62"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5"/>
@@ -3334,7 +3384,7 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" ht="54" spans="2:15">
@@ -3348,13 +3398,13 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="M3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="2:13">
@@ -3368,7 +3418,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="M4" s="18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -3382,10 +3432,10 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="M5" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" ht="54" spans="2:13">
@@ -3394,12 +3444,12 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="M6" s="18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -3408,15 +3458,15 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="M7" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -3430,13 +3480,13 @@
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="2:6">
@@ -3456,7 +3506,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -3467,28 +3517,28 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="11" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
     <row r="12" ht="17.25" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="2:6">
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3497,252 +3547,252 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" s="17" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="3:12">
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" t="s">
         <v>146</v>
       </c>
-      <c r="C20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" t="s">
-        <v>141</v>
-      </c>
       <c r="J20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J21" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="4:12">
       <c r="D24" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="8:12">
       <c r="H25" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="L25" s="12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="8:12">
       <c r="H26" s="12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:12">
       <c r="G27" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J27" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="7:12">
       <c r="G28" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H28" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="7:12">
       <c r="G29" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J29" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="7:12">
       <c r="G30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H30" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="J30" t="s">
-        <v>158</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="7:12">
       <c r="G31" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J31" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="7:12">
       <c r="G32" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J32" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="7:12">
       <c r="G33" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="3:3">
@@ -3752,212 +3802,212 @@
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="8:11">
       <c r="H41" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K41" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H42" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K42" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H43" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H44" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K44" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H45" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H46" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K46" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H47" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K47" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H48" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K48" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H49" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K49" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="3:11">
       <c r="C50" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K50" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H51" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="3:8">
       <c r="C52" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H52" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H53" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="C54" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H54" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="C55" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H55" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="C56" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H56" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="3:8">
       <c r="C57" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H57" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H58" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H59" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H60" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="3:8">
       <c r="C61" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H61" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3972,7 +4022,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75833333333333" defaultRowHeight="13.5"/>
@@ -4003,7 +4053,7 @@
         <v>17740228031</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -4024,13 +4074,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:10">
@@ -4045,13 +4095,13 @@
         <v>28</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="94.5" spans="1:10">
@@ -4066,13 +4116,13 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" ht="27.95" customHeight="1" spans="1:10">
@@ -4084,16 +4134,16 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I5" s="10">
         <v>13408411662</v>
       </c>
       <c r="J5" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:10">
@@ -4102,7 +4152,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -4111,10 +4161,10 @@
         <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4123,7 +4173,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4141,7 +4191,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:3">
@@ -4150,26 +4200,26 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="11" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="H13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4184,7 +4234,7 @@
   <dimension ref="B1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75833333333333" defaultRowHeight="13.5"/>
@@ -4199,18 +4249,18 @@
   <sheetData>
     <row r="1" spans="7:10">
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G2">
         <v>186</v>
@@ -4227,10 +4277,10 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G3">
         <v>177</v>
@@ -4247,34 +4297,34 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4282,407 +4332,407 @@
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="7:7">
       <c r="G30" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="7:7">
       <c r="G32" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="7:7">
       <c r="G59" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="7:7">
       <c r="G60" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="7:7">
       <c r="G63" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4698,7 +4748,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75833333333333" defaultRowHeight="13.5"/>
@@ -4714,39 +4764,39 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4757,7 +4807,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4765,10 +4815,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4776,10 +4826,10 @@
         <v>17740228031</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4787,10 +4837,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4798,13 +4848,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E13" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
@@ -4815,10 +4865,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E14" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
@@ -4826,7 +4876,7 @@
     </row>
     <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
@@ -4834,7 +4884,7 @@
     </row>
     <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
@@ -4862,7 +4912,7 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
@@ -4875,7 +4925,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
@@ -4883,7 +4933,7 @@
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
@@ -4916,17 +4966,17 @@
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="6:14">
@@ -4934,7 +4984,7 @@
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="6:14">
@@ -4942,7 +4992,7 @@
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="6:14">
@@ -4950,7 +5000,7 @@
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -4958,7 +5008,7 @@
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="7:15">
@@ -4999,7 +5049,7 @@
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -5007,7 +5057,7 @@
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="7:14">
@@ -5015,7 +5065,7 @@
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="7:14">
@@ -5023,60 +5073,60 @@
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N43" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" s="8" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="8" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="8" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" s="8" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" s="8" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" s="8" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="8" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" s="8" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="8" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11190"/>
+    <workbookView windowWidth="21240" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="339">
   <si>
     <t>ID</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>hengxia2006@126.com</t>
-  </si>
-  <si>
-    <t>、</t>
   </si>
   <si>
     <t>多罗悟北
@@ -2293,7 +2290,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2478,10 +2475,10 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
@@ -2498,7 +2495,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -2512,10 +2509,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -2527,10 +2524,10 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>35</v>
       </c>
       <c r="E15" s="2">
         <v>159</v>
@@ -2542,7 +2539,7 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="17.25" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3">
         <v>159</v>
@@ -2554,13 +2551,13 @@
     </row>
     <row r="19" s="12" customFormat="1" spans="2:6">
       <c r="B19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="32"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -2578,7 +2575,7 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2601,7 +2598,7 @@
     </row>
     <row r="27" spans="6:12">
       <c r="F27" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2612,7 +2609,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="33">
         <v>0.541666666666667</v>
@@ -2621,7 +2618,7 @@
         <v>-306</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2632,7 +2629,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="33">
         <v>0.770833333333333</v>
@@ -2641,7 +2638,7 @@
         <v>-312</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2654,13 +2651,13 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="33">
         <v>0.916666666666667</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -2675,7 +2672,7 @@
     </row>
     <row r="31" spans="6:12">
       <c r="F31" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2686,7 +2683,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>-267</v>
@@ -2695,7 +2692,7 @@
         <v>-327</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2710,7 +2707,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>-352</v>
@@ -2721,7 +2718,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>-310</v>
@@ -2732,25 +2729,25 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" t="s">
         <v>52</v>
-      </c>
-      <c r="I39" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>-340</v>
@@ -2796,7 +2793,7 @@
         <v>8.23</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -2804,7 +2801,7 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -2812,7 +2809,7 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -2823,7 +2820,7 @@
         <v>8.24</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2857,31 +2854,31 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>66</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2889,7 +2886,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2912,7 +2909,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2941,10 +2938,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2967,10 +2964,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2996,10 +2993,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3025,10 +3022,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3048,25 +3045,25 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>7176</v>
       </c>
       <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
         <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>78</v>
       </c>
       <c r="G11">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11">
         <v>18</v>
@@ -3074,13 +3071,13 @@
     </row>
     <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12">
         <v>21</v>
@@ -3088,13 +3085,13 @@
     </row>
     <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13">
         <v>13</v>
@@ -3102,13 +3099,13 @@
     </row>
     <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -3140,200 +3137,200 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
         <v>85</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>86</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>87</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>88</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>89</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>90</v>
-      </c>
-      <c r="M20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="7:13">
       <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
         <v>92</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
         <v>93</v>
-      </c>
-      <c r="M21" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="9:10">
       <c r="I25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" t="s">
         <v>98</v>
-      </c>
-      <c r="J25" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3384,7 +3381,7 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" ht="54" spans="2:15">
@@ -3398,13 +3395,13 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="M3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="2:13">
@@ -3418,7 +3415,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="M4" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -3432,10 +3429,10 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="M5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" ht="54" spans="2:13">
@@ -3444,12 +3441,12 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="M6" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -3458,15 +3455,15 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="M7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" t="s">
         <v>137</v>
-      </c>
-      <c r="N7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -3480,13 +3477,13 @@
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N8" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" t="s">
         <v>139</v>
-      </c>
-      <c r="O8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="2:6">
@@ -3506,7 +3503,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -3517,28 +3514,28 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
     <row r="12" ht="17.25" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="2:6">
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3547,252 +3544,252 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="3:12">
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
         <v>147</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>148</v>
       </c>
-      <c r="D19" t="s">
+      <c r="H19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="H19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" t="s">
         <v>151</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>152</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="H20" t="s">
-        <v>146</v>
-      </c>
-      <c r="J20" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
         <v>155</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>156</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
         <v>157</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="J21" t="s">
-        <v>158</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
         <v>160</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D22" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="12" t="s">
+      <c r="J22" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" t="s">
         <v>164</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>165</v>
       </c>
-      <c r="D23" t="s">
+      <c r="H23" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="J23" t="s">
         <v>167</v>
       </c>
-      <c r="J23" t="s">
-        <v>168</v>
-      </c>
       <c r="L23" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="4:12">
       <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" t="s">
         <v>169</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>171</v>
-      </c>
       <c r="L24" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="8:12">
       <c r="H25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J25" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="8:12">
       <c r="H26" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="7:12">
       <c r="G27" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="H27" t="s">
-        <v>159</v>
-      </c>
-      <c r="J27" t="s">
-        <v>172</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="28" spans="7:12">
       <c r="G28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="7:12">
       <c r="G29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H29" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="J29" t="s">
-        <v>159</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="7:12">
       <c r="G30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="7:12">
       <c r="G31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="7:12">
       <c r="G32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="7:12">
       <c r="G33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="3:3">
@@ -3802,212 +3799,212 @@
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="8:11">
       <c r="H41" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" t="s">
         <v>181</v>
-      </c>
-      <c r="K41" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H42" t="s">
+        <v>182</v>
+      </c>
+      <c r="K42" t="s">
         <v>183</v>
-      </c>
-      <c r="K42" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H43" t="s">
+        <v>184</v>
+      </c>
+      <c r="K43" t="s">
         <v>185</v>
-      </c>
-      <c r="K43" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H44" t="s">
+        <v>186</v>
+      </c>
+      <c r="K44" t="s">
         <v>187</v>
-      </c>
-      <c r="K44" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H45" t="s">
+        <v>188</v>
+      </c>
+      <c r="K45" t="s">
         <v>189</v>
-      </c>
-      <c r="K45" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K46" t="s">
         <v>191</v>
-      </c>
-      <c r="K46" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H47" t="s">
+        <v>192</v>
+      </c>
+      <c r="K47" t="s">
         <v>193</v>
-      </c>
-      <c r="K47" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H48" t="s">
+        <v>194</v>
+      </c>
+      <c r="K48" t="s">
         <v>195</v>
-      </c>
-      <c r="K48" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H49" t="s">
+        <v>196</v>
+      </c>
+      <c r="K49" t="s">
         <v>197</v>
-      </c>
-      <c r="K49" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="50" spans="3:11">
       <c r="C50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H50" t="s">
+        <v>198</v>
+      </c>
+      <c r="K50" t="s">
         <v>199</v>
-      </c>
-      <c r="K50" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="3:8">
       <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="H52" t="s">
         <v>201</v>
-      </c>
-      <c r="H52" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" t="s">
+        <v>201</v>
+      </c>
+      <c r="H53" t="s">
         <v>202</v>
-      </c>
-      <c r="H53" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="H54" t="s">
         <v>203</v>
-      </c>
-      <c r="H54" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="C55" t="s">
+        <v>203</v>
+      </c>
+      <c r="H55" t="s">
         <v>204</v>
-      </c>
-      <c r="H55" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="C56" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" t="s">
         <v>205</v>
-      </c>
-      <c r="H56" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="57" spans="3:8">
       <c r="C57" t="s">
+        <v>205</v>
+      </c>
+      <c r="H57" t="s">
         <v>206</v>
-      </c>
-      <c r="H57" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" t="s">
+        <v>206</v>
+      </c>
+      <c r="H58" t="s">
         <v>207</v>
-      </c>
-      <c r="H58" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" t="s">
+        <v>207</v>
+      </c>
+      <c r="H59" t="s">
         <v>208</v>
-      </c>
-      <c r="H59" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" t="s">
+        <v>208</v>
+      </c>
+      <c r="H60" t="s">
         <v>209</v>
-      </c>
-      <c r="H60" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="61" spans="3:8">
       <c r="C61" t="s">
+        <v>209</v>
+      </c>
+      <c r="H61" t="s">
         <v>210</v>
-      </c>
-      <c r="H61" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4053,7 +4050,7 @@
         <v>17740228031</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -4074,13 +4071,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:10">
@@ -4095,13 +4092,13 @@
         <v>28</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" ht="94.5" spans="1:10">
@@ -4116,13 +4113,13 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" ht="27.95" customHeight="1" spans="1:10">
@@ -4134,16 +4131,16 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I5" s="10">
         <v>13408411662</v>
       </c>
       <c r="J5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:10">
@@ -4152,7 +4149,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -4161,10 +4158,10 @@
         <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4173,7 +4170,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4191,7 +4188,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:3">
@@ -4200,26 +4197,26 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="H13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4249,18 +4246,18 @@
   <sheetData>
     <row r="1" spans="7:10">
       <c r="G1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
         <v>220</v>
-      </c>
-      <c r="D2" t="s">
-        <v>221</v>
       </c>
       <c r="G2">
         <v>186</v>
@@ -4277,10 +4274,10 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" t="s">
         <v>222</v>
-      </c>
-      <c r="D3" t="s">
-        <v>223</v>
       </c>
       <c r="G3">
         <v>177</v>
@@ -4297,34 +4294,34 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
         <v>224</v>
-      </c>
-      <c r="D4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
         <v>226</v>
-      </c>
-      <c r="D5" t="s">
-        <v>227</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -4332,407 +4329,407 @@
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="7:7">
       <c r="G30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="7:7">
       <c r="G32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="7:7">
       <c r="G59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="7:7">
       <c r="G60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="7:7">
       <c r="G63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4764,39 +4761,39 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" t="s">
         <v>310</v>
       </c>
-      <c r="B2" t="s">
-        <v>311</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4807,7 +4804,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4815,10 +4812,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4826,10 +4823,10 @@
         <v>17740228031</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4837,10 +4834,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4848,13 +4845,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" t="s">
         <v>313</v>
-      </c>
-      <c r="C13" t="s">
-        <v>311</v>
-      </c>
-      <c r="E13" t="s">
-        <v>314</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
@@ -4865,10 +4862,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
@@ -4876,7 +4873,7 @@
     </row>
     <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
@@ -4884,7 +4881,7 @@
     </row>
     <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
@@ -4912,7 +4909,7 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
@@ -4925,7 +4922,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
@@ -4933,7 +4930,7 @@
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
@@ -4966,17 +4963,17 @@
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="6:14">
@@ -4984,7 +4981,7 @@
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="6:14">
@@ -4992,7 +4989,7 @@
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="6:14">
@@ -5000,7 +4997,7 @@
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -5008,7 +5005,7 @@
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="7:15">
@@ -5049,7 +5046,7 @@
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -5057,7 +5054,7 @@
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="7:14">
@@ -5065,7 +5062,7 @@
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="7:14">
@@ -5073,60 +5070,60 @@
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
+        <v>327</v>
+      </c>
+      <c r="N43" t="s">
         <v>328</v>
-      </c>
-      <c r="N43" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -4,22 +4,35 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="8里夜活动" sheetId="2" r:id="rId2"/>
+    <sheet name="天天任务" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="嘉年华" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="372">
   <si>
     <t>ID</t>
   </si>
@@ -48,7 +61,7 @@
     <t>剑</t>
   </si>
   <si>
-    <t>独孤图昂
+    <t>独孤图昂（香水）
 独孤涪陵（旅游卷//声望材料）</t>
   </si>
   <si>
@@ -206,6 +219,9 @@
     <t>Haolie2006</t>
   </si>
   <si>
+    <t>Haolie2023</t>
+  </si>
+  <si>
     <t>0716ma</t>
   </si>
   <si>
@@ -489,6 +505,16 @@
   </si>
   <si>
     <t>果皮蔗</t>
+  </si>
+  <si>
+    <t>天天跟我做  4539</t>
+  </si>
+  <si>
+    <t>还蛮人</t>
+  </si>
+  <si>
+    <t>独孤图昂
+独孤涪陵（旅游卷//声望材料）</t>
   </si>
   <si>
     <t>男法</t>
@@ -755,6 +781,291 @@
     <t>66  -105</t>
   </si>
   <si>
+    <t>狂·</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>星屑</t>
+  </si>
+  <si>
+    <t>魂晶</t>
+  </si>
+  <si>
+    <t>镜片</t>
+  </si>
+  <si>
+    <t>香水</t>
+  </si>
+  <si>
+    <t>龙皮</t>
+  </si>
+  <si>
+    <t>复生</t>
+  </si>
+  <si>
+    <t>暗晶坐骑</t>
+  </si>
+  <si>
+    <t>神圣升级石</t>
+  </si>
+  <si>
+    <t>丝</t>
+  </si>
+  <si>
+    <t>宝鉴</t>
+  </si>
+  <si>
+    <t>真气</t>
+  </si>
+  <si>
+    <t>暗黑</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>千年</t>
+  </si>
+  <si>
+    <t>声明</t>
+  </si>
+  <si>
+    <t>天香</t>
+  </si>
+  <si>
+    <t>防疫</t>
+  </si>
+  <si>
+    <t>冰晶石</t>
+  </si>
+  <si>
+    <t>赤松</t>
+  </si>
+  <si>
+    <t>古兽利牙</t>
+  </si>
+  <si>
+    <t>命中</t>
+  </si>
+  <si>
+    <t>黄玉</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>大周天</t>
+  </si>
+  <si>
+    <t>转换符</t>
+  </si>
+  <si>
+    <t>巨神靴</t>
+  </si>
+  <si>
+    <t>毘卢帽</t>
+  </si>
+  <si>
+    <t>天王履</t>
+  </si>
+  <si>
+    <t>蚩尤盔</t>
+  </si>
+  <si>
+    <t>至善鞋</t>
+  </si>
+  <si>
+    <t>尼山巾</t>
+  </si>
+  <si>
+    <t>大罗冠</t>
+  </si>
+  <si>
+    <t>世尊鞋</t>
+  </si>
+  <si>
+    <t>蚩尤铠</t>
+  </si>
+  <si>
+    <t>刑天战甲</t>
+  </si>
+  <si>
+    <t>凤凰羽衣</t>
+  </si>
+  <si>
+    <t>龙纹战袍</t>
+  </si>
+  <si>
+    <t>陌露刀</t>
+  </si>
+  <si>
+    <t>屠神剑</t>
+  </si>
+  <si>
+    <t>凤凝刀</t>
+  </si>
+  <si>
+    <t>霸王戟</t>
+  </si>
+  <si>
+    <t>天龙护手</t>
+  </si>
+  <si>
+    <t>太昊之杖</t>
+  </si>
+  <si>
+    <t>飞龙杖</t>
+  </si>
+  <si>
+    <t>盘古幡</t>
+  </si>
+  <si>
+    <t>七星饮血珠</t>
+  </si>
+  <si>
+    <t>龙鳞匕</t>
+  </si>
+  <si>
+    <t>苍玄刀</t>
+  </si>
+  <si>
+    <t>噬血诸神幡</t>
+  </si>
+  <si>
+    <t>怒吼狂龙护手</t>
+  </si>
+  <si>
+    <t>湛卢</t>
+  </si>
+  <si>
+    <t>赤霄</t>
+  </si>
+  <si>
+    <t>五色乱魂珠</t>
+  </si>
+  <si>
+    <t>凤舞龙吟刀</t>
+  </si>
+  <si>
+    <t>破灭轮回</t>
+  </si>
+  <si>
+    <t>佛光之轮</t>
+  </si>
+  <si>
+    <t>扬文匕</t>
+  </si>
+  <si>
+    <t>纯均</t>
+  </si>
+  <si>
+    <t>吸血骷髅护手</t>
+  </si>
+  <si>
+    <t>皓月银光戟</t>
+  </si>
+  <si>
+    <t>醉魂爪</t>
+  </si>
+  <si>
+    <t>叠山如来杖</t>
+  </si>
+  <si>
+    <t>灭魂</t>
+  </si>
+  <si>
+    <t>飞龙旋天戟</t>
+  </si>
+  <si>
+    <t>魂幽鬼泣斧</t>
+  </si>
+  <si>
+    <t>奔厉索魄刃</t>
+  </si>
+  <si>
+    <t>烟络幽恨爪</t>
+  </si>
+  <si>
+    <t>悯农之镰</t>
+  </si>
+  <si>
+    <t>耀芒之杖</t>
+  </si>
+  <si>
+    <t>御天达摩杖</t>
+  </si>
+  <si>
+    <t>蔽日墨龙斧</t>
+  </si>
+  <si>
+    <t>冥灭之杖</t>
+  </si>
+  <si>
+    <t>凝魄血云幡</t>
+  </si>
+  <si>
+    <t>完美</t>
+  </si>
+  <si>
+    <t>神通符</t>
+  </si>
+  <si>
+    <t>无双符</t>
+  </si>
+  <si>
+    <t>至尊符</t>
+  </si>
+  <si>
+    <t>梦境乾坤符</t>
+  </si>
+  <si>
+    <t>梦境天运符</t>
+  </si>
+  <si>
+    <t>梦境地灵符</t>
+  </si>
+  <si>
+    <t>筑基石</t>
+  </si>
+  <si>
+    <t>心动石</t>
+  </si>
+  <si>
+    <t>破境石</t>
+  </si>
+  <si>
+    <t>空冥石</t>
+  </si>
+  <si>
+    <t>百劫石</t>
+  </si>
+  <si>
+    <t>洞明石</t>
+  </si>
+  <si>
+    <t>神回石</t>
+  </si>
+  <si>
+    <t>寂灭石</t>
+  </si>
+  <si>
+    <t>玄域石</t>
+  </si>
+  <si>
+    <t>混沌石</t>
+  </si>
+  <si>
+    <t>风鳞片</t>
+  </si>
+  <si>
+    <t>土鳞片</t>
+  </si>
+  <si>
+    <t>火鳞片</t>
+  </si>
+  <si>
     <t>修罗督军</t>
   </si>
   <si>
@@ -788,13 +1099,31 @@
     <t xml:space="preserve">BUFFSun=1,  </t>
   </si>
   <si>
-    <t>狂·</t>
-  </si>
-  <si>
-    <t>天香</t>
-  </si>
-  <si>
-    <t>攻击</t>
+    <t>羽</t>
+  </si>
+  <si>
+    <t>弓</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>烟斗</t>
+  </si>
+  <si>
+    <t>黄头巾</t>
+  </si>
+  <si>
+    <t>驿</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>船</t>
+  </si>
+  <si>
+    <t>士</t>
   </si>
   <si>
     <t>矿</t>
@@ -803,223 +1132,7 @@
     <t>之皮</t>
   </si>
   <si>
-    <t>龙皮</t>
-  </si>
-  <si>
-    <t>冰晶石</t>
-  </si>
-  <si>
-    <t>古兽利牙</t>
-  </si>
-  <si>
-    <t>黄玉</t>
-  </si>
-  <si>
-    <t>千年</t>
-  </si>
-  <si>
-    <t>巨神靴</t>
-  </si>
-  <si>
-    <t>毘卢帽</t>
-  </si>
-  <si>
-    <t>天王履</t>
-  </si>
-  <si>
-    <t>蚩尤盔</t>
-  </si>
-  <si>
-    <t>至善鞋</t>
-  </si>
-  <si>
-    <t>尼山巾</t>
-  </si>
-  <si>
-    <t>大罗冠</t>
-  </si>
-  <si>
-    <t>世尊鞋</t>
-  </si>
-  <si>
-    <t>蚩尤铠</t>
-  </si>
-  <si>
-    <t>刑天战甲</t>
-  </si>
-  <si>
-    <t>凤凰羽衣</t>
-  </si>
-  <si>
-    <t>龙纹战袍</t>
-  </si>
-  <si>
-    <t>陌露刀</t>
-  </si>
-  <si>
-    <t>屠神剑</t>
-  </si>
-  <si>
-    <t>凤凝刀</t>
-  </si>
-  <si>
-    <t>霸王戟</t>
-  </si>
-  <si>
-    <t>天龙护手</t>
-  </si>
-  <si>
-    <t>太昊之杖</t>
-  </si>
-  <si>
-    <t>飞龙杖</t>
-  </si>
-  <si>
-    <t>盘古幡</t>
-  </si>
-  <si>
-    <t>七星饮血珠</t>
-  </si>
-  <si>
-    <t>龙鳞匕</t>
-  </si>
-  <si>
-    <t>苍玄刀</t>
-  </si>
-  <si>
-    <t>噬血诸神幡</t>
-  </si>
-  <si>
-    <t>怒吼狂龙护手</t>
-  </si>
-  <si>
-    <t>湛卢</t>
-  </si>
-  <si>
-    <t>赤霄</t>
-  </si>
-  <si>
-    <t>五色乱魂珠</t>
-  </si>
-  <si>
-    <t>凤舞龙吟刀</t>
-  </si>
-  <si>
-    <t>破灭轮回</t>
-  </si>
-  <si>
-    <t>佛光之轮</t>
-  </si>
-  <si>
-    <t>扬文匕</t>
-  </si>
-  <si>
-    <t>纯均</t>
-  </si>
-  <si>
-    <t>吸血骷髅护手</t>
-  </si>
-  <si>
-    <t>皓月银光戟</t>
-  </si>
-  <si>
-    <t>醉魂爪</t>
-  </si>
-  <si>
-    <t>叠山如来杖</t>
-  </si>
-  <si>
-    <t>灭魂</t>
-  </si>
-  <si>
-    <t>飞龙旋天戟</t>
-  </si>
-  <si>
-    <t>魂幽鬼泣斧</t>
-  </si>
-  <si>
-    <t>奔厉索魄刃</t>
-  </si>
-  <si>
-    <t>烟络幽恨爪</t>
-  </si>
-  <si>
-    <t>悯农之镰</t>
-  </si>
-  <si>
-    <t>耀芒之杖</t>
-  </si>
-  <si>
-    <t>御天达摩杖</t>
-  </si>
-  <si>
-    <t>蔽日墨龙斧</t>
-  </si>
-  <si>
-    <t>冥灭之杖</t>
-  </si>
-  <si>
-    <t>凝魄血云幡</t>
-  </si>
-  <si>
     <t>完美精炼石</t>
-  </si>
-  <si>
-    <t>神通符</t>
-  </si>
-  <si>
-    <t>无双符</t>
-  </si>
-  <si>
-    <t>至尊符</t>
-  </si>
-  <si>
-    <t>梦境乾坤符</t>
-  </si>
-  <si>
-    <t>梦境天运符</t>
-  </si>
-  <si>
-    <t>梦境地灵符</t>
-  </si>
-  <si>
-    <t>筑基石</t>
-  </si>
-  <si>
-    <t>心动石</t>
-  </si>
-  <si>
-    <t>破境石</t>
-  </si>
-  <si>
-    <t>空冥石</t>
-  </si>
-  <si>
-    <t>百劫石</t>
-  </si>
-  <si>
-    <t>洞明石</t>
-  </si>
-  <si>
-    <t>神回石</t>
-  </si>
-  <si>
-    <t>寂灭石</t>
-  </si>
-  <si>
-    <t>玄域石</t>
-  </si>
-  <si>
-    <t>混沌石</t>
-  </si>
-  <si>
-    <t>风鳞片</t>
-  </si>
-  <si>
-    <t>土鳞片</t>
-  </si>
-  <si>
-    <t>火鳞片</t>
   </si>
   <si>
     <t>女</t>
@@ -1118,14 +1231,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1142,6 +1255,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1184,47 +1305,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1264,6 +1349,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1314,7 +1414,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1347,55 +1468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,31 +1492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,6 +1528,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1473,7 +1552,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,7 +1600,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,6 +1631,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,21 +1711,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1633,6 +1739,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1691,152 +1812,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1864,6 +1985,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1876,34 +2000,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1912,6 +2036,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1921,13 +2051,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1942,52 +2072,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2289,8 +2419,8 @@
   <sheetPr/>
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2300,27 +2430,27 @@
     <col min="3" max="3" width="29.875" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="31.2583333333333" style="20" customWidth="1"/>
+    <col min="6" max="6" width="31.2583333333333" style="21" customWidth="1"/>
     <col min="7" max="7" width="10.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="20" customFormat="1" spans="1:6">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2337,13 +2467,13 @@
       <c r="E2" s="3">
         <v>13408411662</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="27" spans="1:6">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>13408411662</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2352,13 +2482,13 @@
       <c r="E3" s="2">
         <v>13408411662</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="38.1" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2367,26 +2497,26 @@
       <c r="E4" s="2">
         <v>13408411662</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="54" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2395,22 +2525,22 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="54" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2418,14 +2548,14 @@
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="28" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2439,8 +2569,8 @@
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2452,49 +2582,49 @@
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="29">
         <v>17740228031</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="30">
         <v>17740228031</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="29"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="27" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="29">
         <v>17740228031</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="40.5" spans="1:6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2503,7 +2633,7 @@
       <c r="E13" s="2">
         <v>17740228031</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2511,7 +2641,7 @@
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="28" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2520,22 +2650,22 @@
       <c r="E14" s="2">
         <v>17740228031</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="17.25" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="2">
         <v>159</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="6:6">
-      <c r="F16" s="23"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="17.25" spans="1:6">
       <c r="A17" s="1" t="s">
@@ -2544,20 +2674,23 @@
       <c r="E17" s="3">
         <v>159</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" s="3" customFormat="1" spans="6:6">
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" s="12" customFormat="1" spans="2:6">
-      <c r="B19" s="12" t="s">
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" s="13" customFormat="1" spans="2:6">
+      <c r="B19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="C19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -2575,7 +2708,7 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2597,8 +2730,8 @@
       </c>
     </row>
     <row r="27" spans="6:12">
-      <c r="F27" s="20" t="s">
-        <v>39</v>
+      <c r="F27" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2609,16 +2742,16 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="33">
+        <v>41</v>
+      </c>
+      <c r="B28" s="36">
         <v>0.541666666666667</v>
       </c>
       <c r="C28">
         <v>-306</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>41</v>
+      <c r="F28" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2629,16 +2762,16 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="33">
+        <v>43</v>
+      </c>
+      <c r="B29" s="36">
         <v>0.770833333333333</v>
       </c>
       <c r="C29" s="6">
         <v>-312</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>43</v>
+      <c r="F29" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2651,13 +2784,13 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="33">
+        <v>45</v>
+      </c>
+      <c r="B30" s="36">
         <v>0.916666666666667</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>45</v>
+      <c r="F30" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
@@ -2671,8 +2804,8 @@
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="6:12">
-      <c r="F31" s="20" t="s">
-        <v>46</v>
+      <c r="F31" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2683,7 +2816,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>-267</v>
@@ -2691,8 +2824,8 @@
       <c r="C32">
         <v>-327</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>48</v>
+      <c r="F32" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2707,7 +2840,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>-352</v>
@@ -2718,7 +2851,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>-310</v>
@@ -2729,25 +2862,25 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>-340</v>
@@ -2793,7 +2926,7 @@
         <v>8.23</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -2801,7 +2934,7 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -2809,7 +2942,7 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -2820,7 +2953,7 @@
         <v>8.24</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2828,6 +2961,12 @@
     <hyperlink ref="F8" r:id="rId1" display="haolie2006@163.com"/>
     <hyperlink ref="F12" r:id="rId1" display="haolie2006@163.com"/>
     <hyperlink ref="F13" r:id="rId2" display="hengxia2006@126.com" tooltip="mailto:hengxia2006@126.com"/>
+    <hyperlink ref="A12" r:id="rId1" display="haolie2006@163.com"/>
+    <hyperlink ref="A7" r:id="rId3" display="l359838334@163.com"/>
+    <hyperlink ref="A13" r:id="rId2" display="hengxia2006@126.com" tooltip="mailto:hengxia2006@126.com"/>
+    <hyperlink ref="A4" r:id="rId4" display="359838334@qq.com" tooltip="mailto:359838334@qq.com"/>
+    <hyperlink ref="A5" r:id="rId5" display="526505263@qq.com" tooltip="mailto:526505263@qq.com"/>
+    <hyperlink ref="A6" r:id="rId6" display="moontearangle@163.com" tooltip="mailto:moontearangle@163.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2838,15 +2977,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M50"/>
+  <dimension ref="A2:M52"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
@@ -2854,31 +2993,31 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2886,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2909,7 +3048,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2938,10 +3077,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2964,10 +3103,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2993,10 +3132,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3022,10 +3161,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3045,25 +3184,25 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>7176</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11">
         <v>17</v>
       </c>
       <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
         <v>78</v>
-      </c>
-      <c r="J11" t="s">
-        <v>77</v>
       </c>
       <c r="K11">
         <v>18</v>
@@ -3071,13 +3210,13 @@
     </row>
     <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12">
         <v>21</v>
@@ -3085,13 +3224,13 @@
     </row>
     <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13">
         <v>13</v>
@@ -3099,13 +3238,13 @@
     </row>
     <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -3137,200 +3276,208 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="7:13">
       <c r="G21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="9:10">
       <c r="I25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3346,13 +3493,13 @@
   <dimension ref="B1:O62"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="5" max="6" width="9.875" style="12"/>
+    <col min="5" max="6" width="9.875" style="13"/>
     <col min="11" max="11" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3364,24 +3511,24 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" ht="67.5" spans="2:14">
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>13408411662</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" ht="54" spans="2:15">
@@ -3389,19 +3536,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="M3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="2:13">
@@ -3409,13 +3556,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="M4" s="18" t="s">
-        <v>68</v>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="M4" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -3426,13 +3573,13 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="M5" s="11" t="s">
-        <v>73</v>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="M5" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="N5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" ht="54" spans="2:13">
@@ -3440,13 +3587,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="M6" s="18" t="s">
-        <v>71</v>
+      <c r="D6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="M6" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -3455,15 +3602,15 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="M7" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -3474,16 +3621,16 @@
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="2:6">
@@ -3491,11 +3638,11 @@
         <v>17740228031</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="5" t="s">
@@ -3503,34 +3650,34 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+        <v>144</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" ht="54" spans="2:6">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="D11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" ht="17.25" spans="2:10">
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="2:6">
@@ -3539,257 +3686,257 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="17" t="s">
-        <v>143</v>
+      <c r="E15" s="18" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="3:12">
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" t="s">
         <v>148</v>
       </c>
-      <c r="H19" t="s">
-        <v>144</v>
-      </c>
       <c r="J19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J20" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J21" t="s">
-        <v>157</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" t="s">
         <v>160</v>
       </c>
-      <c r="D22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>162</v>
+      <c r="H22" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="J23" t="s">
-        <v>167</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>157</v>
+        <v>171</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="4:12">
       <c r="D24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H24" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>161</v>
+        <v>173</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="8:12">
       <c r="H25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="26" spans="8:12">
-      <c r="H26" s="12" t="s">
-        <v>172</v>
+      <c r="H26" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="J26" t="s">
-        <v>169</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>169</v>
+        <v>173</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="7:12">
       <c r="G27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J27" t="s">
-        <v>171</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="7:12">
       <c r="G28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>162</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="7:12">
       <c r="G29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J29" t="s">
-        <v>158</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>176</v>
+        <v>162</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="7:12">
       <c r="G30" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J30" t="s">
-        <v>162</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="7:12">
       <c r="G31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J31" t="s">
-        <v>175</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>166</v>
+        <v>179</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="7:12">
       <c r="G32" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J32" t="s">
-        <v>177</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="7:12">
       <c r="G33" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="3:3">
@@ -3799,212 +3946,212 @@
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="8:11">
       <c r="H41" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K42" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K43" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H44" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K44" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H45" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K45" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K46" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H47" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K47" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H48" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K48" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H49" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K49" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="3:11">
       <c r="C50" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H50" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K50" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H51" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="3:8">
       <c r="C52" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H52" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H53" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="C54" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H54" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="C55" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H55" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="C56" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H56" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="3:8">
       <c r="C57" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H58" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H59" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H60" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="3:8">
       <c r="C61" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H61" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4016,10 +4163,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75833333333333" defaultRowHeight="13.5"/>
@@ -4049,8 +4196,8 @@
       <c r="F1" s="4">
         <v>17740228031</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>73</v>
+      <c r="G1" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -4060,24 +4207,24 @@
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:10">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>13408411662</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="11" t="s">
-        <v>9</v>
+      <c r="C2" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>212</v>
+      <c r="G2" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:10">
@@ -4085,20 +4232,20 @@
         <v>10</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>71</v>
+      <c r="G3" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="94.5" spans="1:10">
@@ -4106,20 +4253,20 @@
         <v>13</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" ht="27.95" customHeight="1" spans="1:10">
@@ -4134,13 +4281,13 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I5" s="10">
+        <v>219</v>
+      </c>
+      <c r="I5" s="11">
         <v>13408411662</v>
       </c>
       <c r="J5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:10">
@@ -4148,8 +4295,8 @@
         <v>18</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="11" t="s">
-        <v>135</v>
+      <c r="C6" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -4161,7 +4308,7 @@
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4170,7 +4317,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4188,7 +4335,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:3">
@@ -4196,8 +4343,8 @@
         <v>28</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="11" t="s">
-        <v>141</v>
+      <c r="C11" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:3">
@@ -4205,8 +4352,8 @@
         <v>31</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="11" t="s">
-        <v>136</v>
+      <c r="C12" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:8">
@@ -4216,7 +4363,470 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="H13" t="s">
-        <v>218</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4228,10 +4838,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K99"/>
+  <dimension ref="B1:R99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M4" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75833333333333" defaultRowHeight="13.5"/>
@@ -4246,18 +4856,18 @@
   <sheetData>
     <row r="1" spans="7:10">
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>319</v>
       </c>
       <c r="G2">
         <v>186</v>
@@ -4274,10 +4884,10 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>221</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="G3">
         <v>177</v>
@@ -4294,442 +4904,506 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>227</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>228</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
       <c r="B10" s="8"/>
+      <c r="O10" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="15:18">
+      <c r="O11" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="15:18">
+      <c r="O12" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="16" spans="15:18">
+      <c r="O16" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="15:18">
+      <c r="O17" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="15:18">
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>233</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>234</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="7:7">
       <c r="G30" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="7:7">
       <c r="G32" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="7:7">
       <c r="G59" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="7:7">
       <c r="G60" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="7:7">
       <c r="G63" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4745,7 +5419,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75833333333333" defaultRowHeight="13.5"/>
@@ -4764,36 +5438,36 @@
         <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4804,7 +5478,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4812,10 +5486,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4823,10 +5497,10 @@
         <v>17740228031</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4834,10 +5508,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="C10" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4845,13 +5519,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="E13" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="F13" s="6">
         <v>-119355</v>
@@ -4862,10 +5536,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="E14" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="F14" s="6">
         <v>-134370</v>
@@ -4873,7 +5547,7 @@
     </row>
     <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="F15" s="6">
         <v>-172368</v>
@@ -4881,7 +5555,7 @@
     </row>
     <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="F16" s="6">
         <v>-188371</v>
@@ -4909,7 +5583,7 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="F21" s="6">
         <v>-301285</v>
@@ -4922,7 +5596,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="F23" s="6">
         <v>-313236</v>
@@ -4930,7 +5604,7 @@
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="F24" s="6">
         <v>-315226</v>
@@ -4963,17 +5637,17 @@
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="6:14">
@@ -4981,7 +5655,7 @@
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="6:14">
@@ -4989,7 +5663,7 @@
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="6:14">
@@ -4997,7 +5671,7 @@
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -5005,7 +5679,7 @@
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="7:15">
@@ -5046,7 +5720,7 @@
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -5054,7 +5728,7 @@
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="7:14">
@@ -5062,7 +5736,7 @@
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="7:14">
@@ -5070,60 +5744,60 @@
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="N43" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" s="8" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" s="8" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" s="8" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" s="8" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" s="8" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" s="8" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" s="8" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" s="8" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" s="8" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/wlwz0821.xlsx
+++ b/wlwz0821.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="嘉年华" sheetId="6" r:id="rId6"/>
+    <sheet name="装备" sheetId="7" r:id="rId7"/>
+    <sheet name="菜地" sheetId="8" r:id="rId8"/>
+    <sheet name="周游" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="430">
   <si>
     <t>ID</t>
   </si>
@@ -165,8 +168,14 @@
     <t>轻木，铜，麻布</t>
   </si>
   <si>
+    <t>屠夫的泪</t>
+  </si>
+  <si>
     <t>少阳一缺
 彻天不杨（拼图）</t>
+  </si>
+  <si>
+    <t>少阳两缺</t>
   </si>
   <si>
     <t>hengxia2006@126.com</t>
@@ -225,6 +234,9 @@
     <t>0716ma</t>
   </si>
   <si>
+    <t>经典专区-修罗怒</t>
+  </si>
+  <si>
     <t>375C 送江</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
   </si>
   <si>
     <t>拼图C3</t>
+  </si>
+  <si>
+    <t>在做羽化任务时被封，提示疑似工作室行为，本人不是工作室，未使用外挂</t>
   </si>
   <si>
     <t>4x:20.00</t>
@@ -1144,6 +1159,57 @@
     <t>男</t>
   </si>
   <si>
+    <t>开宝箱</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>飞鹰</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>狐狸</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>飞天</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>男女</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>逍遥游</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
     <t>炜野舂修</t>
   </si>
   <si>
@@ -1226,6 +1292,117 @@
   </si>
   <si>
     <t>不错的YY神石</t>
+  </si>
+  <si>
+    <t>头</t>
+  </si>
+  <si>
+    <t>衣</t>
+  </si>
+  <si>
+    <t>鞋</t>
+  </si>
+  <si>
+    <t>100丹</t>
+  </si>
+  <si>
+    <t>紫125</t>
+  </si>
+  <si>
+    <t>105丹</t>
+  </si>
+  <si>
+    <t>紫130</t>
+  </si>
+  <si>
+    <t>110丹</t>
+  </si>
+  <si>
+    <t>紫135</t>
+  </si>
+  <si>
+    <t>115丹</t>
+  </si>
+  <si>
+    <t>120丹</t>
+  </si>
+  <si>
+    <t>125丹</t>
+  </si>
+  <si>
+    <t>130丹</t>
+  </si>
+  <si>
+    <t>135丹</t>
+  </si>
+  <si>
+    <t>孛儿只斤不丹</t>
+  </si>
+  <si>
+    <t>二线</t>
+  </si>
+  <si>
+    <t>-275,-311</t>
+  </si>
+  <si>
+    <t>2024-11-02 4</t>
+  </si>
+  <si>
+    <t>2024-11-02 20</t>
+  </si>
+  <si>
+    <t>2024-11-02 9.30</t>
+  </si>
+  <si>
+    <t>咸</t>
+  </si>
+  <si>
+    <t>龙珠</t>
+  </si>
+  <si>
+    <t>重楼</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>日莲</t>
+  </si>
+  <si>
+    <t>酸</t>
+  </si>
+  <si>
+    <t>红果树</t>
+  </si>
+  <si>
+    <t>沙梨</t>
+  </si>
+  <si>
+    <t>青叶麦</t>
+  </si>
+  <si>
+    <t>金弓果</t>
+  </si>
+  <si>
+    <t>云香金环</t>
+  </si>
+  <si>
+    <t>玛瑙阴珠</t>
+  </si>
+  <si>
+    <t>周四</t>
+  </si>
+  <si>
+    <t>杞人乙的杂念</t>
+  </si>
+  <si>
+    <t>杞人丁的杂念</t>
+  </si>
+  <si>
+    <t>49CA</t>
+  </si>
+  <si>
+    <t>点金换金</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1415,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,6 +1480,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1441,12 +1624,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1456,13 +1651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,12 +1801,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1653,7 +1842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1707,6 +1896,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFEAEAEA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFEAEAEA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1830,73 +2034,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1905,10 +2103,10 @@
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1917,10 +2115,10 @@
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1929,48 +2127,66 @@
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1988,86 +2204,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2419,8 +2638,8 @@
   <sheetPr/>
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2430,271 +2649,280 @@
     <col min="3" max="3" width="29.875" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="31.2583333333333" style="21" customWidth="1"/>
+    <col min="6" max="6" width="31.2583333333333" style="24" customWidth="1"/>
     <col min="7" max="7" width="10.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="23" customFormat="1" spans="1:6">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>13408411662</v>
       </c>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="27" spans="1:6">
-      <c r="A3" s="11">
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="27" spans="1:6">
+      <c r="A3" s="15">
         <v>13408411662</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <v>13408411662</v>
       </c>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="38.1" customHeight="1" spans="1:6">
-      <c r="A4" s="26" t="s">
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="38.1" customHeight="1" spans="1:6">
+      <c r="A4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>13408411662</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="54" spans="1:6">
-      <c r="A5" s="27" t="s">
+    <row r="5" s="6" customFormat="1" ht="54" spans="1:6">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
-      <c r="A6" s="27" t="s">
+    <row r="6" s="6" customFormat="1" spans="1:6">
+      <c r="A6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="54" spans="1:6">
-      <c r="A7" s="26" t="s">
+    <row r="7" s="6" customFormat="1" ht="54" spans="1:6">
+      <c r="A7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="54" spans="1:6">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="6" customFormat="1" ht="54.75" spans="1:6">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:7">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="6" customFormat="1" ht="15" spans="1:9">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="2" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="27" spans="1:6">
-      <c r="A10" s="4">
+      <c r="I9" s="41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="27" spans="1:9">
+      <c r="A10" s="8">
         <v>17740228031</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="33">
         <v>17740228031</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="34">
         <v>17740228031</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="32"/>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="27" spans="1:6">
-      <c r="A12" s="26" t="s">
+      <c r="I10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" spans="1:6">
+      <c r="A11" s="36"/>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="27" spans="1:6">
+      <c r="A12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="33">
         <v>17740228031</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="40.5" spans="1:6">
-      <c r="A13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="12" t="s">
+    <row r="13" s="6" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A13" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="6">
         <v>17740228031</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="27" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="27" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="6">
         <v>17740228031</v>
       </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="6">
         <v>159</v>
       </c>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="6:6">
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" s="7" customFormat="1" spans="6:6">
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" s="7" customFormat="1" ht="17.25" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="7">
         <v>159</v>
       </c>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="6:6">
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" s="13" customFormat="1" spans="2:6">
-      <c r="B19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" s="7" customFormat="1" spans="6:6">
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="2:6">
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="6">
+      <c r="B22" s="10">
         <v>25899588</v>
       </c>
     </row>
@@ -2708,7 +2936,7 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2730,93 +2958,93 @@
       </c>
     </row>
     <row r="27" spans="6:12">
-      <c r="F27" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="F27" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="36">
+        <v>44</v>
+      </c>
+      <c r="B28" s="40">
         <v>0.541666666666667</v>
       </c>
       <c r="C28">
         <v>-306</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="F28" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="36">
+        <v>46</v>
+      </c>
+      <c r="B29" s="40">
         <v>0.770833333333333</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="10">
         <v>-312</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3">
+      <c r="F29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7">
         <v>4</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="36">
+        <v>48</v>
+      </c>
+      <c r="B30" s="40">
         <v>0.916666666666667</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3">
+      <c r="F30" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7">
         <v>1</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7">
         <v>1</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="6:12">
-      <c r="F31" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="F31" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B32">
         <v>-267</v>
@@ -2824,23 +3052,23 @@
       <c r="C32">
         <v>-327</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
+      <c r="F32" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7">
         <v>3</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="7">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>-352</v>
@@ -2851,7 +3079,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>-310</v>
@@ -2862,25 +3090,30 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>-340</v>
@@ -2926,7 +3159,7 @@
         <v>8.23</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -2934,7 +3167,7 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -2942,7 +3175,7 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -2953,7 +3186,7 @@
         <v>8.24</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2979,8 +3212,8 @@
   <sheetPr/>
   <dimension ref="A2:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2993,31 +3226,31 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3025,7 +3258,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3048,7 +3281,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3076,11 +3309,11 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>70</v>
+      <c r="A5" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -3103,10 +3336,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -3132,10 +3365,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3161,10 +3394,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3184,25 +3417,25 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>7176</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G11">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K11">
         <v>18</v>
@@ -3210,13 +3443,13 @@
     </row>
     <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K12">
         <v>21</v>
@@ -3224,13 +3457,13 @@
     </row>
     <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G13">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K13">
         <v>13</v>
@@ -3238,13 +3471,13 @@
     </row>
     <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -3276,208 +3509,208 @@
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="7:13">
       <c r="G21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="13:13">
       <c r="M22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="9:10">
       <c r="I25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>104</v>
+      <c r="A35" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>106</v>
+      <c r="B36" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>115</v>
+      <c r="C41" s="12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>117</v>
+      <c r="B42" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>132</v>
+      <c r="C50" s="12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3493,450 +3726,450 @@
   <dimension ref="B1:O62"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="5" max="6" width="9.875" style="13"/>
+    <col min="5" max="6" width="9.875" style="4"/>
     <col min="11" max="11" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" ht="67.5" spans="2:14">
-      <c r="B2" s="11">
+      <c r="B2" s="15">
         <v>13408411662</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="M2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="M2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" ht="54" spans="2:15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="M3" s="2" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="M3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" ht="84" customHeight="1" spans="2:13">
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="M4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="N3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" ht="84" customHeight="1" spans="2:13">
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="M4" s="19" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="M5" s="12" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="M5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="2:13">
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="M6" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="2:13">
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="M6" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="M7" s="2" t="s">
-        <v>140</v>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="M7" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="N7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="2:6">
-      <c r="B9" s="4">
+      <c r="B9" s="8">
         <v>17740228031</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" ht="54" spans="2:6">
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" ht="17.25" spans="2:10">
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" ht="54" spans="2:6">
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" ht="17.25" spans="2:10">
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="2:6">
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="18" t="s">
-        <v>147</v>
+      <c r="E15" s="21" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="13" t="s">
-        <v>36</v>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="3:12">
       <c r="C17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" t="s">
         <v>152</v>
       </c>
-      <c r="H19" t="s">
-        <v>148</v>
-      </c>
       <c r="J19" t="s">
-        <v>148</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J20" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" t="s">
         <v>164</v>
       </c>
-      <c r="D22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>166</v>
+      <c r="H22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>161</v>
+        <v>175</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="4:12">
       <c r="D24" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>165</v>
+        <v>177</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="8:12">
       <c r="H25" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J25" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="26" spans="8:12">
-      <c r="H26" s="13" t="s">
-        <v>176</v>
+      <c r="H26" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="7:12">
       <c r="G27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="7:12">
       <c r="G28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s">
-        <v>166</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="7:12">
       <c r="G29" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H29" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J29" t="s">
-        <v>162</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>180</v>
+        <v>166</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="7:12">
       <c r="G30" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H30" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J30" t="s">
-        <v>166</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="7:12">
       <c r="G31" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J31" t="s">
-        <v>179</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>170</v>
+        <v>183</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="7:12">
       <c r="G32" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J32" t="s">
-        <v>181</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>181</v>
+        <v>185</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="7:12">
       <c r="G33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L33" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="3:3">
@@ -3946,212 +4179,212 @@
     </row>
     <row r="39" spans="11:11">
       <c r="K39" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="11:11">
       <c r="K40" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="8:11">
       <c r="H41" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K41" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K42" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H43" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K43" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="3:11">
       <c r="C44" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H44" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K44" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H45" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K45" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="3:11">
       <c r="C46" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H46" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K46" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="3:11">
       <c r="C47" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H47" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K47" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="3:11">
       <c r="C48" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H48" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K48" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H49" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K49" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="3:11">
       <c r="C50" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H50" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K50" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H51" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="3:8">
       <c r="C52" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H52" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H53" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="C54" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H54" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="C55" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H55" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="C56" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H56" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="3:8">
       <c r="C57" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H57" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H58" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H59" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H60" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="3:8">
       <c r="C61" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H61" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4166,7 +4399,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75833333333333" defaultRowHeight="13.5"/>
@@ -4186,647 +4419,647 @@
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="8">
         <v>17740228031</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:10">
-      <c r="A2" s="11">
+      <c r="A2" s="15">
         <v>13408411662</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="12" t="s">
-        <v>135</v>
+      <c r="B2" s="6"/>
+      <c r="C2" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>70</v>
+      <c r="J2" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="F3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" ht="94.5" spans="1:10">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" ht="27.95" customHeight="1" spans="1:10">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="15">
+        <v>13408411662</v>
+      </c>
+      <c r="J5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:10">
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I5" s="11">
-        <v>13408411662</v>
-      </c>
-      <c r="J5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="1:10">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="J6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>70</v>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" ht="54" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" ht="17.25" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="13" ht="17.25" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="H13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="6:6">
       <c r="F14" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="6:6">
       <c r="F15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="6:6">
       <c r="F16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F23" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F26" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="6:6">
       <c r="F36" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4841,7 +5074,7 @@
   <dimension ref="B1:R99"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M4" sqref="M$1:M$1048576"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75833333333333" defaultRowHeight="13.5"/>
@@ -4856,18 +5089,18 @@
   <sheetData>
     <row r="1" spans="7:10">
       <c r="G1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G2">
         <v>186</v>
@@ -4884,10 +5117,10 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G3">
         <v>177</v>
@@ -4904,506 +5137,506 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>329</v>
+      </c>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="8"/>
-      <c r="O10" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="O10" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" spans="15:18">
-      <c r="O11" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9" t="s">
-        <v>332</v>
+      <c r="O11" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="15:18">
-      <c r="O12" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="R12" s="9"/>
+      <c r="O12" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="R12" s="13"/>
     </row>
     <row r="16" spans="15:18">
-      <c r="O16" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>334</v>
+      <c r="O16" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="15:18">
-      <c r="O17" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q17" s="9" t="s">
+      <c r="O17" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="15:18">
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13" t="s">
         <v>337</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="15:18">
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="7:7">
       <c r="G23" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="7:7">
       <c r="G24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="7:7">
       <c r="G25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="7:7">
       <c r="G26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="7:7">
       <c r="G27" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="7:7">
       <c r="G30" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="7:7">
       <c r="G31" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="7:7">
       <c r="G32" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="7:7">
       <c r="G58" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="7:7">
       <c r="G59" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="7:7">
       <c r="G60" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="7:7">
       <c r="G61" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="7:7">
       <c r="G62" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="7:7">
       <c r="G63" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="7:7">
       <c r="G97" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="7:7">
       <c r="G98" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="7:7">
       <c r="G99" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5416,10 +5649,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75833333333333" defaultRowHeight="13.5"/>
@@ -5434,256 +5667,316 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:17">
+      <c r="A2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:11">
-      <c r="A2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N2" t="s">
+        <v>348</v>
+      </c>
+      <c r="O2" t="s">
+        <v>349</v>
+      </c>
+      <c r="P2" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="14:17">
+      <c r="N3" t="s">
+        <v>352</v>
+      </c>
+      <c r="O3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P3" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="14:16">
+      <c r="N4" t="s">
+        <v>356</v>
+      </c>
+      <c r="O4" t="s">
+        <v>357</v>
+      </c>
+      <c r="P4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N5" t="s">
+        <v>359</v>
+      </c>
+      <c r="O5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>345</v>
+      </c>
+      <c r="N6" t="s">
+        <v>361</v>
+      </c>
+      <c r="O6" t="s">
+        <v>350</v>
+      </c>
+      <c r="P6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="14:15">
+      <c r="N7" t="s">
+        <v>363</v>
+      </c>
+      <c r="O7" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>17740228031</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-119355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>345</v>
       </c>
-      <c r="C13" t="s">
-        <v>343</v>
-      </c>
-      <c r="E13" t="s">
-        <v>346</v>
-      </c>
-      <c r="F13" s="6">
-        <v>-119355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>341</v>
-      </c>
       <c r="E14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F14" s="6">
+        <v>367</v>
+      </c>
+      <c r="F14" s="10">
         <v>-134370</v>
       </c>
     </row>
     <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>346</v>
-      </c>
-      <c r="F15" s="6">
+        <v>367</v>
+      </c>
+      <c r="F15" s="10">
         <v>-172368</v>
       </c>
     </row>
     <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>346</v>
-      </c>
-      <c r="F16" s="6">
+        <v>367</v>
+      </c>
+      <c r="F16" s="10">
         <v>-188371</v>
       </c>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="6">
+      <c r="F17" s="10">
         <v>-224359</v>
       </c>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="6">
+      <c r="F18" s="10">
         <v>-246356</v>
       </c>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="6">
+      <c r="F19" s="10">
         <v>-269330</v>
       </c>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="6">
+      <c r="F20" s="10">
         <v>-283323</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>347</v>
-      </c>
-      <c r="F21" s="6">
+        <v>368</v>
+      </c>
+      <c r="F21" s="10">
         <v>-301285</v>
       </c>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="6">
+      <c r="F22" s="10">
         <v>-312274</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>348</v>
-      </c>
-      <c r="F23" s="6">
+        <v>369</v>
+      </c>
+      <c r="F23" s="10">
         <v>-313236</v>
       </c>
     </row>
     <row r="24" spans="5:6">
       <c r="E24" t="s">
-        <v>349</v>
-      </c>
-      <c r="F24" s="6">
+        <v>370</v>
+      </c>
+      <c r="F24" s="10">
         <v>-315226</v>
       </c>
     </row>
     <row r="25" spans="6:6">
-      <c r="F25" s="6">
+      <c r="F25" s="10">
         <v>-304180</v>
       </c>
     </row>
     <row r="26" spans="6:6">
-      <c r="F26" s="6">
+      <c r="F26" s="10">
         <v>-302171</v>
       </c>
     </row>
     <row r="27" spans="6:6">
-      <c r="F27" s="6">
+      <c r="F27" s="10">
         <v>-275135</v>
       </c>
     </row>
     <row r="28" spans="6:6">
-      <c r="F28" s="6">
+      <c r="F28" s="10">
         <v>-271127</v>
       </c>
     </row>
     <row r="29" spans="6:6">
-      <c r="F29" s="6">
+      <c r="F29" s="10">
         <v>-231104</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="6:14">
-      <c r="F33" s="6">
+      <c r="F33" s="10">
         <v>-126101</v>
       </c>
       <c r="N33" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="6:14">
-      <c r="F34" s="6">
+      <c r="F34" s="10">
         <v>-115102</v>
       </c>
       <c r="N34" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="6:14">
-      <c r="F35" s="6">
+      <c r="F35" s="10">
         <v>-81130</v>
       </c>
       <c r="N35" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="7:14">
-      <c r="G36" s="6">
+      <c r="G36" s="10">
         <v>-69136</v>
       </c>
       <c r="N36" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="7:15">
-      <c r="G37" s="6">
+      <c r="G37" s="10">
         <v>-50173</v>
       </c>
       <c r="N37">
@@ -5694,7 +5987,7 @@
       </c>
     </row>
     <row r="38" spans="7:15">
-      <c r="G38" s="6">
+      <c r="G38" s="10">
         <v>-41183</v>
       </c>
       <c r="N38">
@@ -5705,7 +5998,7 @@
       </c>
     </row>
     <row r="39" spans="7:15">
-      <c r="G39" s="6">
+      <c r="G39" s="10">
         <v>-38225</v>
       </c>
       <c r="N39">
@@ -5716,88 +6009,754 @@
       </c>
     </row>
     <row r="40" spans="7:14">
-      <c r="G40" s="6">
+      <c r="G40" s="10">
         <v>-33246</v>
       </c>
       <c r="N40" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="7:14">
-      <c r="G41" s="6">
+      <c r="G41" s="10">
         <v>-46278</v>
       </c>
       <c r="N41" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="7:14">
-      <c r="G42" s="6">
+      <c r="G42" s="10">
         <v>-49294</v>
       </c>
       <c r="N42" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="7:14">
-      <c r="G43" s="6">
+      <c r="G43" s="10">
         <v>-67331</v>
       </c>
       <c r="H43" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="N43" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="8" t="s">
-        <v>363</v>
+      <c r="G48" s="12" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="8" t="s">
-        <v>364</v>
+      <c r="G49" s="12" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="8" t="s">
-        <v>365</v>
+      <c r="G50" s="12" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="8" t="s">
-        <v>366</v>
+      <c r="G51" s="12" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="8" t="s">
-        <v>367</v>
+      <c r="G52" s="12" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="8" t="s">
-        <v>368</v>
+      <c r="G53" s="12" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="7:7">
-      <c r="G54" s="8" t="s">
-        <v>369</v>
+      <c r="G54" s="12" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="7:7">
-      <c r="G55" s="8" t="s">
-        <v>370</v>
+      <c r="G55" s="12" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="7:7">
-      <c r="G56" s="8" t="s">
-        <v>371</v>
+      <c r="G56" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:6">
+      <c r="D1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" ht="19" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" t="s">
+        <v>399</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>400</v>
+      </c>
+      <c r="D13" t="s">
+        <v>401</v>
+      </c>
+      <c r="E13" t="s">
+        <v>401</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E20" t="s">
+        <v>399</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>401</v>
+      </c>
+      <c r="E21" t="s">
+        <v>401</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>398</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>399</v>
+      </c>
+      <c r="E28" t="s">
+        <v>399</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29" t="s">
+        <v>401</v>
+      </c>
+      <c r="E29" t="s">
+        <v>401</v>
+      </c>
+      <c r="F29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>407</v>
+      </c>
+      <c r="B35" t="s">
+        <v>396</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>397</v>
+      </c>
+      <c r="E35" t="s">
+        <v>397</v>
+      </c>
+      <c r="F35" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>398</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>400</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>402</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>403</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>404</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>405</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45598.2708333333</v>
+      </c>
+      <c r="C1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2">
+        <v>-261</v>
+      </c>
+      <c r="D2">
+        <v>-328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3">
+        <v>-279</v>
+      </c>
+      <c r="D3">
+        <v>-332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4">
+        <v>-264</v>
+      </c>
+      <c r="D4">
+        <v>-310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-330</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-339</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-339</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-320</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-275</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>414</v>
+      </c>
+      <c r="E32" t="s">
+        <v>415</v>
+      </c>
+      <c r="F32" t="s">
+        <v>416</v>
+      </c>
+      <c r="G32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" t="s">
+        <v>421</v>
+      </c>
+      <c r="E33" t="s">
+        <v>422</v>
+      </c>
+      <c r="F33" t="s">
+        <v>423</v>
+      </c>
+      <c r="G33" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1">
+        <v>-105</v>
+      </c>
+      <c r="D1">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
